--- a/new_data/double_hit/20260205_203910_phrase45/20260205_203910_phrase45_keypoints.xlsx
+++ b/new_data/double_hit/20260205_203910_phrase45/20260205_203910_phrase45_keypoints.xlsx
@@ -491,1698 +491,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.824464963834322</v>
+        <v>2.901809985320002</v>
       </c>
       <c r="B2" t="n">
-        <v>7.838664895121054</v>
+        <v>2.878814973597914</v>
       </c>
       <c r="C2" t="n">
-        <v>7.851400564908195</v>
+        <v>2.889073991571782</v>
       </c>
       <c r="D2" t="n">
-        <v>7.905111841485179</v>
+        <v>2.691943164306425</v>
       </c>
       <c r="E2" t="n">
-        <v>7.932604445687635</v>
+        <v>2.804248070054995</v>
       </c>
       <c r="F2" t="n">
-        <v>7.884302058661672</v>
+        <v>2.662243373916346</v>
       </c>
       <c r="G2" t="n">
-        <v>8.013496988473806</v>
+        <v>2.752786278218827</v>
       </c>
       <c r="H2" t="n">
-        <v>7.81377123346397</v>
+        <v>2.845371966316343</v>
       </c>
       <c r="I2" t="n">
-        <v>8.025127165152036</v>
+        <v>2.863189357366656</v>
       </c>
       <c r="J2" t="n">
-        <v>7.772892311715004</v>
+        <v>2.921299143301612</v>
       </c>
       <c r="K2" t="n">
-        <v>7.902860721854164</v>
+        <v>2.960932033800513</v>
       </c>
       <c r="L2" t="n">
-        <v>7.953749889785135</v>
+        <v>2.670662279708737</v>
       </c>
       <c r="M2" t="n">
-        <v>8.000499235336862</v>
+        <v>2.791992827981098</v>
       </c>
       <c r="N2" t="n">
-        <v>7.725391984870919</v>
+        <v>2.685097976205257</v>
       </c>
       <c r="O2" t="n">
-        <v>7.880952742905963</v>
+        <v>3.145930500069383</v>
       </c>
       <c r="P2" t="n">
-        <v>7.517637114894057</v>
+        <v>2.564496315393548</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.186762662547924</v>
+        <v>3.318576405372441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.817873962840108</v>
+        <v>2.930646869362625</v>
       </c>
       <c r="B3" t="n">
-        <v>7.834579192041423</v>
+        <v>2.91875716654129</v>
       </c>
       <c r="C3" t="n">
-        <v>7.845531965351487</v>
+        <v>2.921123129395783</v>
       </c>
       <c r="D3" t="n">
-        <v>7.914234896002773</v>
+        <v>2.757464888512354</v>
       </c>
       <c r="E3" t="n">
-        <v>7.933211919623719</v>
+        <v>2.853663061181265</v>
       </c>
       <c r="F3" t="n">
-        <v>7.900229550961834</v>
+        <v>2.671294030864513</v>
       </c>
       <c r="G3" t="n">
-        <v>8.015934181202361</v>
+        <v>2.825906544649834</v>
       </c>
       <c r="H3" t="n">
-        <v>7.723812795869907</v>
+        <v>2.83522724782904</v>
       </c>
       <c r="I3" t="n">
-        <v>8.008446259231444</v>
+        <v>2.944273522688265</v>
       </c>
       <c r="J3" t="n">
-        <v>7.620287440369957</v>
+        <v>2.990426961532563</v>
       </c>
       <c r="K3" t="n">
-        <v>7.875608310048859</v>
+        <v>3.029796561520877</v>
       </c>
       <c r="L3" t="n">
-        <v>7.9756499636671</v>
+        <v>2.666003206228409</v>
       </c>
       <c r="M3" t="n">
-        <v>8.009147985880336</v>
+        <v>2.834040066899891</v>
       </c>
       <c r="N3" t="n">
-        <v>7.737924555264014</v>
+        <v>2.71618853207324</v>
       </c>
       <c r="O3" t="n">
-        <v>7.871548754496007</v>
+        <v>3.19492481065724</v>
       </c>
       <c r="P3" t="n">
-        <v>7.447550189569569</v>
+        <v>2.552667961817398</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.225288306886833</v>
+        <v>3.327852192139993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.824368886875462</v>
+        <v>3.021306081609103</v>
       </c>
       <c r="B4" t="n">
-        <v>7.841410385432787</v>
+        <v>3.004745071975811</v>
       </c>
       <c r="C4" t="n">
-        <v>7.851934460920089</v>
+        <v>3.010953761658183</v>
       </c>
       <c r="D4" t="n">
-        <v>7.917206592825241</v>
+        <v>2.862904156411361</v>
       </c>
       <c r="E4" t="n">
-        <v>7.936287598471282</v>
+        <v>2.928329474660571</v>
       </c>
       <c r="F4" t="n">
-        <v>7.901359367351469</v>
+        <v>2.804331694918968</v>
       </c>
       <c r="G4" t="n">
-        <v>8.01779673642381</v>
+        <v>2.842999247741398</v>
       </c>
       <c r="H4" t="n">
-        <v>7.796397114042742</v>
+        <v>2.880333550003287</v>
       </c>
       <c r="I4" t="n">
-        <v>8.008283293250594</v>
+        <v>2.948171208214956</v>
       </c>
       <c r="J4" t="n">
-        <v>7.721501476119099</v>
+        <v>2.978374025898145</v>
       </c>
       <c r="K4" t="n">
-        <v>7.87764964138363</v>
+        <v>3.021841426808159</v>
       </c>
       <c r="L4" t="n">
-        <v>7.971017594853194</v>
+        <v>2.792474857764697</v>
       </c>
       <c r="M4" t="n">
-        <v>8.008398828834034</v>
+        <v>2.881091651390218</v>
       </c>
       <c r="N4" t="n">
-        <v>7.742651784872743</v>
+        <v>2.763946180644313</v>
       </c>
       <c r="O4" t="n">
-        <v>7.883172850354056</v>
+        <v>3.254936788367015</v>
       </c>
       <c r="P4" t="n">
-        <v>7.484410905342913</v>
+        <v>2.5553494350757</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.209116365615394</v>
+        <v>3.375727609351378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.824713061297708</v>
+        <v>3.077979272719305</v>
       </c>
       <c r="B5" t="n">
-        <v>7.838271466055342</v>
+        <v>3.065270484439933</v>
       </c>
       <c r="C5" t="n">
-        <v>7.85146927817624</v>
+        <v>3.067185822481577</v>
       </c>
       <c r="D5" t="n">
-        <v>7.909365983283825</v>
+        <v>2.893383228284923</v>
       </c>
       <c r="E5" t="n">
-        <v>7.937858882406059</v>
+        <v>3.007837366072407</v>
       </c>
       <c r="F5" t="n">
-        <v>7.904613214230335</v>
+        <v>2.840606627179176</v>
       </c>
       <c r="G5" t="n">
-        <v>8.025412963700544</v>
+        <v>2.897355044149546</v>
       </c>
       <c r="H5" t="n">
-        <v>7.798030422343365</v>
+        <v>2.866634044448989</v>
       </c>
       <c r="I5" t="n">
-        <v>8.019931104307348</v>
+        <v>2.956209420030528</v>
       </c>
       <c r="J5" t="n">
-        <v>7.719886410279019</v>
+        <v>2.91840331285924</v>
       </c>
       <c r="K5" t="n">
-        <v>7.881981617680593</v>
+        <v>3.055827813118514</v>
       </c>
       <c r="L5" t="n">
-        <v>7.968474595853489</v>
+        <v>2.843155177072911</v>
       </c>
       <c r="M5" t="n">
-        <v>8.008483960316568</v>
+        <v>2.946358301502326</v>
       </c>
       <c r="N5" t="n">
-        <v>7.736253545878268</v>
+        <v>2.804920720707561</v>
       </c>
       <c r="O5" t="n">
-        <v>7.875199678932694</v>
+        <v>3.305268731604356</v>
       </c>
       <c r="P5" t="n">
-        <v>7.486724657421793</v>
+        <v>2.560334061246996</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.205116402100316</v>
+        <v>3.380570547980222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.829536367865297</v>
+        <v>3.075819998393234</v>
       </c>
       <c r="B6" t="n">
-        <v>7.840591907036421</v>
+        <v>3.063195930500069</v>
       </c>
       <c r="C6" t="n">
-        <v>7.854940818417588</v>
+        <v>3.066816266314152</v>
       </c>
       <c r="D6" t="n">
-        <v>7.910881323672937</v>
+        <v>2.9224143849373</v>
       </c>
       <c r="E6" t="n">
-        <v>7.93944171989918</v>
+        <v>3.033069434199283</v>
       </c>
       <c r="F6" t="n">
-        <v>7.913209061638233</v>
+        <v>2.866169908195237</v>
       </c>
       <c r="G6" t="n">
-        <v>8.028408375721718</v>
+        <v>2.96673008523163</v>
       </c>
       <c r="H6" t="n">
-        <v>7.7605677053721</v>
+        <v>2.96240131170529</v>
       </c>
       <c r="I6" t="n">
-        <v>8.011577881624673</v>
+        <v>3.009250224582058</v>
       </c>
       <c r="J6" t="n">
-        <v>7.649110528028021</v>
+        <v>2.987342701265693</v>
       </c>
       <c r="K6" t="n">
-        <v>7.859809731136536</v>
+        <v>3.163295988197574</v>
       </c>
       <c r="L6" t="n">
-        <v>7.99524723094651</v>
+        <v>2.876350961503348</v>
       </c>
       <c r="M6" t="n">
-        <v>8.032509280851801</v>
+        <v>3.009368175809408</v>
       </c>
       <c r="N6" t="n">
-        <v>7.735396150232743</v>
+        <v>2.858362668984305</v>
       </c>
       <c r="O6" t="n">
-        <v>7.851319689999787</v>
+        <v>3.345243607627756</v>
       </c>
       <c r="P6" t="n">
-        <v>7.479866708421632</v>
+        <v>2.605781801184625</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.210455970301274</v>
+        <v>3.361363852148319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.834856477441678</v>
+        <v>3.140923233105221</v>
       </c>
       <c r="B7" t="n">
-        <v>7.846532868353283</v>
+        <v>3.119927549462829</v>
       </c>
       <c r="C7" t="n">
-        <v>7.858246960350012</v>
+        <v>3.126608409228679</v>
       </c>
       <c r="D7" t="n">
-        <v>7.917702787752012</v>
+        <v>2.951522593320236</v>
       </c>
       <c r="E7" t="n">
-        <v>7.936196386168566</v>
+        <v>3.061138357154856</v>
       </c>
       <c r="F7" t="n">
-        <v>7.917722854458609</v>
+        <v>2.901895436054367</v>
       </c>
       <c r="G7" t="n">
-        <v>8.029301040124292</v>
+        <v>3.008621759992989</v>
       </c>
       <c r="H7" t="n">
-        <v>7.830076952779391</v>
+        <v>3.060728449251758</v>
       </c>
       <c r="I7" t="n">
-        <v>8.008062559478022</v>
+        <v>3.06308491758021</v>
       </c>
       <c r="J7" t="n">
-        <v>7.734258428776873</v>
+        <v>3.218068448229271</v>
       </c>
       <c r="K7" t="n">
-        <v>7.854995545799217</v>
+        <v>3.218772869026665</v>
       </c>
       <c r="L7" t="n">
-        <v>8.000085739564552</v>
+        <v>2.914788454656335</v>
       </c>
       <c r="M7" t="n">
-        <v>8.034233801455141</v>
+        <v>3.049308725469431</v>
       </c>
       <c r="N7" t="n">
-        <v>7.730431160554936</v>
+        <v>2.899081587192615</v>
       </c>
       <c r="O7" t="n">
-        <v>7.877529241144045</v>
+        <v>3.397350296886526</v>
       </c>
       <c r="P7" t="n">
-        <v>7.493318698826098</v>
+        <v>2.634248216124627</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.21339300644871</v>
+        <v>3.371808561141096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.831082112355315</v>
+        <v>3.168979557555086</v>
       </c>
       <c r="B8" t="n">
-        <v>7.842987142105727</v>
+        <v>3.15033230841142</v>
       </c>
       <c r="C8" t="n">
-        <v>7.854753529156013</v>
+        <v>3.15668816324742</v>
       </c>
       <c r="D8" t="n">
-        <v>7.922073073216115</v>
+        <v>2.98812125240102</v>
       </c>
       <c r="E8" t="n">
-        <v>7.935644247696129</v>
+        <v>3.098516297719123</v>
       </c>
       <c r="F8" t="n">
-        <v>7.932007917227875</v>
+        <v>2.93228759649725</v>
       </c>
       <c r="G8" t="n">
-        <v>8.026669869231961</v>
+        <v>3.062400398770094</v>
       </c>
       <c r="H8" t="n">
-        <v>7.844070136179968</v>
+        <v>3.067711307980515</v>
       </c>
       <c r="I8" t="n">
-        <v>8.007802300374275</v>
+        <v>3.114016111480343</v>
       </c>
       <c r="J8" t="n">
-        <v>7.752333058682956</v>
+        <v>3.21695868420476</v>
       </c>
       <c r="K8" t="n">
-        <v>7.860690841980766</v>
+        <v>3.235126824957457</v>
       </c>
       <c r="L8" t="n">
-        <v>8.007005104848542</v>
+        <v>2.936053819355687</v>
       </c>
       <c r="M8" t="n">
-        <v>8.029590487164908</v>
+        <v>3.077644773263414</v>
       </c>
       <c r="N8" t="n">
-        <v>7.735348719835331</v>
+        <v>2.951816741040454</v>
       </c>
       <c r="O8" t="n">
-        <v>7.882606117913184</v>
+        <v>3.399643955273479</v>
       </c>
       <c r="P8" t="n">
-        <v>7.473279355919527</v>
+        <v>2.704525054593525</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.210862777171386</v>
+        <v>3.37645430576756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.826691152102596</v>
+        <v>3.210996852199444</v>
       </c>
       <c r="B9" t="n">
-        <v>7.838634491020149</v>
+        <v>3.192189291635323</v>
       </c>
       <c r="C9" t="n">
-        <v>7.84965232910615</v>
+        <v>3.19978819903448</v>
       </c>
       <c r="D9" t="n">
-        <v>7.919537979282645</v>
+        <v>3.046425310945728</v>
       </c>
       <c r="E9" t="n">
-        <v>7.930020097110698</v>
+        <v>3.13233105221259</v>
       </c>
       <c r="F9" t="n">
-        <v>7.928679276260782</v>
+        <v>2.963071406139306</v>
       </c>
       <c r="G9" t="n">
-        <v>8.014193850466551</v>
+        <v>3.097246222274158</v>
       </c>
       <c r="H9" t="n">
-        <v>7.815413662994865</v>
+        <v>3.05741522483768</v>
       </c>
       <c r="I9" t="n">
-        <v>8.008576996865337</v>
+        <v>3.145681816521936</v>
       </c>
       <c r="J9" t="n">
-        <v>7.74483844780984</v>
+        <v>3.265489588887022</v>
       </c>
       <c r="K9" t="n">
-        <v>7.887175246197207</v>
+        <v>3.300401326312253</v>
       </c>
       <c r="L9" t="n">
-        <v>8.010216994068159</v>
+        <v>2.967075539909875</v>
       </c>
       <c r="M9" t="n">
-        <v>8.023616081337051</v>
+        <v>3.104947378415291</v>
       </c>
       <c r="N9" t="n">
-        <v>7.737463021012275</v>
+        <v>3.008334002819144</v>
       </c>
       <c r="O9" t="n">
-        <v>7.895488335466688</v>
+        <v>3.424137276239583</v>
       </c>
       <c r="P9" t="n">
-        <v>7.465866836118856</v>
+        <v>2.763514727470585</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.223893366737306</v>
+        <v>3.373607043477626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.825583226665612</v>
+        <v>3.191782852885971</v>
       </c>
       <c r="B10" t="n">
-        <v>7.838945829013418</v>
+        <v>3.171185208989125</v>
       </c>
       <c r="C10" t="n">
-        <v>7.843915075265352</v>
+        <v>3.183237779449464</v>
       </c>
       <c r="D10" t="n">
-        <v>7.91808162284929</v>
+        <v>3.045457964811826</v>
       </c>
       <c r="E10" t="n">
-        <v>7.93383641985631</v>
+        <v>3.109980937913103</v>
       </c>
       <c r="F10" t="n">
-        <v>7.95364225926793</v>
+        <v>2.967222705063504</v>
       </c>
       <c r="G10" t="n">
-        <v>8.006083252509098</v>
+        <v>3.092234938395133</v>
       </c>
       <c r="H10" t="n">
-        <v>7.87003158986084</v>
+        <v>3.001774746021428</v>
       </c>
       <c r="I10" t="n">
-        <v>7.984471409503714</v>
+        <v>3.164296930346696</v>
       </c>
       <c r="J10" t="n">
-        <v>7.765426888778759</v>
+        <v>3.222526128205315</v>
       </c>
       <c r="K10" t="n">
-        <v>7.84409202713262</v>
+        <v>3.283641296806187</v>
       </c>
       <c r="L10" t="n">
-        <v>8.031764988461644</v>
+        <v>3.004305767559396</v>
       </c>
       <c r="M10" t="n">
-        <v>8.039221290167617</v>
+        <v>3.118076116884919</v>
       </c>
       <c r="N10" t="n">
-        <v>7.727807894728841</v>
+        <v>3.104784145602209</v>
       </c>
       <c r="O10" t="n">
-        <v>7.915046685496939</v>
+        <v>3.442752390064344</v>
       </c>
       <c r="P10" t="n">
-        <v>7.477779770935504</v>
+        <v>2.8306914206002</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.223718239116092</v>
+        <v>3.354614704829793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.821338814179256</v>
+        <v>3.206159756355855</v>
       </c>
       <c r="B11" t="n">
-        <v>7.835889000708415</v>
+        <v>3.184175546483008</v>
       </c>
       <c r="C11" t="n">
-        <v>7.842700127393183</v>
+        <v>3.188356059333484</v>
       </c>
       <c r="D11" t="n">
-        <v>7.918756593889384</v>
+        <v>3.019849037035955</v>
       </c>
       <c r="E11" t="n">
-        <v>7.929759229924932</v>
+        <v>3.117735774643773</v>
       </c>
       <c r="F11" t="n">
-        <v>7.943788898246596</v>
+        <v>2.946603150721949</v>
       </c>
       <c r="G11" t="n">
-        <v>8.000749765128321</v>
+        <v>3.102325428531781</v>
       </c>
       <c r="H11" t="n">
-        <v>7.863737332891461</v>
+        <v>2.943115555685395</v>
       </c>
       <c r="I11" t="n">
-        <v>7.998454255509984</v>
+        <v>3.164385302473689</v>
       </c>
       <c r="J11" t="n">
-        <v>7.774823580204498</v>
+        <v>3.123127204738499</v>
       </c>
       <c r="K11" t="n">
-        <v>7.892458262770482</v>
+        <v>3.30718662586455</v>
       </c>
       <c r="L11" t="n">
-        <v>8.021768120084037</v>
+        <v>3.001409937117024</v>
       </c>
       <c r="M11" t="n">
-        <v>8.028317163419002</v>
+        <v>3.12643020427838</v>
       </c>
       <c r="N11" t="n">
-        <v>7.717797648546836</v>
+        <v>3.151608591815719</v>
       </c>
       <c r="O11" t="n">
-        <v>7.914504276336793</v>
+        <v>3.506329197128271</v>
       </c>
       <c r="P11" t="n">
-        <v>7.46914743860652</v>
+        <v>2.907497754179417</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.233579505203663</v>
+        <v>3.384539990213335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.816144577580624</v>
+        <v>3.301635249523448</v>
       </c>
       <c r="B12" t="n">
-        <v>7.830950766639404</v>
+        <v>3.290845085852426</v>
       </c>
       <c r="C12" t="n">
-        <v>7.835598337503763</v>
+        <v>3.293532767070062</v>
       </c>
       <c r="D12" t="n">
-        <v>7.910379656008002</v>
+        <v>3.137331015695182</v>
       </c>
       <c r="E12" t="n">
-        <v>7.924924977881017</v>
+        <v>3.223792917083574</v>
       </c>
       <c r="F12" t="n">
-        <v>7.936232871089652</v>
+        <v>3.027753412551764</v>
       </c>
       <c r="G12" t="n">
-        <v>7.999082404234684</v>
+        <v>3.172210252627428</v>
       </c>
       <c r="H12" t="n">
-        <v>7.878190834379741</v>
+        <v>3.03047706341613</v>
       </c>
       <c r="I12" t="n">
-        <v>7.997242956129923</v>
+        <v>3.169346192329884</v>
       </c>
       <c r="J12" t="n">
-        <v>7.804063204044962</v>
+        <v>3.152714338925366</v>
       </c>
       <c r="K12" t="n">
-        <v>7.889691489588116</v>
+        <v>3.260989913891952</v>
       </c>
       <c r="L12" t="n">
-        <v>8.013887377129427</v>
+        <v>3.023232374873102</v>
       </c>
       <c r="M12" t="n">
-        <v>8.014075882555039</v>
+        <v>3.149424850826389</v>
       </c>
       <c r="N12" t="n">
-        <v>7.725651027810631</v>
+        <v>3.199199903594043</v>
       </c>
       <c r="O12" t="n">
-        <v>7.901377001729993</v>
+        <v>3.510232542853178</v>
       </c>
       <c r="P12" t="n">
-        <v>7.46778837529606</v>
+        <v>3.010798927848906</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.230859554336689</v>
+        <v>3.410387741836534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.820967884148214</v>
+        <v>3.321166219937044</v>
       </c>
       <c r="B13" t="n">
-        <v>7.835914540153176</v>
+        <v>3.30616815535966</v>
       </c>
       <c r="C13" t="n">
-        <v>7.837723584157031</v>
+        <v>3.306345995135881</v>
       </c>
       <c r="D13" t="n">
-        <v>7.908655743486682</v>
+        <v>3.121844713374866</v>
       </c>
       <c r="E13" t="n">
-        <v>7.933816353149713</v>
+        <v>3.238514179709468</v>
       </c>
       <c r="F13" t="n">
-        <v>7.956294713030894</v>
+        <v>3.065813863468716</v>
       </c>
       <c r="G13" t="n">
-        <v>7.993136578261676</v>
+        <v>3.171215518437639</v>
       </c>
       <c r="H13" t="n">
-        <v>7.897681687305984</v>
+        <v>3.131691267227087</v>
       </c>
       <c r="I13" t="n">
-        <v>7.978719561694481</v>
+        <v>3.201741150006208</v>
       </c>
       <c r="J13" t="n">
-        <v>7.813723803066558</v>
+        <v>3.23582430744736</v>
       </c>
       <c r="K13" t="n">
-        <v>7.875739047682751</v>
+        <v>3.302432789710855</v>
       </c>
       <c r="L13" t="n">
-        <v>8.024241797733678</v>
+        <v>3.082881369548864</v>
       </c>
       <c r="M13" t="n">
-        <v>8.040523801850394</v>
+        <v>3.178902797963789</v>
       </c>
       <c r="N13" t="n">
-        <v>7.718071893537</v>
+        <v>3.28336157346207</v>
       </c>
       <c r="O13" t="n">
-        <v>7.922348534370315</v>
+        <v>3.580738528056325</v>
       </c>
       <c r="P13" t="n">
-        <v>7.476692520287136</v>
+        <v>3.081268760818282</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.230328698734885</v>
+        <v>3.464066870677252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.820634655202293</v>
+        <v>3.339744086005799</v>
       </c>
       <c r="B14" t="n">
-        <v>7.840903853111707</v>
+        <v>3.327040775337603</v>
       </c>
       <c r="C14" t="n">
-        <v>7.84128451245504</v>
+        <v>3.336202627792669</v>
       </c>
       <c r="D14" t="n">
-        <v>7.914476912645978</v>
+        <v>3.172030952154892</v>
       </c>
       <c r="E14" t="n">
-        <v>7.946694922211107</v>
+        <v>3.262534600243936</v>
       </c>
       <c r="F14" t="n">
-        <v>7.942781914424618</v>
+        <v>3.101054987912738</v>
       </c>
       <c r="G14" t="n">
-        <v>7.99626941681894</v>
+        <v>3.172271236698534</v>
       </c>
       <c r="H14" t="n">
-        <v>7.873108484872439</v>
+        <v>3.228176466721686</v>
       </c>
       <c r="I14" t="n">
-        <v>8.001391899739437</v>
+        <v>3.256221835949197</v>
       </c>
       <c r="J14" t="n">
-        <v>7.808353830764694</v>
+        <v>3.342093981200839</v>
       </c>
       <c r="K14" t="n">
-        <v>7.889653180420975</v>
+        <v>3.370075810138693</v>
       </c>
       <c r="L14" t="n">
-        <v>8.010627449430379</v>
+        <v>3.095156331022999</v>
       </c>
       <c r="M14" t="n">
-        <v>8.017534044991988</v>
+        <v>3.170487726499222</v>
       </c>
       <c r="N14" t="n">
-        <v>7.720178897729726</v>
+        <v>3.313821108522433</v>
       </c>
       <c r="O14" t="n">
-        <v>7.915790977887098</v>
+        <v>3.58153168615479</v>
       </c>
       <c r="P14" t="n">
-        <v>7.472933357251226</v>
+        <v>3.138408279226707</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.221311450488441</v>
+        <v>3.544743319140234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.812089278601897</v>
+        <v>3.370258397177935</v>
       </c>
       <c r="B15" t="n">
-        <v>7.829204355083414</v>
+        <v>3.358297120237217</v>
       </c>
       <c r="C15" t="n">
-        <v>7.835030996980873</v>
+        <v>3.375721036217965</v>
       </c>
       <c r="D15" t="n">
-        <v>7.916593038068974</v>
+        <v>3.192668034852214</v>
       </c>
       <c r="E15" t="n">
-        <v>7.932146559928003</v>
+        <v>3.293677376005141</v>
       </c>
       <c r="F15" t="n">
-        <v>7.944679130321098</v>
+        <v>3.104268884977469</v>
       </c>
       <c r="G15" t="n">
-        <v>7.999550627388622</v>
+        <v>3.193814316284573</v>
       </c>
       <c r="H15" t="n">
-        <v>7.869121291079741</v>
+        <v>3.217235486156251</v>
       </c>
       <c r="I15" t="n">
-        <v>7.990088871186946</v>
+        <v>3.263711191124809</v>
       </c>
       <c r="J15" t="n">
-        <v>7.770394310784638</v>
+        <v>3.34528852403941</v>
       </c>
       <c r="K15" t="n">
-        <v>7.851876693128369</v>
+        <v>3.384299705669693</v>
       </c>
       <c r="L15" t="n">
-        <v>8.017707956449167</v>
+        <v>3.09732035261209</v>
       </c>
       <c r="M15" t="n">
-        <v>8.02356500244753</v>
+        <v>3.190645700805574</v>
       </c>
       <c r="N15" t="n">
-        <v>7.727581688218107</v>
+        <v>3.313285763323376</v>
       </c>
       <c r="O15" t="n">
-        <v>7.903252326673821</v>
+        <v>3.593119390013219</v>
       </c>
       <c r="P15" t="n">
-        <v>7.478510077439245</v>
+        <v>3.147010319819458</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.22976014204796</v>
+        <v>3.666471176809985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.828525735551211</v>
+        <v>3.4083109968522</v>
       </c>
       <c r="B16" t="n">
-        <v>7.846494559186143</v>
+        <v>3.390852389333995</v>
       </c>
       <c r="C16" t="n">
-        <v>7.848490284369555</v>
+        <v>3.401017374982654</v>
       </c>
       <c r="D16" t="n">
-        <v>7.926363699935847</v>
+        <v>3.20092681181119</v>
       </c>
       <c r="E16" t="n">
-        <v>7.95272223117454</v>
+        <v>3.336547717296835</v>
       </c>
       <c r="F16" t="n">
-        <v>7.977001729993342</v>
+        <v>3.168505561601215</v>
       </c>
       <c r="G16" t="n">
-        <v>7.998243251049701</v>
+        <v>3.246600959677478</v>
       </c>
       <c r="H16" t="n">
-        <v>7.912087150314835</v>
+        <v>3.27697431365532</v>
       </c>
       <c r="I16" t="n">
-        <v>7.988849600034053</v>
+        <v>3.290404685913775</v>
       </c>
       <c r="J16" t="n">
-        <v>7.81804969854334</v>
+        <v>3.379994303284376</v>
       </c>
       <c r="K16" t="n">
-        <v>7.895001869852206</v>
+        <v>3.388629574718268</v>
       </c>
       <c r="L16" t="n">
-        <v>8.026002195176085</v>
+        <v>3.138629939892347</v>
       </c>
       <c r="M16" t="n">
-        <v>8.050816198088798</v>
+        <v>3.231200838439684</v>
       </c>
       <c r="N16" t="n">
-        <v>7.714444684299019</v>
+        <v>3.284926709562448</v>
       </c>
       <c r="O16" t="n">
-        <v>7.917498472193929</v>
+        <v>3.623256476362282</v>
       </c>
       <c r="P16" t="n">
-        <v>7.479147347394217</v>
+        <v>3.137421578866646</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.225546133662508</v>
+        <v>3.785501128387903</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.815662976622287</v>
+        <v>3.432363187531496</v>
       </c>
       <c r="B17" t="n">
-        <v>7.835224367062629</v>
+        <v>3.414831180023517</v>
       </c>
       <c r="C17" t="n">
-        <v>7.835242609523172</v>
+        <v>3.422831413734928</v>
       </c>
       <c r="D17" t="n">
-        <v>7.910500664329605</v>
+        <v>3.215229584943142</v>
       </c>
       <c r="E17" t="n">
-        <v>7.948887665968386</v>
+        <v>3.359901695138072</v>
       </c>
       <c r="F17" t="n">
-        <v>7.968321967266945</v>
+        <v>3.183922115672541</v>
       </c>
       <c r="G17" t="n">
-        <v>7.992228103726631</v>
+        <v>3.286654348127752</v>
       </c>
       <c r="H17" t="n">
-        <v>7.898754343985916</v>
+        <v>3.291988811066235</v>
       </c>
       <c r="I17" t="n">
-        <v>7.98228048999249</v>
+        <v>3.337912738002206</v>
       </c>
       <c r="J17" t="n">
-        <v>7.765350270444477</v>
+        <v>3.406849205016031</v>
       </c>
       <c r="K17" t="n">
-        <v>7.869586473823589</v>
+        <v>3.437623885306126</v>
       </c>
       <c r="L17" t="n">
-        <v>8.028723970289112</v>
+        <v>3.182995303861351</v>
       </c>
       <c r="M17" t="n">
-        <v>8.050520670228</v>
+        <v>3.298246434075124</v>
       </c>
       <c r="N17" t="n">
-        <v>7.723792121081291</v>
+        <v>3.272271601872613</v>
       </c>
       <c r="O17" t="n">
-        <v>7.906639951596671</v>
+        <v>3.656268943405321</v>
       </c>
       <c r="P17" t="n">
-        <v>7.482610374487311</v>
+        <v>3.139581948714953</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.213528000656728</v>
+        <v>3.837191519197201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.817864841609836</v>
+        <v>3.48671021976176</v>
       </c>
       <c r="B18" t="n">
-        <v>7.8339133422316</v>
+        <v>3.466279460418781</v>
       </c>
       <c r="C18" t="n">
-        <v>7.840013621037206</v>
+        <v>3.473639543970611</v>
       </c>
       <c r="D18" t="n">
-        <v>7.919616421862981</v>
+        <v>3.272121150152278</v>
       </c>
       <c r="E18" t="n">
-        <v>7.933816353149713</v>
+        <v>3.38733138086926</v>
       </c>
       <c r="F18" t="n">
-        <v>7.94927075763979</v>
+        <v>3.175404795465999</v>
       </c>
       <c r="G18" t="n">
-        <v>7.99648102936124</v>
+        <v>3.345936708028717</v>
       </c>
       <c r="H18" t="n">
-        <v>7.864225014669978</v>
+        <v>3.223843676280483</v>
       </c>
       <c r="I18" t="n">
-        <v>7.975109986835024</v>
+        <v>3.423506255431965</v>
       </c>
       <c r="J18" t="n">
-        <v>7.758222941110297</v>
+        <v>3.414042404013994</v>
       </c>
       <c r="K18" t="n">
-        <v>7.856749254339426</v>
+        <v>3.440703763484053</v>
       </c>
       <c r="L18" t="n">
-        <v>8.014037573387899</v>
+        <v>3.193862154088854</v>
       </c>
       <c r="M18" t="n">
-        <v>8.021439755794262</v>
+        <v>3.350227138276817</v>
       </c>
       <c r="N18" t="n">
-        <v>7.74200235327741</v>
+        <v>3.29831216540925</v>
       </c>
       <c r="O18" t="n">
-        <v>7.898484355569879</v>
+        <v>3.722761300311859</v>
       </c>
       <c r="P18" t="n">
-        <v>7.473922706694679</v>
+        <v>3.134869377232127</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.210085040270231</v>
+        <v>3.846020698066769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.824547662988784</v>
+        <v>3.535822116402889</v>
       </c>
       <c r="B19" t="n">
-        <v>7.841393967218298</v>
+        <v>3.510192008530467</v>
       </c>
       <c r="C19" t="n">
-        <v>7.844144930268195</v>
+        <v>3.525702777514041</v>
       </c>
       <c r="D19" t="n">
-        <v>7.917875483045153</v>
+        <v>3.336156981032858</v>
       </c>
       <c r="E19" t="n">
-        <v>7.947469010620153</v>
+        <v>3.432257287048736</v>
       </c>
       <c r="F19" t="n">
-        <v>7.969534482811041</v>
+        <v>3.257633964110692</v>
       </c>
       <c r="G19" t="n">
-        <v>7.995967808137961</v>
+        <v>3.37682970472024</v>
       </c>
       <c r="H19" t="n">
-        <v>7.891259733112802</v>
+        <v>3.296384776623016</v>
       </c>
       <c r="I19" t="n">
-        <v>7.973727208325859</v>
+        <v>3.377649155352357</v>
       </c>
       <c r="J19" t="n">
-        <v>7.755880609176566</v>
+        <v>3.459045361924029</v>
       </c>
       <c r="K19" t="n">
-        <v>7.845159819156408</v>
+        <v>3.475987613295258</v>
       </c>
       <c r="L19" t="n">
-        <v>8.01348239450537</v>
+        <v>3.247443781450618</v>
       </c>
       <c r="M19" t="n">
-        <v>8.036750652928067</v>
+        <v>3.372848576916616</v>
       </c>
       <c r="N19" t="n">
-        <v>7.734046816234573</v>
+        <v>3.344063730180177</v>
       </c>
       <c r="O19" t="n">
-        <v>7.905715666929155</v>
+        <v>3.808263889396075</v>
       </c>
       <c r="P19" t="n">
-        <v>7.47191299562485</v>
+        <v>3.141015256972999</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.221608802595295</v>
+        <v>3.834465129527246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.825913415201442</v>
+        <v>3.553756180571278</v>
       </c>
       <c r="B20" t="n">
-        <v>7.841297890259439</v>
+        <v>3.539946757619357</v>
       </c>
       <c r="C20" t="n">
-        <v>7.843747852710374</v>
+        <v>3.540891462960393</v>
       </c>
       <c r="D20" t="n">
-        <v>7.915951511539877</v>
+        <v>3.367475040351736</v>
       </c>
       <c r="E20" t="n">
-        <v>7.930647029671362</v>
+        <v>3.498853353393563</v>
       </c>
       <c r="F20" t="n">
-        <v>7.968261159065134</v>
+        <v>3.27817318015498</v>
       </c>
       <c r="G20" t="n">
-        <v>8.000824559216547</v>
+        <v>3.441311047976571</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8835942511926</v>
+        <v>3.334096303707978</v>
       </c>
       <c r="I20" t="n">
-        <v>8.00275278729595</v>
+        <v>3.507938884466225</v>
       </c>
       <c r="J20" t="n">
-        <v>7.759009799241722</v>
+        <v>3.520452669787688</v>
       </c>
       <c r="K20" t="n">
-        <v>7.880942405511655</v>
+        <v>3.587532591786505</v>
       </c>
       <c r="L20" t="n">
-        <v>8.015209955518801</v>
+        <v>3.271873562127066</v>
       </c>
       <c r="M20" t="n">
-        <v>8.035607458734034</v>
+        <v>3.423154592794385</v>
       </c>
       <c r="N20" t="n">
-        <v>7.624149977348945</v>
+        <v>3.432870779500588</v>
       </c>
       <c r="O20" t="n">
-        <v>7.965572828463103</v>
+        <v>3.875693648162079</v>
       </c>
       <c r="P20" t="n">
-        <v>7.575002964399839</v>
+        <v>3.173249172880712</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.193807900809661</v>
+        <v>3.84830741814623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.831994235382468</v>
+        <v>3.637260537098034</v>
       </c>
       <c r="B21" t="n">
-        <v>7.844109053429126</v>
+        <v>3.618934641143433</v>
       </c>
       <c r="C21" t="n">
-        <v>7.850331556720371</v>
+        <v>3.620800680684482</v>
       </c>
       <c r="D21" t="n">
-        <v>7.917716773638428</v>
+        <v>3.452365962854493</v>
       </c>
       <c r="E21" t="n">
-        <v>7.933934929143243</v>
+        <v>3.559913380708584</v>
       </c>
       <c r="F21" t="n">
-        <v>7.95915148235194</v>
+        <v>3.375271872101431</v>
       </c>
       <c r="G21" t="n">
-        <v>8.018787302031297</v>
+        <v>3.463066658876286</v>
       </c>
       <c r="H21" t="n">
-        <v>7.808999613867918</v>
+        <v>3.476293263998948</v>
       </c>
       <c r="I21" t="n">
-        <v>7.978304241676117</v>
+        <v>3.495597461309806</v>
       </c>
       <c r="J21" t="n">
-        <v>7.655674773413438</v>
+        <v>3.587355847532519</v>
       </c>
       <c r="K21" t="n">
-        <v>7.80427846507937</v>
+        <v>3.59024693071187</v>
       </c>
       <c r="L21" t="n">
-        <v>8.04009267169956</v>
+        <v>3.343319505408228</v>
       </c>
       <c r="M21" t="n">
-        <v>8.042043398813632</v>
+        <v>3.442044682700243</v>
       </c>
       <c r="N21" t="n">
-        <v>7.637538727223528</v>
+        <v>3.53733868435083</v>
       </c>
       <c r="O21" t="n">
-        <v>7.948423091306555</v>
+        <v>3.900583548177416</v>
       </c>
       <c r="P21" t="n">
-        <v>7.591756840162601</v>
+        <v>3.206970807984166</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.166914257395037</v>
+        <v>3.979192381008027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.826413866702341</v>
+        <v>3.699448221967412</v>
       </c>
       <c r="B22" t="n">
-        <v>7.836328644007504</v>
+        <v>3.665825183865148</v>
       </c>
       <c r="C22" t="n">
-        <v>7.847656603922737</v>
+        <v>3.687377392803149</v>
       </c>
       <c r="D22" t="n">
-        <v>7.896588355837435</v>
+        <v>3.507018645788447</v>
       </c>
       <c r="E22" t="n">
-        <v>7.928110111491838</v>
+        <v>3.663501216029681</v>
       </c>
       <c r="F22" t="n">
-        <v>7.921922268875626</v>
+        <v>3.401078359053761</v>
       </c>
       <c r="G22" t="n">
-        <v>8.061657692389549</v>
+        <v>3.58001730925132</v>
       </c>
       <c r="H22" t="n">
-        <v>7.776014812877961</v>
+        <v>3.311899197347376</v>
       </c>
       <c r="I22" t="n">
-        <v>8.050580870347792</v>
+        <v>3.610601003498368</v>
       </c>
       <c r="J22" t="n">
-        <v>7.627247547149159</v>
+        <v>3.331479466261567</v>
       </c>
       <c r="K22" t="n">
-        <v>7.825097977215167</v>
+        <v>3.754536557576997</v>
       </c>
       <c r="L22" t="n">
-        <v>8.021000720577192</v>
+        <v>3.380709679304124</v>
       </c>
       <c r="M22" t="n">
-        <v>8.091422091011635</v>
+        <v>3.520760511535849</v>
       </c>
       <c r="N22" t="n">
-        <v>7.70336482184717</v>
+        <v>3.592118447864097</v>
       </c>
       <c r="O22" t="n">
-        <v>7.872652423358863</v>
+        <v>3.906101328503297</v>
       </c>
       <c r="P22" t="n">
-        <v>7.730082729558563</v>
+        <v>3.229943909261545</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.068510776733566</v>
+        <v>4.088651850337055</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.828956865702046</v>
+        <v>3.736784350099692</v>
       </c>
       <c r="B23" t="n">
-        <v>7.836257498411386</v>
+        <v>3.710624374639391</v>
       </c>
       <c r="C23" t="n">
-        <v>7.856236641198165</v>
+        <v>3.722560819742772</v>
       </c>
       <c r="D23" t="n">
-        <v>7.883129068448753</v>
+        <v>3.53160143440378</v>
       </c>
       <c r="E23" t="n">
-        <v>7.932433574640547</v>
+        <v>3.662995449930982</v>
       </c>
       <c r="F23" t="n">
-        <v>7.889555887298079</v>
+        <v>3.413134946428963</v>
       </c>
       <c r="G23" t="n">
-        <v>8.01505307035813</v>
+        <v>3.581937759730063</v>
       </c>
       <c r="H23" t="n">
-        <v>7.750697926136278</v>
+        <v>3.287921502180089</v>
       </c>
       <c r="I23" t="n">
-        <v>7.95572554826195</v>
+        <v>3.643165767121187</v>
       </c>
       <c r="J23" t="n">
-        <v>7.629315026010708</v>
+        <v>3.32707765791953</v>
       </c>
       <c r="K23" t="n">
-        <v>7.775130053541622</v>
+        <v>3.877516231987788</v>
       </c>
       <c r="L23" t="n">
-        <v>7.990586890359772</v>
+        <v>3.394881720115979</v>
       </c>
       <c r="M23" t="n">
-        <v>8.049302073863723</v>
+        <v>3.511035560651762</v>
       </c>
       <c r="N23" t="n">
-        <v>7.69105845796481</v>
+        <v>3.659785934955193</v>
       </c>
       <c r="O23" t="n">
-        <v>7.871072626275832</v>
+        <v>3.900640150159581</v>
       </c>
       <c r="P23" t="n">
-        <v>7.783786709151331</v>
+        <v>3.24053578340795</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.116948766049564</v>
+        <v>4.059228314137349</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.832915479639894</v>
+        <v>3.811927680925497</v>
       </c>
       <c r="B24" t="n">
-        <v>7.845754523370112</v>
+        <v>3.788662440385332</v>
       </c>
       <c r="C24" t="n">
-        <v>7.859170028853492</v>
+        <v>3.793478721306447</v>
       </c>
       <c r="D24" t="n">
-        <v>7.90980684274695</v>
+        <v>3.613010787242279</v>
       </c>
       <c r="E24" t="n">
-        <v>7.932581338570946</v>
+        <v>3.73823664740982</v>
       </c>
       <c r="F24" t="n">
-        <v>7.924676880417631</v>
+        <v>3.501224428685154</v>
       </c>
       <c r="G24" t="n">
-        <v>8.001239879234911</v>
+        <v>3.626493379393957</v>
       </c>
       <c r="H24" t="n">
-        <v>7.809679449564157</v>
+        <v>3.521085881639778</v>
       </c>
       <c r="I24" t="n">
-        <v>7.949954849910156</v>
+        <v>3.725687805376823</v>
       </c>
       <c r="J24" t="n">
-        <v>7.696353636178448</v>
+        <v>3.752213320089687</v>
       </c>
       <c r="K24" t="n">
-        <v>7.81089318127229</v>
+        <v>3.982890498900826</v>
       </c>
       <c r="L24" t="n">
-        <v>7.984307835440844</v>
+        <v>3.416581824555766</v>
       </c>
       <c r="M24" t="n">
-        <v>8.00511518593628</v>
+        <v>3.518042886043777</v>
       </c>
       <c r="N24" t="n">
-        <v>7.642520743197842</v>
+        <v>3.706270038927557</v>
       </c>
       <c r="O24" t="n">
-        <v>7.890786037220701</v>
+        <v>3.957973941177759</v>
       </c>
       <c r="P24" t="n">
-        <v>7.72899730315625</v>
+        <v>3.233260785416408</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.164260587468037</v>
+        <v>4.066352495234479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.830819420923494</v>
+        <v>3.812872021092455</v>
       </c>
       <c r="B25" t="n">
-        <v>7.846047618902838</v>
+        <v>3.780983925037065</v>
       </c>
       <c r="C25" t="n">
-        <v>7.857446116332171</v>
+        <v>3.787721751959159</v>
       </c>
       <c r="D25" t="n">
-        <v>7.921923485039662</v>
+        <v>3.598556466867756</v>
       </c>
       <c r="E25" t="n">
-        <v>7.939647859703316</v>
+        <v>3.718937562536061</v>
       </c>
       <c r="F25" t="n">
-        <v>7.908520749278662</v>
+        <v>3.524104775746598</v>
       </c>
       <c r="G25" t="n">
-        <v>8.009365679242816</v>
+        <v>3.630957997677493</v>
       </c>
       <c r="H25" t="n">
-        <v>7.828641271134651</v>
+        <v>3.594413932121442</v>
       </c>
       <c r="I25" t="n">
-        <v>7.980257401118263</v>
+        <v>3.701075437661133</v>
       </c>
       <c r="J25" t="n">
-        <v>7.729021018354956</v>
+        <v>3.805122661972963</v>
       </c>
       <c r="K25" t="n">
-        <v>7.837254752921074</v>
+        <v>3.98630816310135</v>
       </c>
       <c r="L25" t="n">
-        <v>7.952202321049063</v>
+        <v>3.476336719714288</v>
       </c>
       <c r="M25" t="n">
-        <v>7.981855440661836</v>
+        <v>3.579838739126942</v>
       </c>
       <c r="N25" t="n">
-        <v>7.726940769771026</v>
+        <v>3.662864717610885</v>
       </c>
       <c r="O25" t="n">
-        <v>7.865356047223649</v>
+        <v>4.007914052628888</v>
       </c>
       <c r="P25" t="n">
-        <v>7.482659629130777</v>
+        <v>3.225922247135209</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.203253846878868</v>
+        <v>4.064413055703654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.831545470853109</v>
+        <v>3.749824351268249</v>
       </c>
       <c r="B26" t="n">
-        <v>7.847591539146801</v>
+        <v>3.727182462880055</v>
       </c>
       <c r="C26" t="n">
-        <v>7.853648036047102</v>
+        <v>3.727222632028688</v>
       </c>
       <c r="D26" t="n">
-        <v>7.93360230827934</v>
+        <v>3.589983275027206</v>
       </c>
       <c r="E26" t="n">
-        <v>7.940725989121413</v>
+        <v>3.668410251166731</v>
       </c>
       <c r="F26" t="n">
-        <v>7.948075876474219</v>
+        <v>3.484855135443066</v>
       </c>
       <c r="G26" t="n">
-        <v>8.004724797280657</v>
+        <v>3.594576434586367</v>
       </c>
       <c r="H26" t="n">
-        <v>7.867751282292955</v>
+        <v>3.389277028359419</v>
       </c>
       <c r="I26" t="n">
-        <v>7.966236854026871</v>
+        <v>3.59758035655597</v>
       </c>
       <c r="J26" t="n">
-        <v>7.761208015737163</v>
+        <v>3.357620817843866</v>
       </c>
       <c r="K26" t="n">
-        <v>7.829872637221309</v>
+        <v>3.841429729552078</v>
       </c>
       <c r="L26" t="n">
-        <v>7.987948422483225</v>
+        <v>3.50577340218082</v>
       </c>
       <c r="M26" t="n">
-        <v>7.990625199526912</v>
+        <v>3.604698694867844</v>
       </c>
       <c r="N26" t="n">
-        <v>7.713745998060219</v>
+        <v>3.684802185201685</v>
       </c>
       <c r="O26" t="n">
-        <v>7.895189159113781</v>
+        <v>4.045507263312421</v>
       </c>
       <c r="P26" t="n">
-        <v>7.470066250535872</v>
+        <v>3.233398090869918</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.212479059175502</v>
+        <v>4.066823204621643</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.834511694937413</v>
+        <v>3.789521694992003</v>
       </c>
       <c r="B27" t="n">
-        <v>7.847406682213297</v>
+        <v>3.772113481496629</v>
       </c>
       <c r="C27" t="n">
-        <v>7.857248489676287</v>
+        <v>3.773628223574178</v>
       </c>
       <c r="D27" t="n">
-        <v>7.932714508532911</v>
+        <v>3.632356614398084</v>
       </c>
       <c r="E27" t="n">
-        <v>7.938511962493501</v>
+        <v>3.722160223778675</v>
       </c>
       <c r="F27" t="n">
-        <v>7.952523996436639</v>
+        <v>3.501978147983144</v>
       </c>
       <c r="G27" t="n">
-        <v>8.015467782294476</v>
+        <v>3.595020851439882</v>
       </c>
       <c r="H27" t="n">
-        <v>7.885740172634485</v>
+        <v>3.41050167614902</v>
       </c>
       <c r="I27" t="n">
-        <v>7.972813261052651</v>
+        <v>3.529828149078666</v>
       </c>
       <c r="J27" t="n">
-        <v>7.788605759144794</v>
+        <v>3.364879383001877</v>
       </c>
       <c r="K27" t="n">
-        <v>7.834880192640384</v>
+        <v>3.718676463069945</v>
       </c>
       <c r="L27" t="n">
-        <v>8.010135511077735</v>
+        <v>3.498500595233748</v>
       </c>
       <c r="M27" t="n">
-        <v>8.016233965637285</v>
+        <v>3.597122063087474</v>
       </c>
       <c r="N27" t="n">
-        <v>7.728710288443705</v>
+        <v>3.652532482234281</v>
       </c>
       <c r="O27" t="n">
-        <v>7.883949979173191</v>
+        <v>4.044991272339524</v>
       </c>
       <c r="P27" t="n">
-        <v>7.484330030434505</v>
+        <v>3.21794830595745</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.195053860864753</v>
+        <v>4.086957442612894</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.825275537164453</v>
+        <v>3.756812322434104</v>
       </c>
       <c r="B28" t="n">
-        <v>7.837296710580323</v>
+        <v>3.739612258163466</v>
       </c>
       <c r="C28" t="n">
-        <v>7.850544385426707</v>
+        <v>3.740766208251474</v>
       </c>
       <c r="D28" t="n">
-        <v>7.91737016688811</v>
+        <v>3.607905288451005</v>
       </c>
       <c r="E28" t="n">
-        <v>7.936619611253166</v>
+        <v>3.676391130651982</v>
       </c>
       <c r="F28" t="n">
-        <v>7.926582609462364</v>
+        <v>3.503474266182689</v>
       </c>
       <c r="G28" t="n">
-        <v>8.022992797268495</v>
+        <v>3.553541823387209</v>
       </c>
       <c r="H28" t="n">
-        <v>7.862814264387981</v>
+        <v>3.457392949218893</v>
       </c>
       <c r="I28" t="n">
-        <v>7.987134808743003</v>
+        <v>3.54100065000986</v>
       </c>
       <c r="J28" t="n">
-        <v>7.800106414353168</v>
+        <v>3.588542663287589</v>
       </c>
       <c r="K28" t="n">
-        <v>7.859503257799412</v>
+        <v>3.701064847612857</v>
       </c>
       <c r="L28" t="n">
-        <v>7.984278647503976</v>
+        <v>3.484583811102753</v>
       </c>
       <c r="M28" t="n">
-        <v>8.023997348762402</v>
+        <v>3.573801681261457</v>
       </c>
       <c r="N28" t="n">
-        <v>7.767723614561132</v>
+        <v>3.572692647585104</v>
       </c>
       <c r="O28" t="n">
-        <v>7.854214768487974</v>
+        <v>4.058753587835321</v>
       </c>
       <c r="P28" t="n">
-        <v>7.572315849961843</v>
+        <v>3.211696890907896</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.078500348126955</v>
+        <v>4.097074955631349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.825275537164453</v>
+        <v>3.530589171858225</v>
       </c>
       <c r="B29" t="n">
-        <v>7.837296710580323</v>
+        <v>3.519157397331308</v>
       </c>
       <c r="C29" t="n">
-        <v>7.850544385426707</v>
+        <v>3.523819209617225</v>
       </c>
       <c r="D29" t="n">
-        <v>7.91737016688811</v>
+        <v>3.384825921516787</v>
       </c>
       <c r="E29" t="n">
-        <v>7.936619611253166</v>
+        <v>3.436673337179834</v>
       </c>
       <c r="F29" t="n">
-        <v>7.926582609462364</v>
+        <v>3.301118893376473</v>
       </c>
       <c r="G29" t="n">
-        <v>8.022992797268495</v>
+        <v>3.386687213794816</v>
       </c>
       <c r="H29" t="n">
-        <v>7.862814264387981</v>
+        <v>3.214566063642538</v>
       </c>
       <c r="I29" t="n">
-        <v>7.987134808743003</v>
+        <v>3.508463274442927</v>
       </c>
       <c r="J29" t="n">
-        <v>7.800106414353168</v>
+        <v>3.555846802170595</v>
       </c>
       <c r="K29" t="n">
-        <v>7.859503257799412</v>
+        <v>3.64307118703486</v>
       </c>
       <c r="L29" t="n">
-        <v>7.984278647503976</v>
+        <v>3.418047633306797</v>
       </c>
       <c r="M29" t="n">
-        <v>8.023997348762402</v>
+        <v>3.43005090526654</v>
       </c>
       <c r="N29" t="n">
-        <v>7.767723614561132</v>
+        <v>3.439712681035049</v>
       </c>
       <c r="O29" t="n">
-        <v>7.854214768487974</v>
+        <v>3.818262355664945</v>
       </c>
       <c r="P29" t="n">
-        <v>7.572315849961843</v>
+        <v>3.226561301772555</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.078500348126955</v>
+        <v>4.079349405861774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.785624941092054</v>
+        <v>3.474545540859328</v>
       </c>
       <c r="B30" t="n">
-        <v>5.748246747521305</v>
+        <v>3.452088065380767</v>
       </c>
       <c r="C30" t="n">
-        <v>5.7843668193966</v>
+        <v>3.473783787731612</v>
       </c>
       <c r="D30" t="n">
-        <v>5.586840497046242</v>
+        <v>3.355102577398646</v>
       </c>
       <c r="E30" t="n">
-        <v>5.599766496505048</v>
+        <v>3.362886628055594</v>
       </c>
       <c r="F30" t="n">
-        <v>5.394830086682092</v>
+        <v>3.239754676054075</v>
       </c>
       <c r="G30" t="n">
-        <v>5.563789931986026</v>
+        <v>3.341297171361588</v>
       </c>
       <c r="H30" t="n">
-        <v>5.430800570380933</v>
+        <v>3.261348514837023</v>
       </c>
       <c r="I30" t="n">
-        <v>5.654726773547216</v>
+        <v>3.395945472206601</v>
       </c>
       <c r="J30" t="n">
-        <v>5.857311122124152</v>
+        <v>3.517670043309646</v>
       </c>
       <c r="K30" t="n">
-        <v>5.934801446019039</v>
+        <v>3.564046420928857</v>
       </c>
       <c r="L30" t="n">
-        <v>5.572979875525611</v>
+        <v>3.346798153679859</v>
       </c>
       <c r="M30" t="n">
-        <v>5.610372054982776</v>
+        <v>3.369278635125364</v>
       </c>
       <c r="N30" t="n">
-        <v>5.685881855744703</v>
+        <v>3.414579209909364</v>
       </c>
       <c r="O30" t="n">
-        <v>6.202126462817305</v>
+        <v>3.724732509987511</v>
       </c>
       <c r="P30" t="n">
-        <v>5.367658549785195</v>
+        <v>3.223452209668349</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.640331039850655</v>
+        <v>3.987837512142038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.578521935038598</v>
+        <v>3.350108456701309</v>
       </c>
       <c r="B31" t="n">
-        <v>5.544994724888493</v>
+        <v>3.329972758013745</v>
       </c>
       <c r="C31" t="n">
-        <v>5.563882968534796</v>
+        <v>3.341332593247201</v>
       </c>
       <c r="D31" t="n">
-        <v>5.288243038220995</v>
+        <v>3.175775812329737</v>
       </c>
       <c r="E31" t="n">
-        <v>5.425926184923823</v>
+        <v>3.25847934210238</v>
       </c>
       <c r="F31" t="n">
-        <v>5.20213132747345</v>
+        <v>3.12412595584315</v>
       </c>
       <c r="G31" t="n">
-        <v>5.258067576154672</v>
+        <v>3.157684358133522</v>
       </c>
       <c r="H31" t="n">
-        <v>5.450186833200062</v>
+        <v>3.273031163955858</v>
       </c>
       <c r="I31" t="n">
-        <v>5.573397627872048</v>
+        <v>3.346970150670825</v>
       </c>
       <c r="J31" t="n">
-        <v>5.664456085836858</v>
+        <v>3.401735307220952</v>
       </c>
       <c r="K31" t="n">
-        <v>5.975009045220019</v>
+        <v>3.588134033493767</v>
       </c>
       <c r="L31" t="n">
-        <v>5.27136511372654</v>
+        <v>3.165675827667049</v>
       </c>
       <c r="M31" t="n">
-        <v>5.331937987795794</v>
+        <v>3.20203913205425</v>
       </c>
       <c r="N31" t="n">
-        <v>5.704920903731495</v>
+        <v>3.425970450113569</v>
       </c>
       <c r="O31" t="n">
-        <v>6.013990751072504</v>
+        <v>3.611649783451771</v>
       </c>
       <c r="P31" t="n">
-        <v>5.353947516441018</v>
+        <v>3.215334389903667</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.136980203889901</v>
+        <v>3.685530342314181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.256153333961684</v>
+        <v>3.156498272726609</v>
       </c>
       <c r="B32" t="n">
-        <v>5.189307485793684</v>
+        <v>3.116344096230673</v>
       </c>
       <c r="C32" t="n">
-        <v>5.227514495155106</v>
+        <v>3.139297478107814</v>
       </c>
       <c r="D32" t="n">
-        <v>4.957011033648218</v>
+        <v>2.976855632079813</v>
       </c>
       <c r="E32" t="n">
-        <v>5.022704262350906</v>
+        <v>3.016288224596665</v>
       </c>
       <c r="F32" t="n">
-        <v>4.868385511837837</v>
+        <v>2.923569247960503</v>
       </c>
       <c r="G32" t="n">
-        <v>4.920145149177721</v>
+        <v>2.954749088890674</v>
       </c>
       <c r="H32" t="n">
-        <v>5.195356685709768</v>
+        <v>3.119966623089227</v>
       </c>
       <c r="I32" t="n">
-        <v>5.559195264257243</v>
+        <v>3.338440049371536</v>
       </c>
       <c r="J32" t="n">
-        <v>5.456664730938909</v>
+        <v>3.276932683810372</v>
       </c>
       <c r="K32" t="n">
-        <v>6.081135167511394</v>
+        <v>3.651951125101336</v>
       </c>
       <c r="L32" t="n">
-        <v>4.972070488867539</v>
+        <v>2.985847496001344</v>
       </c>
       <c r="M32" t="n">
-        <v>4.999377628054472</v>
+        <v>3.00233054096888</v>
       </c>
       <c r="N32" t="n">
-        <v>5.37897009148594</v>
+        <v>3.23027256593218</v>
       </c>
       <c r="O32" t="n">
-        <v>5.710973752139688</v>
+        <v>3.429661629698877</v>
       </c>
       <c r="P32" t="n">
-        <v>4.71859119558046</v>
+        <v>2.83375157937789</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.62082802528405</v>
+        <v>3.375568758627238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.774948541059218</v>
+        <v>2.867551361734139</v>
       </c>
       <c r="B33" t="n">
-        <v>4.725165778360185</v>
+        <v>2.83765638579911</v>
       </c>
       <c r="C33" t="n">
-        <v>4.732849806781939</v>
+        <v>2.84225721401392</v>
       </c>
       <c r="D33" t="n">
-        <v>4.463997591995208</v>
+        <v>2.680760986262151</v>
       </c>
       <c r="E33" t="n">
-        <v>4.598658267027057</v>
+        <v>2.76167899737805</v>
       </c>
       <c r="F33" t="n">
-        <v>4.443966458195882</v>
+        <v>2.668758992411683</v>
       </c>
       <c r="G33" t="n">
-        <v>4.461367029184896</v>
+        <v>2.679209179015637</v>
       </c>
       <c r="H33" t="n">
-        <v>4.856674764292208</v>
+        <v>2.916566122070391</v>
       </c>
       <c r="I33" t="n">
-        <v>4.917267096986041</v>
+        <v>2.953082616983516</v>
       </c>
       <c r="J33" t="n">
-        <v>5.298647321550731</v>
+        <v>3.182184982581196</v>
       </c>
       <c r="K33" t="n">
-        <v>5.367463355457384</v>
+        <v>3.223269257455029</v>
       </c>
       <c r="L33" t="n">
-        <v>4.587185583591515</v>
+        <v>2.754727361033004</v>
       </c>
       <c r="M33" t="n">
-        <v>4.684600018850543</v>
+        <v>2.813245229000664</v>
       </c>
       <c r="N33" t="n">
-        <v>4.689218097737022</v>
+        <v>2.815887993806648</v>
       </c>
       <c r="O33" t="n">
-        <v>5.306427122890335</v>
+        <v>3.186585695400998</v>
       </c>
       <c r="P33" t="n">
-        <v>4.184700960465547</v>
+        <v>2.512941221580328</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.548285664770464</v>
+        <v>3.33171463836811</v>
       </c>
     </row>
   </sheetData>
@@ -2259,1698 +2259,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.562807271444773</v>
+        <v>2.870827338392211</v>
       </c>
       <c r="B2" t="n">
-        <v>4.527474361741912</v>
+        <v>2.841073684825556</v>
       </c>
       <c r="C2" t="n">
-        <v>4.538875595540326</v>
+        <v>2.829672584921232</v>
       </c>
       <c r="D2" t="n">
-        <v>4.530692331781711</v>
+        <v>2.82845253832502</v>
       </c>
       <c r="E2" t="n">
-        <v>4.554174939115788</v>
+        <v>2.866336427575025</v>
       </c>
       <c r="F2" t="n">
-        <v>4.670653049683342</v>
+        <v>3.007389297478108</v>
       </c>
       <c r="G2" t="n">
-        <v>4.691063322620955</v>
+        <v>3.078415290569014</v>
       </c>
       <c r="H2" t="n">
-        <v>4.852398123458892</v>
+        <v>3.354012167600295</v>
       </c>
       <c r="I2" t="n">
-        <v>4.939101802051061</v>
+        <v>3.166001562945056</v>
       </c>
       <c r="J2" t="n">
-        <v>4.956854148487548</v>
+        <v>3.406206498637901</v>
       </c>
       <c r="K2" t="n">
-        <v>5.073716262849533</v>
+        <v>3.179878908275575</v>
       </c>
       <c r="L2" t="n">
-        <v>5.061164841913877</v>
+        <v>3.529594802842515</v>
       </c>
       <c r="M2" t="n">
-        <v>5.081208441394575</v>
+        <v>3.5633040220273</v>
       </c>
       <c r="N2" t="n">
-        <v>5.291614853011374</v>
+        <v>3.852080396725119</v>
       </c>
       <c r="O2" t="n">
-        <v>5.31646655700921</v>
+        <v>3.832985444161232</v>
       </c>
       <c r="P2" t="n">
-        <v>5.610830548824425</v>
+        <v>4.193643414815843</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.480395739777381</v>
+        <v>4.211302868077213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.584098047144598</v>
+        <v>2.966447988256002</v>
       </c>
       <c r="B3" t="n">
-        <v>4.545164683812553</v>
+        <v>2.938978863724337</v>
       </c>
       <c r="C3" t="n">
-        <v>4.558927708169278</v>
+        <v>2.929011254665099</v>
       </c>
       <c r="D3" t="n">
-        <v>4.542030629091252</v>
+        <v>2.897018171062145</v>
       </c>
       <c r="E3" t="n">
-        <v>4.573109396995466</v>
+        <v>2.928974006909093</v>
       </c>
       <c r="F3" t="n">
-        <v>4.644910809569994</v>
+        <v>3.017358002059582</v>
       </c>
       <c r="G3" t="n">
-        <v>4.717845991067275</v>
+        <v>3.086119733276853</v>
       </c>
       <c r="H3" t="n">
-        <v>4.620127514799196</v>
+        <v>3.166203869384536</v>
       </c>
       <c r="I3" t="n">
-        <v>4.957805492804869</v>
+        <v>3.326399894829865</v>
       </c>
       <c r="J3" t="n">
-        <v>4.502222235735156</v>
+        <v>3.139766726798665</v>
       </c>
       <c r="K3" t="n">
-        <v>5.107609842415545</v>
+        <v>3.219607291795999</v>
       </c>
       <c r="L3" t="n">
-        <v>5.061230514771832</v>
+        <v>3.536694517276386</v>
       </c>
       <c r="M3" t="n">
-        <v>5.097649763000033</v>
+        <v>3.568031930821423</v>
       </c>
       <c r="N3" t="n">
-        <v>5.275759114389349</v>
+        <v>3.838667552822431</v>
       </c>
       <c r="O3" t="n">
-        <v>5.315299039534453</v>
+        <v>3.813762680669875</v>
       </c>
       <c r="P3" t="n">
-        <v>5.617952405420443</v>
+        <v>4.191496191234362</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.483378990158193</v>
+        <v>4.192302495599653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.586077050072514</v>
+        <v>2.967776856727602</v>
       </c>
       <c r="B4" t="n">
-        <v>4.546818362860782</v>
+        <v>2.937084705779245</v>
       </c>
       <c r="C4" t="n">
-        <v>4.561810320976093</v>
+        <v>2.919190262998371</v>
       </c>
       <c r="D4" t="n">
-        <v>4.542181433431741</v>
+        <v>2.87768676828244</v>
       </c>
       <c r="E4" t="n">
-        <v>4.575042185690005</v>
+        <v>2.931908910977863</v>
       </c>
       <c r="F4" t="n">
-        <v>4.662985439476077</v>
+        <v>3.00563609672731</v>
       </c>
       <c r="G4" t="n">
-        <v>4.710452625850174</v>
+        <v>3.146061597563559</v>
       </c>
       <c r="H4" t="n">
-        <v>4.768839445064351</v>
+        <v>3.475023553728062</v>
       </c>
       <c r="I4" t="n">
-        <v>4.957679923868131</v>
+        <v>3.037982121077118</v>
       </c>
       <c r="J4" t="n">
-        <v>4.816607023955391</v>
+        <v>3.735318176174582</v>
       </c>
       <c r="K4" t="n">
-        <v>5.098126499302226</v>
+        <v>3.062564544518372</v>
       </c>
       <c r="L4" t="n">
-        <v>5.062874160466764</v>
+        <v>3.511472308849628</v>
       </c>
       <c r="M4" t="n">
-        <v>5.093787530062055</v>
+        <v>3.572983691325655</v>
       </c>
       <c r="N4" t="n">
-        <v>5.28180953046947</v>
+        <v>3.835844026847598</v>
       </c>
       <c r="O4" t="n">
-        <v>5.312560846206936</v>
+        <v>3.819838446987679</v>
       </c>
       <c r="P4" t="n">
-        <v>5.613658130208602</v>
+        <v>4.203607189547257</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.479029987564723</v>
+        <v>4.20024320593627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.588535525671703</v>
+        <v>2.896346068170697</v>
       </c>
       <c r="B5" t="n">
-        <v>4.550816198088798</v>
+        <v>2.863958413975942</v>
       </c>
       <c r="C5" t="n">
-        <v>4.562519040568191</v>
+        <v>2.857669751170383</v>
       </c>
       <c r="D5" t="n">
-        <v>4.547830819420923</v>
+        <v>2.831857056258718</v>
       </c>
       <c r="E5" t="n">
-        <v>4.571838201536623</v>
+        <v>2.856805384126613</v>
       </c>
       <c r="F5" t="n">
-        <v>4.669837307656056</v>
+        <v>2.968206484030937</v>
       </c>
       <c r="G5" t="n">
-        <v>4.70827143565124</v>
+        <v>3.03006058237962</v>
       </c>
       <c r="H5" t="n">
-        <v>4.773823893366737</v>
+        <v>3.34705560140519</v>
       </c>
       <c r="I5" t="n">
-        <v>4.960763811822939</v>
+        <v>3.10156002366328</v>
       </c>
       <c r="J5" t="n">
-        <v>4.790983663876584</v>
+        <v>3.602775688170551</v>
       </c>
       <c r="K5" t="n">
-        <v>5.095717886428521</v>
+        <v>3.125210157682167</v>
       </c>
       <c r="L5" t="n">
-        <v>5.067749458046902</v>
+        <v>3.524240985677872</v>
       </c>
       <c r="M5" t="n">
-        <v>5.09443331316528</v>
+        <v>3.557757392949219</v>
       </c>
       <c r="N5" t="n">
-        <v>5.279968258118655</v>
+        <v>3.846640033303876</v>
       </c>
       <c r="O5" t="n">
-        <v>5.319316029346038</v>
+        <v>3.830533300224217</v>
       </c>
       <c r="P5" t="n">
-        <v>5.618085575382407</v>
+        <v>4.176413771444848</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.492216246127278</v>
+        <v>4.231443314027797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.590922247592755</v>
+        <v>2.902313012613113</v>
       </c>
       <c r="B6" t="n">
-        <v>4.551616129983612</v>
+        <v>2.866715843442569</v>
       </c>
       <c r="C6" t="n">
-        <v>4.561893932253582</v>
+        <v>2.873759686242432</v>
       </c>
       <c r="D6" t="n">
-        <v>4.540553293828272</v>
+        <v>2.847425522746693</v>
       </c>
       <c r="E6" t="n">
-        <v>4.561870217054876</v>
+        <v>2.867591530882772</v>
       </c>
       <c r="F6" t="n">
-        <v>4.640616534358154</v>
+        <v>2.977101029060553</v>
       </c>
       <c r="G6" t="n">
-        <v>4.704736350839001</v>
+        <v>3.050224216884189</v>
       </c>
       <c r="H6" t="n">
-        <v>4.639273889262184</v>
+        <v>3.401812724125591</v>
       </c>
       <c r="I6" t="n">
-        <v>4.970300666153851</v>
+        <v>3.102004075342716</v>
       </c>
       <c r="J6" t="n">
-        <v>4.571074450521887</v>
+        <v>3.676995493751872</v>
       </c>
       <c r="K6" t="n">
-        <v>5.115173774638723</v>
+        <v>3.1450595598922</v>
       </c>
       <c r="L6" t="n">
-        <v>5.061557662897572</v>
+        <v>3.512722664894355</v>
       </c>
       <c r="M6" t="n">
-        <v>5.096201919714932</v>
+        <v>3.543908531196822</v>
       </c>
       <c r="N6" t="n">
-        <v>5.269995713021772</v>
+        <v>3.814073808984743</v>
       </c>
       <c r="O6" t="n">
-        <v>5.312615573588566</v>
+        <v>3.798690485754559</v>
       </c>
       <c r="P6" t="n">
-        <v>5.615801011240396</v>
+        <v>4.16007551799943</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.480719239411012</v>
+        <v>4.215571387880603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.591391382869721</v>
+        <v>2.905426304219221</v>
       </c>
       <c r="B7" t="n">
-        <v>4.552827429363672</v>
+        <v>2.876031799358755</v>
       </c>
       <c r="C7" t="n">
-        <v>4.563081820475946</v>
+        <v>2.868167592991579</v>
       </c>
       <c r="D7" t="n">
-        <v>4.545145529228982</v>
+        <v>2.864864593451698</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56468624488071</v>
+        <v>2.89023013270426</v>
       </c>
       <c r="F7" t="n">
-        <v>4.674468156264917</v>
+        <v>3.030011466466064</v>
       </c>
       <c r="G7" t="n">
-        <v>4.696524507225535</v>
+        <v>3.078889651696964</v>
       </c>
       <c r="H7" t="n">
-        <v>4.850192305938225</v>
+        <v>3.201337632649484</v>
       </c>
       <c r="I7" t="n">
-        <v>4.970857365241423</v>
+        <v>3.348436324595935</v>
       </c>
       <c r="J7" t="n">
-        <v>4.986111710747545</v>
+        <v>3.385087386156981</v>
       </c>
       <c r="K7" t="n">
-        <v>5.100465182743848</v>
+        <v>3.264858568079403</v>
       </c>
       <c r="L7" t="n">
-        <v>5.07425563159959</v>
+        <v>3.536930054557007</v>
       </c>
       <c r="M7" t="n">
-        <v>5.096294348181683</v>
+        <v>3.562517071888169</v>
       </c>
       <c r="N7" t="n">
-        <v>5.273910545054317</v>
+        <v>3.816881632474201</v>
       </c>
       <c r="O7" t="n">
-        <v>5.318797335384597</v>
+        <v>3.80942806435828</v>
       </c>
       <c r="P7" t="n">
-        <v>5.620534321669306</v>
+        <v>4.16036217965104</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.492250298720291</v>
+        <v>4.217243519985978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.592903682848743</v>
+        <v>2.937318599776514</v>
       </c>
       <c r="B8" t="n">
-        <v>4.554996761963253</v>
+        <v>2.909421673811906</v>
       </c>
       <c r="C8" t="n">
-        <v>4.565167541798037</v>
+        <v>2.901772189802879</v>
       </c>
       <c r="D8" t="n">
-        <v>4.548709193896073</v>
+        <v>2.892855734328554</v>
       </c>
       <c r="E8" t="n">
-        <v>4.569280304527474</v>
+        <v>2.91690573396338</v>
       </c>
       <c r="F8" t="n">
-        <v>4.677755751695789</v>
+        <v>3.045595270265335</v>
       </c>
       <c r="G8" t="n">
-        <v>4.705389126885434</v>
+        <v>3.083085136684657</v>
       </c>
       <c r="H8" t="n">
-        <v>4.825405666716327</v>
+        <v>3.229922363990914</v>
       </c>
       <c r="I8" t="n">
-        <v>4.969936120983999</v>
+        <v>3.346677281059881</v>
       </c>
       <c r="J8" t="n">
-        <v>4.920097718780309</v>
+        <v>3.470881749329906</v>
       </c>
       <c r="K8" t="n">
-        <v>5.088774805945826</v>
+        <v>3.320037466860452</v>
       </c>
       <c r="L8" t="n">
-        <v>5.070286984308444</v>
+        <v>3.531246485199495</v>
       </c>
       <c r="M8" t="n">
-        <v>5.094453683912886</v>
+        <v>3.549636286617831</v>
       </c>
       <c r="N8" t="n">
-        <v>5.269579176839372</v>
+        <v>3.830443102226832</v>
       </c>
       <c r="O8" t="n">
-        <v>5.315528286455277</v>
+        <v>3.820126569335602</v>
       </c>
       <c r="P8" t="n">
-        <v>5.615022058175207</v>
+        <v>4.175316423339006</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.496503224354901</v>
+        <v>4.217729931858517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.592331477669708</v>
+        <v>2.881362610556452</v>
       </c>
       <c r="B9" t="n">
-        <v>4.552611256206237</v>
+        <v>2.852912993624061</v>
       </c>
       <c r="C9" t="n">
-        <v>4.56299060817323</v>
+        <v>2.844983968857955</v>
       </c>
       <c r="D9" t="n">
-        <v>4.539743936662177</v>
+        <v>2.840617582401531</v>
       </c>
       <c r="E9" t="n">
-        <v>4.560984849636519</v>
+        <v>2.858687856501194</v>
       </c>
       <c r="F9" t="n">
-        <v>4.656573214595185</v>
+        <v>3.005993602150145</v>
       </c>
       <c r="G9" t="n">
-        <v>4.699197635777113</v>
+        <v>3.022612674461916</v>
       </c>
       <c r="H9" t="n">
-        <v>4.747987400540585</v>
+        <v>3.243443664594913</v>
       </c>
       <c r="I9" t="n">
-        <v>4.949513382365013</v>
+        <v>3.276751922641523</v>
       </c>
       <c r="J9" t="n">
-        <v>4.806688902199129</v>
+        <v>3.327336201167096</v>
       </c>
       <c r="K9" t="n">
-        <v>5.076626239347164</v>
+        <v>3.33436543700382</v>
       </c>
       <c r="L9" t="n">
-        <v>5.056395046563881</v>
+        <v>3.505666771349902</v>
       </c>
       <c r="M9" t="n">
-        <v>5.083586650167375</v>
+        <v>3.526368124685038</v>
       </c>
       <c r="N9" t="n">
-        <v>5.275314606434116</v>
+        <v>3.851090044624272</v>
       </c>
       <c r="O9" t="n">
-        <v>5.314705551484784</v>
+        <v>3.826284864995143</v>
       </c>
       <c r="P9" t="n">
-        <v>5.6176520129035</v>
+        <v>4.188704800578436</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.499512622262491</v>
+        <v>4.224978637316409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.587486280149466</v>
+        <v>2.836083946217162</v>
       </c>
       <c r="B10" t="n">
-        <v>4.548565990580809</v>
+        <v>2.810334974182193</v>
       </c>
       <c r="C10" t="n">
-        <v>4.557974843646911</v>
+        <v>2.804712754069865</v>
       </c>
       <c r="D10" t="n">
-        <v>4.555524577154967</v>
+        <v>2.804691939147391</v>
       </c>
       <c r="E10" t="n">
-        <v>4.537542375715637</v>
+        <v>2.820487726499222</v>
       </c>
       <c r="F10" t="n">
-        <v>4.671121880919299</v>
+        <v>2.950097866653033</v>
       </c>
       <c r="G10" t="n">
-        <v>4.69144945470245</v>
+        <v>2.983458162005828</v>
       </c>
       <c r="H10" t="n">
-        <v>4.859981210265641</v>
+        <v>3.195026329051059</v>
       </c>
       <c r="I10" t="n">
-        <v>4.960404131309231</v>
+        <v>3.262800446973072</v>
       </c>
       <c r="J10" t="n">
-        <v>4.981651429144763</v>
+        <v>3.256782743333747</v>
       </c>
       <c r="K10" t="n">
-        <v>5.086489937762805</v>
+        <v>3.264358279591881</v>
       </c>
       <c r="L10" t="n">
-        <v>5.090902788968176</v>
+        <v>3.464589069609483</v>
       </c>
       <c r="M10" t="n">
-        <v>5.069175106338343</v>
+        <v>3.492644663711191</v>
       </c>
       <c r="N10" t="n">
-        <v>5.275622904017294</v>
+        <v>3.814186647774994</v>
       </c>
       <c r="O10" t="n">
-        <v>5.308909921770248</v>
+        <v>3.814147574148597</v>
       </c>
       <c r="P10" t="n">
-        <v>5.623284676637184</v>
+        <v>4.199253949357659</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.505045560545207</v>
+        <v>4.208406307286683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.581371407375427</v>
+        <v>2.838276451384375</v>
       </c>
       <c r="B11" t="n">
-        <v>4.542452029929797</v>
+        <v>2.815576500317702</v>
       </c>
       <c r="C11" t="n">
-        <v>4.552607607714129</v>
+        <v>2.81316196931077</v>
       </c>
       <c r="D11" t="n">
-        <v>4.557148156143301</v>
+        <v>2.827187575317154</v>
       </c>
       <c r="E11" t="n">
-        <v>4.535938559392891</v>
+        <v>2.834500551412859</v>
       </c>
       <c r="F11" t="n">
-        <v>4.668849478417649</v>
+        <v>2.971235237837877</v>
       </c>
       <c r="G11" t="n">
-        <v>4.691830418086791</v>
+        <v>2.985844026847598</v>
       </c>
       <c r="H11" t="n">
-        <v>4.831999100038614</v>
+        <v>3.200159946246376</v>
       </c>
       <c r="I11" t="n">
-        <v>4.93844841792261</v>
+        <v>3.282921903871576</v>
       </c>
       <c r="J11" t="n">
-        <v>4.941778883135758</v>
+        <v>3.295663922992091</v>
       </c>
       <c r="K11" t="n">
-        <v>5.076144334347817</v>
+        <v>3.376117250093119</v>
       </c>
       <c r="L11" t="n">
-        <v>5.088274658485936</v>
+        <v>3.46234836146391</v>
       </c>
       <c r="M11" t="n">
-        <v>5.067362717883388</v>
+        <v>3.480910159873212</v>
       </c>
       <c r="N11" t="n">
-        <v>5.277485459238742</v>
+        <v>3.80313940155272</v>
       </c>
       <c r="O11" t="n">
-        <v>5.314348607340158</v>
+        <v>3.780098377896743</v>
       </c>
       <c r="P11" t="n">
-        <v>5.61964226534875</v>
+        <v>4.190349544627924</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.501827590505408</v>
+        <v>4.190434630188211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.585092869326215</v>
+        <v>2.8674162473251</v>
       </c>
       <c r="B12" t="n">
-        <v>4.548493324779646</v>
+        <v>2.835938606933925</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5571548450455</v>
+        <v>2.83575218556686</v>
       </c>
       <c r="D12" t="n">
-        <v>4.561229906689815</v>
+        <v>2.820206725045829</v>
       </c>
       <c r="E12" t="n">
-        <v>4.544154963621494</v>
+        <v>2.825927359572308</v>
       </c>
       <c r="F12" t="n">
-        <v>4.674500384611877</v>
+        <v>2.933165109807845</v>
       </c>
       <c r="G12" t="n">
-        <v>4.6888343979836</v>
+        <v>2.973918354379533</v>
       </c>
       <c r="H12" t="n">
-        <v>4.846026031991195</v>
+        <v>3.151526792822138</v>
       </c>
       <c r="I12" t="n">
-        <v>4.937502546343451</v>
+        <v>3.269166161509192</v>
       </c>
       <c r="J12" t="n">
-        <v>4.941554196830069</v>
+        <v>3.264486820867508</v>
       </c>
       <c r="K12" t="n">
-        <v>5.059142361121668</v>
+        <v>3.389165650265482</v>
       </c>
       <c r="L12" t="n">
-        <v>5.064351495729744</v>
+        <v>3.446105418452976</v>
       </c>
       <c r="M12" t="n">
-        <v>5.08202114301177</v>
+        <v>3.472971275406986</v>
       </c>
       <c r="N12" t="n">
-        <v>5.272550265579821</v>
+        <v>3.775622074042696</v>
       </c>
       <c r="O12" t="n">
-        <v>5.314399078147661</v>
+        <v>3.76709124239525</v>
       </c>
       <c r="P12" t="n">
-        <v>5.614008385451029</v>
+        <v>4.184166782305125</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.49315147627112</v>
+        <v>4.174039044412472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.58024888797001</v>
+        <v>2.867890425866011</v>
       </c>
       <c r="B13" t="n">
-        <v>4.544140369653059</v>
+        <v>2.829359265561894</v>
       </c>
       <c r="C13" t="n">
-        <v>4.55157508444739</v>
+        <v>2.836001051701346</v>
       </c>
       <c r="D13" t="n">
-        <v>4.552819220256429</v>
+        <v>2.801660446534863</v>
       </c>
       <c r="E13" t="n">
-        <v>4.539505264470072</v>
+        <v>2.825232798475033</v>
       </c>
       <c r="F13" t="n">
-        <v>4.668058059671089</v>
+        <v>2.913711556298888</v>
       </c>
       <c r="G13" t="n">
-        <v>4.679222141482443</v>
+        <v>2.981333944391291</v>
       </c>
       <c r="H13" t="n">
-        <v>4.842605266598359</v>
+        <v>3.101012262545555</v>
       </c>
       <c r="I13" t="n">
-        <v>4.928089436703223</v>
+        <v>3.298734671818055</v>
       </c>
       <c r="J13" t="n">
-        <v>4.961867176644786</v>
+        <v>3.179721883421827</v>
       </c>
       <c r="K13" t="n">
-        <v>5.080589109859138</v>
+        <v>3.376758130600857</v>
       </c>
       <c r="L13" t="n">
-        <v>5.080944837839728</v>
+        <v>3.469483132609315</v>
       </c>
       <c r="M13" t="n">
-        <v>5.064098837651223</v>
+        <v>3.507160333330899</v>
       </c>
       <c r="N13" t="n">
-        <v>5.273011191749543</v>
+        <v>3.791652485739952</v>
       </c>
       <c r="O13" t="n">
-        <v>5.310000820910725</v>
+        <v>3.761874730684117</v>
       </c>
       <c r="P13" t="n">
-        <v>5.616704013037278</v>
+        <v>4.210969829317635</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.492126249988599</v>
+        <v>4.172405255585337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.564676819609429</v>
+        <v>2.855559227583789</v>
       </c>
       <c r="B14" t="n">
-        <v>4.526802735152917</v>
+        <v>2.818804456584454</v>
       </c>
       <c r="C14" t="n">
-        <v>4.538561825218985</v>
+        <v>2.809884714543423</v>
       </c>
       <c r="D14" t="n">
-        <v>4.552033882330049</v>
+        <v>2.764292365670715</v>
       </c>
       <c r="E14" t="n">
-        <v>4.527579255890035</v>
+        <v>2.79774651076168</v>
       </c>
       <c r="F14" t="n">
-        <v>4.670519879721377</v>
+        <v>2.894015162027739</v>
       </c>
       <c r="G14" t="n">
-        <v>4.694057822519102</v>
+        <v>2.979085385003031</v>
       </c>
       <c r="H14" t="n">
-        <v>4.824737688619441</v>
+        <v>3.117504984626171</v>
       </c>
       <c r="I14" t="n">
-        <v>4.924140856118673</v>
+        <v>3.304744706801733</v>
       </c>
       <c r="J14" t="n">
-        <v>4.912359875099954</v>
+        <v>3.281297974744561</v>
       </c>
       <c r="K14" t="n">
-        <v>5.043003256279207</v>
+        <v>3.406719933392248</v>
       </c>
       <c r="L14" t="n">
-        <v>5.085672675530476</v>
+        <v>3.443833305336654</v>
       </c>
       <c r="M14" t="n">
-        <v>5.06433355731021</v>
+        <v>3.490516429181791</v>
       </c>
       <c r="N14" t="n">
-        <v>5.287524893357616</v>
+        <v>3.802753047377685</v>
       </c>
       <c r="O14" t="n">
-        <v>5.317610967367279</v>
+        <v>3.770767815017419</v>
       </c>
       <c r="P14" t="n">
-        <v>5.626177322797299</v>
+        <v>4.244371937102417</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.501364232007613</v>
+        <v>4.194499748029886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.582136982636218</v>
+        <v>2.827124400201576</v>
       </c>
       <c r="B15" t="n">
-        <v>4.542930286437034</v>
+        <v>2.787193710241672</v>
       </c>
       <c r="C15" t="n">
-        <v>4.553172211867937</v>
+        <v>2.781234069280826</v>
       </c>
       <c r="D15" t="n">
-        <v>4.5649714353472</v>
+        <v>2.742821225378138</v>
       </c>
       <c r="E15" t="n">
-        <v>4.543825687208691</v>
+        <v>2.769408454510265</v>
       </c>
       <c r="F15" t="n">
-        <v>4.696846182613111</v>
+        <v>2.89762618590282</v>
       </c>
       <c r="G15" t="n">
-        <v>4.710875546893765</v>
+        <v>2.970130586250466</v>
       </c>
       <c r="H15" t="n">
-        <v>4.879527094614522</v>
+        <v>3.117970216402159</v>
       </c>
       <c r="I15" t="n">
-        <v>4.957567428694782</v>
+        <v>3.286825614770561</v>
       </c>
       <c r="J15" t="n">
-        <v>5.005374532917</v>
+        <v>3.21751009706327</v>
       </c>
       <c r="K15" t="n">
-        <v>5.089468627528481</v>
+        <v>3.378932011890068</v>
       </c>
       <c r="L15" t="n">
-        <v>5.103170843683396</v>
+        <v>3.440356848109494</v>
       </c>
       <c r="M15" t="n">
-        <v>5.085420929574981</v>
+        <v>3.485319271696818</v>
       </c>
       <c r="N15" t="n">
-        <v>5.28609103595893</v>
+        <v>3.785183426939622</v>
       </c>
       <c r="O15" t="n">
-        <v>5.32699428098862</v>
+        <v>3.787267110231447</v>
       </c>
       <c r="P15" t="n">
-        <v>5.623324201968361</v>
+        <v>4.217788359711074</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.502765252977322</v>
+        <v>4.227670700622987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.600901177550828</v>
+        <v>2.79408454510265</v>
       </c>
       <c r="B16" t="n">
-        <v>4.564346935114608</v>
+        <v>2.760069127453057</v>
       </c>
       <c r="C16" t="n">
-        <v>4.570805374228876</v>
+        <v>2.752031280811563</v>
       </c>
       <c r="D16" t="n">
-        <v>4.577306075043402</v>
+        <v>2.744797730077928</v>
       </c>
       <c r="E16" t="n">
-        <v>4.56816660231132</v>
+        <v>2.777702653354854</v>
       </c>
       <c r="F16" t="n">
-        <v>4.706696503224355</v>
+        <v>2.929958151050606</v>
       </c>
       <c r="G16" t="n">
-        <v>4.706927270350225</v>
+        <v>2.984460382264225</v>
       </c>
       <c r="H16" t="n">
-        <v>4.851004399473401</v>
+        <v>3.161014745729289</v>
       </c>
       <c r="I16" t="n">
-        <v>4.92095329017978</v>
+        <v>3.29008807998773</v>
       </c>
       <c r="J16" t="n">
-        <v>4.926952019288362</v>
+        <v>3.297769516728625</v>
       </c>
       <c r="K16" t="n">
-        <v>5.032058692076387</v>
+        <v>3.399352911532928</v>
       </c>
       <c r="L16" t="n">
-        <v>5.097265759205602</v>
+        <v>3.471080404028601</v>
       </c>
       <c r="M16" t="n">
-        <v>5.085630413830217</v>
+        <v>3.500938132207623</v>
       </c>
       <c r="N16" t="n">
-        <v>5.28936008488825</v>
+        <v>3.836259229774833</v>
       </c>
       <c r="O16" t="n">
-        <v>5.332693833744296</v>
+        <v>3.816053417664201</v>
       </c>
       <c r="P16" t="n">
-        <v>5.62277996856216</v>
+        <v>4.262746401209457</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.503440832099433</v>
+        <v>4.270636352349165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.596834629054767</v>
+        <v>2.812566005214686</v>
       </c>
       <c r="B17" t="n">
-        <v>4.56707387892479</v>
+        <v>2.780217789820407</v>
       </c>
       <c r="C17" t="n">
-        <v>4.559487143625932</v>
+        <v>2.771496702478071</v>
       </c>
       <c r="D17" t="n">
-        <v>4.576518912870968</v>
+        <v>2.76510743421389</v>
       </c>
       <c r="E17" t="n">
-        <v>4.562940137365728</v>
+        <v>2.798186545526252</v>
       </c>
       <c r="F17" t="n">
-        <v>4.705362675317647</v>
+        <v>2.947069112846094</v>
       </c>
       <c r="G17" t="n">
-        <v>4.707776456888505</v>
+        <v>3.002294753909188</v>
       </c>
       <c r="H17" t="n">
-        <v>4.878732027375852</v>
+        <v>3.157173114423646</v>
       </c>
       <c r="I17" t="n">
-        <v>4.942277510390602</v>
+        <v>3.29546892003418</v>
       </c>
       <c r="J17" t="n">
-        <v>4.994823397779893</v>
+        <v>3.253960312881151</v>
       </c>
       <c r="K17" t="n">
-        <v>5.078403663086077</v>
+        <v>3.369350939592904</v>
       </c>
       <c r="L17" t="n">
-        <v>5.086132081495152</v>
+        <v>3.499997808955529</v>
       </c>
       <c r="M17" t="n">
-        <v>5.071605914205708</v>
+        <v>3.52788907472192</v>
       </c>
       <c r="N17" t="n">
-        <v>5.285285327284944</v>
+        <v>3.878425515443212</v>
       </c>
       <c r="O17" t="n">
-        <v>5.325180980410638</v>
+        <v>3.854946648067134</v>
       </c>
       <c r="P17" t="n">
-        <v>5.627531521451614</v>
+        <v>4.294489523155688</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.495331450306018</v>
+        <v>4.28886511199889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.600318026895468</v>
+        <v>2.85116289685293</v>
       </c>
       <c r="B18" t="n">
-        <v>4.560791175513753</v>
+        <v>2.816802937460287</v>
       </c>
       <c r="C18" t="n">
-        <v>4.570050440403402</v>
+        <v>2.807760679515925</v>
       </c>
       <c r="D18" t="n">
-        <v>4.577051592718826</v>
+        <v>2.780799512127431</v>
       </c>
       <c r="E18" t="n">
-        <v>4.559211682471732</v>
+        <v>2.809632927016309</v>
       </c>
       <c r="F18" t="n">
-        <v>4.708170189995227</v>
+        <v>2.950725966068025</v>
       </c>
       <c r="G18" t="n">
-        <v>4.715641693751653</v>
+        <v>2.988104454393409</v>
       </c>
       <c r="H18" t="n">
-        <v>4.890457368889916</v>
+        <v>3.181964782611871</v>
       </c>
       <c r="I18" t="n">
-        <v>4.959634299474313</v>
+        <v>3.285533263706809</v>
       </c>
       <c r="J18" t="n">
-        <v>4.974936075377847</v>
+        <v>3.183419636140548</v>
       </c>
       <c r="K18" t="n">
-        <v>5.069580697044417</v>
+        <v>3.259430620576829</v>
       </c>
       <c r="L18" t="n">
-        <v>5.092687813732316</v>
+        <v>3.521990783006259</v>
       </c>
       <c r="M18" t="n">
-        <v>5.077998072380002</v>
+        <v>3.5425172179578</v>
       </c>
       <c r="N18" t="n">
-        <v>5.287502394322947</v>
+        <v>3.904498214298756</v>
       </c>
       <c r="O18" t="n">
-        <v>5.335290343961594</v>
+        <v>3.85225348923832</v>
       </c>
       <c r="P18" t="n">
-        <v>5.622789697874449</v>
+        <v>4.304145821313019</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.498371860396531</v>
+        <v>4.288421060319454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.592961146599453</v>
+        <v>2.816075510695949</v>
       </c>
       <c r="B19" t="n">
-        <v>4.555398704177219</v>
+        <v>2.785280928418577</v>
       </c>
       <c r="C19" t="n">
-        <v>4.563412009011776</v>
+        <v>2.774550835883466</v>
       </c>
       <c r="D19" t="n">
-        <v>4.569937033107025</v>
+        <v>2.767548257754472</v>
       </c>
       <c r="E19" t="n">
-        <v>4.554137542071675</v>
+        <v>2.802478984231783</v>
       </c>
       <c r="F19" t="n">
-        <v>4.700919115970362</v>
+        <v>2.930064051533366</v>
       </c>
       <c r="G19" t="n">
-        <v>4.707119728308954</v>
+        <v>3.003221930894457</v>
       </c>
       <c r="H19" t="n">
-        <v>4.893682331872923</v>
+        <v>3.07911934619233</v>
       </c>
       <c r="I19" t="n">
-        <v>4.958568939778598</v>
+        <v>3.320889417985554</v>
       </c>
       <c r="J19" t="n">
-        <v>4.991309595838286</v>
+        <v>3.161752032193747</v>
       </c>
       <c r="K19" t="n">
-        <v>5.079688844431337</v>
+        <v>3.453413282111582</v>
       </c>
       <c r="L19" t="n">
-        <v>5.08547261654652</v>
+        <v>3.522516268505196</v>
       </c>
       <c r="M19" t="n">
-        <v>5.071091172777384</v>
+        <v>3.553009034406702</v>
       </c>
       <c r="N19" t="n">
-        <v>5.272908425888484</v>
+        <v>3.891450544474551</v>
       </c>
       <c r="O19" t="n">
-        <v>5.323908264746749</v>
+        <v>3.83464698621833</v>
       </c>
       <c r="P19" t="n">
-        <v>5.618311781893142</v>
+        <v>4.295625214539771</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.500734259036859</v>
+        <v>4.255491122618152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.598203725718525</v>
+        <v>2.842692866689551</v>
       </c>
       <c r="B20" t="n">
-        <v>4.569344457180384</v>
+        <v>2.807608767099276</v>
       </c>
       <c r="C20" t="n">
-        <v>4.566878988637987</v>
+        <v>2.802632357344746</v>
       </c>
       <c r="D20" t="n">
-        <v>4.568426557374059</v>
+        <v>2.806542823964184</v>
       </c>
       <c r="E20" t="n">
-        <v>4.573162604172051</v>
+        <v>2.822721861511382</v>
       </c>
       <c r="F20" t="n">
-        <v>4.69655156687534</v>
+        <v>3.015772598797847</v>
       </c>
       <c r="G20" t="n">
-        <v>4.694264266364248</v>
+        <v>3.037473798759869</v>
       </c>
       <c r="H20" t="n">
-        <v>4.906226759865371</v>
+        <v>3.276576273909773</v>
       </c>
       <c r="I20" t="n">
-        <v>4.908836343846058</v>
+        <v>3.376645291810606</v>
       </c>
       <c r="J20" t="n">
-        <v>4.994575300316507</v>
+        <v>3.243105513398237</v>
       </c>
       <c r="K20" t="n">
-        <v>4.957123224780559</v>
+        <v>3.304974401297098</v>
       </c>
       <c r="L20" t="n">
-        <v>5.08893685980365</v>
+        <v>3.562839155425391</v>
       </c>
       <c r="M20" t="n">
-        <v>5.074358701501659</v>
+        <v>3.57930704566867</v>
       </c>
       <c r="N20" t="n">
-        <v>5.275521962402289</v>
+        <v>3.88135348120449</v>
       </c>
       <c r="O20" t="n">
-        <v>5.260525443671843</v>
+        <v>3.821257878630743</v>
       </c>
       <c r="P20" t="n">
-        <v>5.564725770211886</v>
+        <v>4.24851447184873</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.535442972548137</v>
+        <v>4.266047209704866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.605276327671076</v>
+        <v>2.866728624535316</v>
       </c>
       <c r="B21" t="n">
-        <v>4.573826629735819</v>
+        <v>2.83292080834934</v>
       </c>
       <c r="C21" t="n">
-        <v>4.572758229630012</v>
+        <v>2.822504217760606</v>
       </c>
       <c r="D21" t="n">
-        <v>4.571878334949818</v>
+        <v>2.805054557007325</v>
       </c>
       <c r="E21" t="n">
-        <v>4.571690133565215</v>
+        <v>2.844461587338684</v>
       </c>
       <c r="F21" t="n">
-        <v>4.693395621201388</v>
+        <v>2.937874029549886</v>
       </c>
       <c r="G21" t="n">
-        <v>4.706272974098747</v>
+        <v>3.07855843880778</v>
       </c>
       <c r="H21" t="n">
-        <v>4.919176474522883</v>
+        <v>2.858639836109873</v>
       </c>
       <c r="I21" t="n">
-        <v>4.973010887708534</v>
+        <v>3.383792113700601</v>
       </c>
       <c r="J21" t="n">
-        <v>4.98000504708075</v>
+        <v>3.299463924452787</v>
       </c>
       <c r="K21" t="n">
-        <v>5.043906258076089</v>
+        <v>2.843538244681239</v>
       </c>
       <c r="L21" t="n">
-        <v>5.084742006001769</v>
+        <v>3.558177708313553</v>
       </c>
       <c r="M21" t="n">
-        <v>5.063809998692624</v>
+        <v>3.614763622818998</v>
       </c>
       <c r="N21" t="n">
-        <v>5.275577297865937</v>
+        <v>3.873147289312815</v>
       </c>
       <c r="O21" t="n">
-        <v>5.255001626619398</v>
+        <v>3.823080462456453</v>
       </c>
       <c r="P21" t="n">
-        <v>5.555143005688607</v>
+        <v>4.210883283061035</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.522503595284932</v>
+        <v>4.298920180249925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.623027153902519</v>
+        <v>2.908625776907852</v>
       </c>
       <c r="B22" t="n">
-        <v>4.59384043319763</v>
+        <v>2.870813096603151</v>
       </c>
       <c r="C22" t="n">
-        <v>4.592231144136721</v>
+        <v>2.878881252693159</v>
       </c>
       <c r="D22" t="n">
-        <v>4.592046895285236</v>
+        <v>2.864587608913169</v>
       </c>
       <c r="E22" t="n">
-        <v>4.586337005135253</v>
+        <v>2.905140190328729</v>
       </c>
       <c r="F22" t="n">
-        <v>4.708244376001435</v>
+        <v>3.009464764353167</v>
       </c>
       <c r="G22" t="n">
-        <v>4.711398497429333</v>
+        <v>3.136016389012642</v>
       </c>
       <c r="H22" t="n">
-        <v>4.925448840539612</v>
+        <v>3.040667428663244</v>
       </c>
       <c r="I22" t="n">
-        <v>4.963054152744122</v>
+        <v>3.516844384718195</v>
       </c>
       <c r="J22" t="n">
-        <v>5.026956275862489</v>
+        <v>3.100769056609286</v>
       </c>
       <c r="K22" t="n">
-        <v>5.060955053617632</v>
+        <v>3.679866857530985</v>
       </c>
       <c r="L22" t="n">
-        <v>5.0721565324731</v>
+        <v>3.607312610921626</v>
       </c>
       <c r="M22" t="n">
-        <v>5.092054800351471</v>
+        <v>3.667609789586696</v>
       </c>
       <c r="N22" t="n">
-        <v>5.284280775791038</v>
+        <v>3.88054936788367</v>
       </c>
       <c r="O22" t="n">
-        <v>5.258299255403569</v>
+        <v>3.910445804515012</v>
       </c>
       <c r="P22" t="n">
-        <v>5.545787663840099</v>
+        <v>4.178432453750703</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.511644466605656</v>
+        <v>4.370787169243578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.612480275339538</v>
+        <v>2.962531496264269</v>
       </c>
       <c r="B23" t="n">
-        <v>4.582436158989124</v>
+        <v>2.920544511068426</v>
       </c>
       <c r="C23" t="n">
-        <v>4.581458059063007</v>
+        <v>2.928783933801243</v>
       </c>
       <c r="D23" t="n">
-        <v>4.584116289605142</v>
+        <v>2.899150605093448</v>
       </c>
       <c r="E23" t="n">
-        <v>4.579452604567304</v>
+        <v>2.932689470570621</v>
       </c>
       <c r="F23" t="n">
-        <v>4.689064252986443</v>
+        <v>3.045062846458907</v>
       </c>
       <c r="G23" t="n">
-        <v>4.695943484857238</v>
+        <v>3.150555794947452</v>
       </c>
       <c r="H23" t="n">
-        <v>4.932045314271989</v>
+        <v>3.167871984575047</v>
       </c>
       <c r="I23" t="n">
-        <v>4.978736892031997</v>
+        <v>3.553210245323946</v>
       </c>
       <c r="J23" t="n">
-        <v>5.019396600213437</v>
+        <v>3.283173143637572</v>
       </c>
       <c r="K23" t="n">
-        <v>5.070833346001709</v>
+        <v>3.751241591866843</v>
       </c>
       <c r="L23" t="n">
-        <v>5.027382541357178</v>
+        <v>3.615894201765982</v>
       </c>
       <c r="M23" t="n">
-        <v>5.044203610182941</v>
+        <v>3.672787227671431</v>
       </c>
       <c r="N23" t="n">
-        <v>5.27344171381836</v>
+        <v>3.873717691223406</v>
       </c>
       <c r="O23" t="n">
-        <v>5.255536130713311</v>
+        <v>3.882913504867771</v>
       </c>
       <c r="P23" t="n">
-        <v>5.540813552932019</v>
+        <v>4.119846845991484</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.512011140062572</v>
+        <v>4.362027738623001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.594218964253899</v>
+        <v>2.985460228891113</v>
       </c>
       <c r="B24" t="n">
-        <v>4.564371562436341</v>
+        <v>2.939015015958107</v>
       </c>
       <c r="C24" t="n">
-        <v>4.563702064134411</v>
+        <v>2.952700462310383</v>
       </c>
       <c r="D24" t="n">
-        <v>4.567432343274461</v>
+        <v>2.907359718377751</v>
       </c>
       <c r="E24" t="n">
-        <v>4.563760440008148</v>
+        <v>2.951588324654363</v>
       </c>
       <c r="F24" t="n">
-        <v>4.674898070251715</v>
+        <v>3.076232279927841</v>
       </c>
       <c r="G24" t="n">
-        <v>4.68185118408771</v>
+        <v>3.159678938950198</v>
       </c>
       <c r="H24" t="n">
-        <v>4.933868040121252</v>
+        <v>3.311260873058187</v>
       </c>
       <c r="I24" t="n">
-        <v>4.970238945829013</v>
+        <v>3.566710365831392</v>
       </c>
       <c r="J24" t="n">
-        <v>5.004962557349735</v>
+        <v>3.54442890425866</v>
       </c>
       <c r="K24" t="n">
-        <v>5.024966935540266</v>
+        <v>3.791953754354701</v>
       </c>
       <c r="L24" t="n">
-        <v>5.037038883804647</v>
+        <v>3.632282118886073</v>
       </c>
       <c r="M24" t="n">
-        <v>5.054839876802583</v>
+        <v>3.683476238122713</v>
       </c>
       <c r="N24" t="n">
-        <v>5.271058640389415</v>
+        <v>3.880513580823979</v>
       </c>
       <c r="O24" t="n">
-        <v>5.253420005290313</v>
+        <v>3.86444044375954</v>
       </c>
       <c r="P24" t="n">
-        <v>5.552095298613877</v>
+        <v>4.114749381029937</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.521989765979636</v>
+        <v>4.378422228876506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.575153464699318</v>
+        <v>3.034460017090147</v>
       </c>
       <c r="B25" t="n">
-        <v>4.536325603597414</v>
+        <v>2.99342741434842</v>
       </c>
       <c r="C25" t="n">
-        <v>4.547809840591299</v>
+        <v>3.007872422783941</v>
       </c>
       <c r="D25" t="n">
-        <v>4.538823604527779</v>
+        <v>2.972766960510075</v>
       </c>
       <c r="E25" t="n">
-        <v>4.560794824005862</v>
+        <v>3.017601207995852</v>
       </c>
       <c r="F25" t="n">
-        <v>4.69109707117296</v>
+        <v>3.142964921378021</v>
       </c>
       <c r="G25" t="n">
-        <v>4.70439065621171</v>
+        <v>3.200140226846138</v>
       </c>
       <c r="H25" t="n">
-        <v>4.886286230286741</v>
+        <v>3.325418672080981</v>
       </c>
       <c r="I25" t="n">
-        <v>4.959067262992432</v>
+        <v>3.588832976679983</v>
       </c>
       <c r="J25" t="n">
-        <v>4.970035542393958</v>
+        <v>3.452569729990286</v>
       </c>
       <c r="K25" t="n">
-        <v>5.040861591411449</v>
+        <v>3.765163123260859</v>
       </c>
       <c r="L25" t="n">
-        <v>5.065938893838001</v>
+        <v>3.666930565800717</v>
       </c>
       <c r="M25" t="n">
-        <v>5.085457414496068</v>
+        <v>3.696747029308872</v>
       </c>
       <c r="N25" t="n">
-        <v>5.291387430336604</v>
+        <v>3.966919975752441</v>
       </c>
       <c r="O25" t="n">
-        <v>5.322541904452073</v>
+        <v>3.86792895173129</v>
       </c>
       <c r="P25" t="n">
-        <v>5.622153036001496</v>
+        <v>4.141967996143761</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.482891916461693</v>
+        <v>4.383680735606664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.583494829782641</v>
+        <v>3.095617545884123</v>
       </c>
       <c r="B26" t="n">
-        <v>4.545931171196371</v>
+        <v>3.069319169448076</v>
       </c>
       <c r="C26" t="n">
-        <v>4.555528225647075</v>
+        <v>3.05565289473492</v>
       </c>
       <c r="D26" t="n">
-        <v>4.563560685065202</v>
+        <v>3.025039256213437</v>
       </c>
       <c r="E26" t="n">
-        <v>4.545498520840491</v>
+        <v>3.063142615084611</v>
       </c>
       <c r="F26" t="n">
-        <v>4.692575926640985</v>
+        <v>3.180326976869874</v>
       </c>
       <c r="G26" t="n">
-        <v>4.707025779637157</v>
+        <v>3.214140270667027</v>
       </c>
       <c r="H26" t="n">
-        <v>4.882226978774897</v>
+        <v>3.349985758210939</v>
       </c>
       <c r="I26" t="n">
-        <v>4.961398345408829</v>
+        <v>3.568088897977666</v>
       </c>
       <c r="J26" t="n">
-        <v>4.970347488469245</v>
+        <v>3.469784036049985</v>
       </c>
       <c r="K26" t="n">
-        <v>5.045747226385895</v>
+        <v>3.670728741391021</v>
       </c>
       <c r="L26" t="n">
-        <v>5.099561268823939</v>
+        <v>3.683554750549587</v>
       </c>
       <c r="M26" t="n">
-        <v>5.078595512962789</v>
+        <v>3.703579801491371</v>
       </c>
       <c r="N26" t="n">
-        <v>5.297646418548934</v>
+        <v>3.994166709270309</v>
       </c>
       <c r="O26" t="n">
-        <v>5.323807323131744</v>
+        <v>3.845633248369498</v>
       </c>
       <c r="P26" t="n">
-        <v>5.628650392364922</v>
+        <v>4.16108193775973</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.4958112270183</v>
+        <v>4.369988898708014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.591499925509953</v>
+        <v>3.001452114723088</v>
       </c>
       <c r="B27" t="n">
-        <v>4.553348555653186</v>
+        <v>2.955434885810066</v>
       </c>
       <c r="C27" t="n">
-        <v>4.563116481150978</v>
+        <v>2.970097355409324</v>
       </c>
       <c r="D27" t="n">
-        <v>4.551792169727853</v>
+        <v>2.9153889834284</v>
       </c>
       <c r="E27" t="n">
-        <v>4.570267525683864</v>
+        <v>2.961526354613244</v>
       </c>
       <c r="F27" t="n">
-        <v>4.697842220958763</v>
+        <v>3.063385821020881</v>
       </c>
       <c r="G27" t="n">
-        <v>4.712311228538505</v>
+        <v>3.17420300757371</v>
       </c>
       <c r="H27" t="n">
-        <v>4.888698795693563</v>
+        <v>3.100904171018324</v>
       </c>
       <c r="I27" t="n">
-        <v>4.973187535534793</v>
+        <v>3.583854558468022</v>
       </c>
       <c r="J27" t="n">
-        <v>4.98407828447901</v>
+        <v>3.207476939256944</v>
       </c>
       <c r="K27" t="n">
-        <v>5.076727180962168</v>
+        <v>3.632538471089168</v>
       </c>
       <c r="L27" t="n">
-        <v>5.078598857413888</v>
+        <v>3.67318234602435</v>
       </c>
       <c r="M27" t="n">
-        <v>5.100746420677221</v>
+        <v>3.716492722080616</v>
       </c>
       <c r="N27" t="n">
-        <v>5.288610319759929</v>
+        <v>4.001933961919647</v>
       </c>
       <c r="O27" t="n">
-        <v>5.313809238590101</v>
+        <v>3.840531401319009</v>
       </c>
       <c r="P27" t="n">
-        <v>5.616814075882555</v>
+        <v>4.237695459425508</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.47978704967726</v>
+        <v>4.37086129958151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.57993785401775</v>
+        <v>2.942669860722607</v>
       </c>
       <c r="B28" t="n">
-        <v>4.542287847784909</v>
+        <v>2.911945939629421</v>
       </c>
       <c r="C28" t="n">
-        <v>4.553868161737655</v>
+        <v>2.898057821663587</v>
       </c>
       <c r="D28" t="n">
-        <v>4.543680963688383</v>
+        <v>2.868743837687425</v>
       </c>
       <c r="E28" t="n">
-        <v>4.568364533008213</v>
+        <v>2.917230556306191</v>
       </c>
       <c r="F28" t="n">
-        <v>4.69018038753067</v>
+        <v>2.971182652770576</v>
       </c>
       <c r="G28" t="n">
-        <v>4.716339467867426</v>
+        <v>3.16570431124517</v>
       </c>
       <c r="H28" t="n">
-        <v>4.889503896285531</v>
+        <v>3.586352349164847</v>
       </c>
       <c r="I28" t="n">
-        <v>4.980179870660955</v>
+        <v>2.822051036729209</v>
       </c>
       <c r="J28" t="n">
-        <v>4.9944877365059</v>
+        <v>2.696489216409462</v>
       </c>
       <c r="K28" t="n">
-        <v>5.102010623192856</v>
+        <v>3.581658766734102</v>
       </c>
       <c r="L28" t="n">
-        <v>5.075898973253512</v>
+        <v>3.639879930762995</v>
       </c>
       <c r="M28" t="n">
-        <v>5.101215859995196</v>
+        <v>3.709926161801331</v>
       </c>
       <c r="N28" t="n">
-        <v>5.29323782391769</v>
+        <v>3.999282798109859</v>
       </c>
       <c r="O28" t="n">
-        <v>5.308085362553701</v>
+        <v>3.873361646496885</v>
       </c>
       <c r="P28" t="n">
-        <v>5.602521716129072</v>
+        <v>4.347684796342416</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.509148289921344</v>
+        <v>4.361087050196828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.57993785401775</v>
+        <v>2.777874102584702</v>
       </c>
       <c r="B29" t="n">
-        <v>4.542287847784909</v>
+        <v>2.738896882143718</v>
       </c>
       <c r="C29" t="n">
-        <v>4.553868161737655</v>
+        <v>2.735304847320718</v>
       </c>
       <c r="D29" t="n">
-        <v>4.543680963688383</v>
+        <v>2.726695685833437</v>
       </c>
       <c r="E29" t="n">
-        <v>4.568364533008213</v>
+        <v>2.747813702792121</v>
       </c>
       <c r="F29" t="n">
-        <v>4.69018038753067</v>
+        <v>3.00271324340313</v>
       </c>
       <c r="G29" t="n">
-        <v>4.716339467867426</v>
+        <v>2.880825256899964</v>
       </c>
       <c r="H29" t="n">
-        <v>4.889503896285531</v>
+        <v>3.386809912285186</v>
       </c>
       <c r="I29" t="n">
-        <v>4.980179870660955</v>
+        <v>2.990292942645759</v>
       </c>
       <c r="J29" t="n">
-        <v>4.9944877365059</v>
+        <v>3.315703215722935</v>
       </c>
       <c r="K29" t="n">
-        <v>5.102010623192856</v>
+        <v>2.997423696876301</v>
       </c>
       <c r="L29" t="n">
-        <v>5.075898973253512</v>
+        <v>3.507256008939462</v>
       </c>
       <c r="M29" t="n">
-        <v>5.101215859995196</v>
+        <v>3.56726214386398</v>
       </c>
       <c r="N29" t="n">
-        <v>5.29323782391769</v>
+        <v>3.933646409243286</v>
       </c>
       <c r="O29" t="n">
-        <v>5.308085362553701</v>
+        <v>3.929808429678428</v>
       </c>
       <c r="P29" t="n">
-        <v>5.602521716129072</v>
+        <v>4.38495044587755</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.509148289921344</v>
+        <v>4.346950066096508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.803187869979903</v>
+        <v>2.884356125064818</v>
       </c>
       <c r="B30" t="n">
-        <v>4.744163780810756</v>
+        <v>2.84889973050153</v>
       </c>
       <c r="C30" t="n">
-        <v>4.723376192980909</v>
+        <v>2.836428122786132</v>
       </c>
       <c r="D30" t="n">
-        <v>4.705247747816226</v>
+        <v>2.825546848182529</v>
       </c>
       <c r="E30" t="n">
-        <v>4.641279039716877</v>
+        <v>2.787158653530138</v>
       </c>
       <c r="F30" t="n">
-        <v>5.05121631605671</v>
+        <v>3.033392978432819</v>
       </c>
       <c r="G30" t="n">
-        <v>4.836407390628848</v>
+        <v>2.904432117790551</v>
       </c>
       <c r="H30" t="n">
-        <v>5.65222573220676</v>
+        <v>3.394401151028696</v>
       </c>
       <c r="I30" t="n">
-        <v>5.006533841284512</v>
+        <v>3.006662418474887</v>
       </c>
       <c r="J30" t="n">
-        <v>5.17484547115715</v>
+        <v>3.107689105396543</v>
       </c>
       <c r="K30" t="n">
-        <v>5.546235212205422</v>
+        <v>3.330733780793304</v>
       </c>
       <c r="L30" t="n">
-        <v>5.89751628899706</v>
+        <v>3.54181681407527</v>
       </c>
       <c r="M30" t="n">
-        <v>5.801710534716922</v>
+        <v>3.484298610147457</v>
       </c>
       <c r="N30" t="n">
-        <v>6.54432583466858</v>
+        <v>3.930175064453225</v>
       </c>
       <c r="O30" t="n">
-        <v>6.482837797162081</v>
+        <v>3.893212874577311</v>
       </c>
       <c r="P30" t="n">
-        <v>7.283942682188973</v>
+        <v>4.374339217504985</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.182613110856392</v>
+        <v>4.313408096639668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.683023262177603</v>
+        <v>2.812294315700294</v>
       </c>
       <c r="B31" t="n">
-        <v>4.628003089056652</v>
+        <v>2.779254825775447</v>
       </c>
       <c r="C31" t="n">
-        <v>4.609637491904908</v>
+        <v>2.768225473083019</v>
       </c>
       <c r="D31" t="n">
-        <v>4.575196334481594</v>
+        <v>2.747547490888907</v>
       </c>
       <c r="E31" t="n">
-        <v>4.638859177325838</v>
+        <v>2.785788520387669</v>
       </c>
       <c r="F31" t="n">
-        <v>4.835154133589539</v>
+        <v>2.903694466152015</v>
       </c>
       <c r="G31" t="n">
-        <v>5.045817155817977</v>
+        <v>3.030236778872489</v>
       </c>
       <c r="H31" t="n">
-        <v>5.115921715520989</v>
+        <v>3.072350479473565</v>
       </c>
       <c r="I31" t="n">
-        <v>5.613779138530205</v>
+        <v>3.371309733349888</v>
       </c>
       <c r="J31" t="n">
-        <v>5.145310319455888</v>
+        <v>3.089932881004375</v>
       </c>
       <c r="K31" t="n">
-        <v>5.395942876775219</v>
+        <v>3.240422579443621</v>
       </c>
       <c r="L31" t="n">
-        <v>5.733479475711684</v>
+        <v>3.443187677565896</v>
       </c>
       <c r="M31" t="n">
-        <v>5.871202147745688</v>
+        <v>3.525902162560893</v>
       </c>
       <c r="N31" t="n">
-        <v>6.271388828925246</v>
+        <v>3.766218476347675</v>
       </c>
       <c r="O31" t="n">
-        <v>6.413007482449233</v>
+        <v>3.851258755048532</v>
       </c>
       <c r="P31" t="n">
-        <v>6.954982472035828</v>
+        <v>4.176744253985875</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.219999209493376</v>
+        <v>4.335783042776492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.680399692310499</v>
+        <v>2.810673673139986</v>
       </c>
       <c r="B32" t="n">
-        <v>4.619903132534517</v>
+        <v>2.774336113525318</v>
       </c>
       <c r="C32" t="n">
-        <v>4.616477198444526</v>
+        <v>2.77226995858926</v>
       </c>
       <c r="D32" t="n">
-        <v>4.638282715572676</v>
+        <v>2.78535250253796</v>
       </c>
       <c r="E32" t="n">
-        <v>4.656936543601001</v>
+        <v>2.796582883560593</v>
       </c>
       <c r="F32" t="n">
-        <v>4.996228067241709</v>
+        <v>3.000366452187758</v>
       </c>
       <c r="G32" t="n">
-        <v>5.00624956294105</v>
+        <v>3.006426333433148</v>
       </c>
       <c r="H32" t="n">
-        <v>5.364974475757291</v>
+        <v>3.221949153161312</v>
       </c>
       <c r="I32" t="n">
-        <v>5.335405271463015</v>
+        <v>3.204171748672592</v>
       </c>
       <c r="J32" t="n">
-        <v>5.534273022745308</v>
+        <v>3.323490552946589</v>
       </c>
       <c r="K32" t="n">
-        <v>5.378084115985565</v>
+        <v>3.229834722212078</v>
       </c>
       <c r="L32" t="n">
-        <v>5.939388208681587</v>
+        <v>3.566889666303927</v>
       </c>
       <c r="M32" t="n">
-        <v>5.997660100394341</v>
+        <v>3.601905843515604</v>
       </c>
       <c r="N32" t="n">
-        <v>6.488557416624355</v>
+        <v>3.896607897984969</v>
       </c>
       <c r="O32" t="n">
-        <v>6.515769695016464</v>
+        <v>3.912977556401136</v>
       </c>
       <c r="P32" t="n">
-        <v>6.889607574269617</v>
+        <v>4.137562901235019</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.326710306686166</v>
+        <v>4.399885335339357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.756277686734387</v>
+        <v>2.856295418526011</v>
       </c>
       <c r="B33" t="n">
-        <v>4.712551116894646</v>
+        <v>2.830043601784971</v>
       </c>
       <c r="C33" t="n">
-        <v>4.699911828107375</v>
+        <v>2.822455832195208</v>
       </c>
       <c r="D33" t="n">
-        <v>4.730931612055834</v>
+        <v>2.841118053476092</v>
       </c>
       <c r="E33" t="n">
-        <v>4.77082027223832</v>
+        <v>2.865066717304139</v>
       </c>
       <c r="F33" t="n">
-        <v>5.075538684657786</v>
+        <v>3.048080827630531</v>
       </c>
       <c r="G33" t="n">
-        <v>5.139847310605254</v>
+        <v>3.086674432702069</v>
       </c>
       <c r="H33" t="n">
-        <v>5.576307908410686</v>
+        <v>3.3487865265372</v>
       </c>
       <c r="I33" t="n">
-        <v>5.235716305415274</v>
+        <v>3.144291963979229</v>
       </c>
       <c r="J33" t="n">
-        <v>5.294013128490771</v>
+        <v>3.179365108347149</v>
       </c>
       <c r="K33" t="n">
-        <v>5.421921964834617</v>
+        <v>3.256102424025533</v>
       </c>
       <c r="L33" t="n">
-        <v>5.997179107518022</v>
+        <v>3.601501230636644</v>
       </c>
       <c r="M33" t="n">
-        <v>6.044119390823434</v>
+        <v>3.629671489398997</v>
       </c>
       <c r="N33" t="n">
-        <v>6.620548915637741</v>
+        <v>3.975820363567312</v>
       </c>
       <c r="O33" t="n">
-        <v>6.485899490123228</v>
+        <v>3.894929192746182</v>
       </c>
       <c r="P33" t="n">
-        <v>7.07547027543075</v>
+        <v>4.249104593159559</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.281591229024971</v>
+        <v>4.372783941104725</v>
       </c>
     </row>
   </sheetData>
@@ -4027,1698 +4027,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.54588130847089</v>
+        <v>7.534227036028074</v>
       </c>
       <c r="B2" t="n">
-        <v>12.59259173677346</v>
+        <v>7.562270214211114</v>
       </c>
       <c r="C2" t="n">
-        <v>12.56714228815183</v>
+        <v>7.546978914848708</v>
       </c>
       <c r="D2" t="n">
-        <v>12.83576738430479</v>
+        <v>7.708303328196552</v>
       </c>
       <c r="E2" t="n">
-        <v>12.73170509238286</v>
+        <v>7.645795020486266</v>
       </c>
       <c r="F2" t="n">
-        <v>12.98400318634977</v>
+        <v>7.797280183463457</v>
       </c>
       <c r="G2" t="n">
-        <v>12.81081534677397</v>
+        <v>7.69329978600799</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05084112945154</v>
+        <v>7.837434725133472</v>
       </c>
       <c r="I2" t="n">
-        <v>12.80992633086351</v>
+        <v>7.69283747562463</v>
       </c>
       <c r="J2" t="n">
-        <v>12.82115395724575</v>
+        <v>7.699391619985247</v>
       </c>
       <c r="K2" t="n">
-        <v>12.49502376080486</v>
+        <v>7.503724045252372</v>
       </c>
       <c r="L2" t="n">
-        <v>13.03932405602868</v>
+        <v>7.830559227583789</v>
       </c>
       <c r="M2" t="n">
-        <v>12.83649586656248</v>
+        <v>7.708756874402027</v>
       </c>
       <c r="N2" t="n">
-        <v>13.06469323782392</v>
+        <v>7.845866594605648</v>
       </c>
       <c r="O2" t="n">
-        <v>12.37905157447637</v>
+        <v>7.434027650981223</v>
       </c>
       <c r="P2" t="n">
-        <v>13.29408731449698</v>
+        <v>7.98369132565494</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.18676266254792</v>
+        <v>7.318576405372441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.49317883996193</v>
+        <v>7.502632905105864</v>
       </c>
       <c r="B3" t="n">
-        <v>12.53831798432973</v>
+        <v>7.529766799833481</v>
       </c>
       <c r="C3" t="n">
-        <v>12.51174966479479</v>
+        <v>7.513780209025643</v>
       </c>
       <c r="D3" t="n">
-        <v>12.78079433754025</v>
+        <v>7.675323726820575</v>
       </c>
       <c r="E3" t="n">
-        <v>12.66952019288362</v>
+        <v>7.608588163977768</v>
       </c>
       <c r="F3" t="n">
-        <v>12.94115772735427</v>
+        <v>7.77159822087189</v>
       </c>
       <c r="G3" t="n">
-        <v>12.73816900423529</v>
+        <v>7.649763002023064</v>
       </c>
       <c r="H3" t="n">
-        <v>13.00669072644518</v>
+        <v>7.810909940768765</v>
       </c>
       <c r="I3" t="n">
-        <v>12.77049950897377</v>
+        <v>7.669121610271617</v>
       </c>
       <c r="J3" t="n">
-        <v>12.76796015846617</v>
+        <v>7.667600295060655</v>
       </c>
       <c r="K3" t="n">
-        <v>12.49263278230968</v>
+        <v>7.50229694495366</v>
       </c>
       <c r="L3" t="n">
-        <v>12.98742425578362</v>
+        <v>7.79939819311866</v>
       </c>
       <c r="M3" t="n">
-        <v>12.75912107825103</v>
+        <v>7.662317686841317</v>
       </c>
       <c r="N3" t="n">
-        <v>13.03117697315014</v>
+        <v>7.825756458103578</v>
       </c>
       <c r="O3" t="n">
-        <v>12.31123705165353</v>
+        <v>7.393303437748775</v>
       </c>
       <c r="P3" t="n">
-        <v>13.29634937960432</v>
+        <v>7.985034435915601</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.1499664034685</v>
+        <v>7.296425676119807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.36532351483568</v>
+        <v>7.425830223267432</v>
       </c>
       <c r="B4" t="n">
-        <v>12.41346780053694</v>
+        <v>7.454748358542517</v>
       </c>
       <c r="C4" t="n">
-        <v>12.38650422769023</v>
+        <v>7.438539011546804</v>
       </c>
       <c r="D4" t="n">
-        <v>12.67061960517235</v>
+        <v>7.609145419621534</v>
       </c>
       <c r="E4" t="n">
-        <v>12.54061288586604</v>
+        <v>7.531059516071311</v>
       </c>
       <c r="F4" t="n">
-        <v>12.83077989559232</v>
+        <v>7.705317664930872</v>
       </c>
       <c r="G4" t="n">
-        <v>12.62554370133444</v>
+        <v>7.582067031353846</v>
       </c>
       <c r="H4" t="n">
-        <v>12.82366533598052</v>
+        <v>7.701048779953404</v>
       </c>
       <c r="I4" t="n">
-        <v>12.65994046877043</v>
+        <v>7.602711052358659</v>
       </c>
       <c r="J4" t="n">
-        <v>12.59305266294318</v>
+        <v>7.562541903725506</v>
       </c>
       <c r="K4" t="n">
-        <v>12.48732665861971</v>
+        <v>7.499104593159559</v>
       </c>
       <c r="L4" t="n">
-        <v>12.87523433960773</v>
+        <v>7.731964417437792</v>
       </c>
       <c r="M4" t="n">
-        <v>12.64044657543409</v>
+        <v>7.590975087824366</v>
       </c>
       <c r="N4" t="n">
-        <v>12.91933609605264</v>
+        <v>7.75841689733496</v>
       </c>
       <c r="O4" t="n">
-        <v>12.19673399148077</v>
+        <v>7.324603238363728</v>
       </c>
       <c r="P4" t="n">
-        <v>13.19725025311414</v>
+        <v>7.925225494993463</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.14153595436952</v>
+        <v>7.2914242519409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.32262642785259</v>
+        <v>7.400118316401429</v>
       </c>
       <c r="B5" t="n">
-        <v>12.35492287999805</v>
+        <v>7.419522206235713</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34697524802145</v>
+        <v>7.414765448689391</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6559186143027</v>
+        <v>7.600333038759577</v>
       </c>
       <c r="E5" t="n">
-        <v>12.45876626239347</v>
+        <v>7.481893208492489</v>
       </c>
       <c r="F5" t="n">
-        <v>12.80061294667425</v>
+        <v>7.687176547059983</v>
       </c>
       <c r="G5" t="n">
-        <v>12.56414201147451</v>
+        <v>7.545215124049634</v>
       </c>
       <c r="H5" t="n">
-        <v>12.81355779667562</v>
+        <v>7.695059925066279</v>
       </c>
       <c r="I5" t="n">
-        <v>12.62953271937319</v>
+        <v>7.584517349420469</v>
       </c>
       <c r="J5" t="n">
-        <v>12.59231809986531</v>
+        <v>7.562130717713134</v>
       </c>
       <c r="K5" t="n">
-        <v>12.46474492479546</v>
+        <v>7.48557635424807</v>
       </c>
       <c r="L5" t="n">
-        <v>12.85279732930378</v>
+        <v>7.718496797423332</v>
       </c>
       <c r="M5" t="n">
-        <v>12.61201022793954</v>
+        <v>7.573931683233397</v>
       </c>
       <c r="N5" t="n">
-        <v>12.79313597017966</v>
+        <v>7.682755749665866</v>
       </c>
       <c r="O5" t="n">
-        <v>12.14736624475909</v>
+        <v>7.294954024583519</v>
       </c>
       <c r="P5" t="n">
-        <v>13.09272703502248</v>
+        <v>7.862792413143345</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.12800491330271</v>
+        <v>7.283342949584067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.27636962873552</v>
+        <v>7.372423514289261</v>
       </c>
       <c r="B6" t="n">
-        <v>12.31627561925553</v>
+        <v>7.396404496023254</v>
       </c>
       <c r="C6" t="n">
-        <v>12.29642538985658</v>
+        <v>7.384464764353167</v>
       </c>
       <c r="D6" t="n">
-        <v>12.61061650395405</v>
+        <v>7.573148019660972</v>
       </c>
       <c r="E6" t="n">
-        <v>12.42909550840217</v>
+        <v>7.464159624893187</v>
       </c>
       <c r="F6" t="n">
-        <v>12.76922010440768</v>
+        <v>7.668362048188372</v>
       </c>
       <c r="G6" t="n">
-        <v>12.50959462212263</v>
+        <v>7.512456818165219</v>
       </c>
       <c r="H6" t="n">
-        <v>12.82764584087102</v>
+        <v>7.703439209471155</v>
       </c>
       <c r="I6" t="n">
-        <v>12.56081458667145</v>
+        <v>7.54321543079586</v>
       </c>
       <c r="J6" t="n">
-        <v>12.65938711413395</v>
+        <v>7.602399924043792</v>
       </c>
       <c r="K6" t="n">
-        <v>12.44027813671508</v>
+        <v>7.470823321477348</v>
       </c>
       <c r="L6" t="n">
-        <v>12.84194063295257</v>
+        <v>7.71203759832312</v>
       </c>
       <c r="M6" t="n">
-        <v>12.59387600599569</v>
+        <v>7.563066293702208</v>
       </c>
       <c r="N6" t="n">
-        <v>12.74895151458029</v>
+        <v>7.656207594160136</v>
       </c>
       <c r="O6" t="n">
-        <v>12.11406037646358</v>
+        <v>7.274943215430796</v>
       </c>
       <c r="P6" t="n">
-        <v>12.98146261967814</v>
+        <v>7.795747913030142</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.12037226781148</v>
+        <v>7.27863293431979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.20748609772486</v>
+        <v>7.331008391700323</v>
       </c>
       <c r="B7" t="n">
-        <v>12.23634688646805</v>
+        <v>7.348358542517218</v>
       </c>
       <c r="C7" t="n">
-        <v>12.22410984393575</v>
+        <v>7.341000284835781</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5367381872467</v>
+        <v>7.528750155198983</v>
       </c>
       <c r="E7" t="n">
-        <v>12.325865072681</v>
+        <v>7.402150144974109</v>
       </c>
       <c r="F7" t="n">
-        <v>12.70429032267872</v>
+        <v>7.629398704362369</v>
       </c>
       <c r="G7" t="n">
-        <v>12.44270438396731</v>
+        <v>7.472290590924694</v>
       </c>
       <c r="H7" t="n">
-        <v>12.79955974861889</v>
+        <v>7.686609066542021</v>
       </c>
       <c r="I7" t="n">
-        <v>12.52266230469166</v>
+        <v>7.520348230001241</v>
       </c>
       <c r="J7" t="n">
-        <v>12.65909158627316</v>
+        <v>7.602233404664004</v>
       </c>
       <c r="K7" t="n">
-        <v>12.4344004159281</v>
+        <v>7.467379729917251</v>
       </c>
       <c r="L7" t="n">
-        <v>12.78120904947659</v>
+        <v>7.675624630261246</v>
       </c>
       <c r="M7" t="n">
-        <v>12.54127934375789</v>
+        <v>7.531522556802828</v>
       </c>
       <c r="N7" t="n">
-        <v>12.58252554704579</v>
+        <v>7.556352933443373</v>
       </c>
       <c r="O7" t="n">
-        <v>12.01540393368258</v>
+        <v>7.215725856515801</v>
       </c>
       <c r="P7" t="n">
-        <v>12.84354475331633</v>
+        <v>7.713097333498879</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.0902855857198</v>
+        <v>7.260697774629166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.15902074471805</v>
+        <v>7.30185143257791</v>
       </c>
       <c r="B8" t="n">
-        <v>12.20308236774976</v>
+        <v>7.328335317445826</v>
       </c>
       <c r="C8" t="n">
-        <v>12.18057238760364</v>
+        <v>7.314818033756691</v>
       </c>
       <c r="D8" t="n">
-        <v>12.49138864650064</v>
+        <v>7.501490640588369</v>
       </c>
       <c r="E8" t="n">
-        <v>12.30384034198533</v>
+        <v>7.388905281147523</v>
       </c>
       <c r="F8" t="n">
-        <v>12.652166748251</v>
+        <v>7.59808356643612</v>
       </c>
       <c r="G8" t="n">
-        <v>12.39787536142875</v>
+        <v>7.445369227510755</v>
       </c>
       <c r="H8" t="n">
-        <v>12.77151014128786</v>
+        <v>7.669765046997904</v>
       </c>
       <c r="I8" t="n">
-        <v>12.49702799913652</v>
+        <v>7.504960524682116</v>
       </c>
       <c r="J8" t="n">
-        <v>12.63418697913975</v>
+        <v>7.587120310251897</v>
       </c>
       <c r="K8" t="n">
-        <v>12.34383511247997</v>
+        <v>7.413020646942398</v>
       </c>
       <c r="L8" t="n">
-        <v>12.73855452823477</v>
+        <v>7.649985027862782</v>
       </c>
       <c r="M8" t="n">
-        <v>12.5058816733201</v>
+        <v>7.51024167220514</v>
       </c>
       <c r="N8" t="n">
-        <v>12.53073520156399</v>
+        <v>7.525180213407731</v>
       </c>
       <c r="O8" t="n">
-        <v>11.95302688026561</v>
+        <v>7.178207871692436</v>
       </c>
       <c r="P8" t="n">
-        <v>12.75091805182683</v>
+        <v>7.657444803938037</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.01763681085305</v>
+        <v>7.217025876235201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.12275716548648</v>
+        <v>7.280134530130513</v>
       </c>
       <c r="B9" t="n">
-        <v>12.14349397846782</v>
+        <v>7.292598651777302</v>
       </c>
       <c r="C9" t="n">
-        <v>12.13514744468734</v>
+        <v>7.287576047501844</v>
       </c>
       <c r="D9" t="n">
-        <v>12.44771619596051</v>
+        <v>7.475312041250064</v>
       </c>
       <c r="E9" t="n">
-        <v>12.21214887063967</v>
+        <v>7.333823883845429</v>
       </c>
       <c r="F9" t="n">
-        <v>12.60963019492069</v>
+        <v>7.572538909298062</v>
       </c>
       <c r="G9" t="n">
-        <v>12.35525732510801</v>
+        <v>7.419763951475669</v>
       </c>
       <c r="H9" t="n">
-        <v>12.73028582895261</v>
+        <v>7.645000401691487</v>
       </c>
       <c r="I9" t="n">
-        <v>12.4173765517493</v>
+        <v>7.457074517422456</v>
       </c>
       <c r="J9" t="n">
-        <v>12.59195811531059</v>
+        <v>7.561827623227993</v>
       </c>
       <c r="K9" t="n">
-        <v>12.27155361915215</v>
+        <v>7.369529874891361</v>
       </c>
       <c r="L9" t="n">
-        <v>12.69118493902458</v>
+        <v>7.621549652719452</v>
       </c>
       <c r="M9" t="n">
-        <v>12.44572411926921</v>
+        <v>7.474134720021034</v>
       </c>
       <c r="N9" t="n">
-        <v>12.52665253889445</v>
+        <v>7.522678770970121</v>
       </c>
       <c r="O9" t="n">
-        <v>11.90488259456436</v>
+        <v>7.14932844486967</v>
       </c>
       <c r="P9" t="n">
-        <v>12.74142832385232</v>
+        <v>7.651632693304898</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.84146207240433</v>
+        <v>7.11126488997305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.04374906887441</v>
+        <v>7.232664821320324</v>
       </c>
       <c r="B10" t="n">
-        <v>12.09417122981548</v>
+        <v>7.262954550434192</v>
       </c>
       <c r="C10" t="n">
-        <v>12.07082088032034</v>
+        <v>7.248933326516751</v>
       </c>
       <c r="D10" t="n">
-        <v>12.35033186076138</v>
+        <v>7.41681188422521</v>
       </c>
       <c r="E10" t="n">
-        <v>12.25932873826022</v>
+        <v>7.362167235120983</v>
       </c>
       <c r="F10" t="n">
-        <v>12.53889444608289</v>
+        <v>7.530046523177599</v>
       </c>
       <c r="G10" t="n">
-        <v>12.30629334484635</v>
+        <v>7.390385696861694</v>
       </c>
       <c r="H10" t="n">
-        <v>12.6718406338647</v>
+        <v>7.609823913059356</v>
       </c>
       <c r="I10" t="n">
-        <v>12.34480196288875</v>
+        <v>7.41350413742231</v>
       </c>
       <c r="J10" t="n">
-        <v>12.50772051334284</v>
+        <v>7.511207922816807</v>
       </c>
       <c r="K10" t="n">
-        <v>12.24398926127156</v>
+        <v>7.352923218498258</v>
       </c>
       <c r="L10" t="n">
-        <v>12.62349811342554</v>
+        <v>7.580854653413282</v>
       </c>
       <c r="M10" t="n">
-        <v>12.38442458718832</v>
+        <v>7.43729303759102</v>
       </c>
       <c r="N10" t="n">
-        <v>12.5222840776764</v>
+        <v>7.520091147449989</v>
       </c>
       <c r="O10" t="n">
-        <v>11.83541652098035</v>
+        <v>7.107575901432213</v>
       </c>
       <c r="P10" t="n">
-        <v>12.78704177219423</v>
+        <v>7.679118615844173</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.63540618358604</v>
+        <v>6.987505203730619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.02579483920791</v>
+        <v>7.221917017842405</v>
       </c>
       <c r="B11" t="n">
-        <v>12.04839724782079</v>
+        <v>7.235475931376487</v>
       </c>
       <c r="C11" t="n">
-        <v>12.03524443376923</v>
+        <v>7.227599126503605</v>
       </c>
       <c r="D11" t="n">
-        <v>12.34742887720696</v>
+        <v>7.415070003870845</v>
       </c>
       <c r="E11" t="n">
-        <v>12.085454982168</v>
+        <v>7.257760314341847</v>
       </c>
       <c r="F11" t="n">
-        <v>12.47706466648222</v>
+        <v>7.492930960188722</v>
       </c>
       <c r="G11" t="n">
-        <v>12.21850697622095</v>
+        <v>7.337653099232404</v>
       </c>
       <c r="H11" t="n">
-        <v>12.65776475130966</v>
+        <v>7.601554911226182</v>
       </c>
       <c r="I11" t="n">
-        <v>12.26190700601697</v>
+        <v>7.363706809035867</v>
       </c>
       <c r="J11" t="n">
-        <v>12.45627069379118</v>
+        <v>7.480683021596395</v>
       </c>
       <c r="K11" t="n">
-        <v>12.07126721252162</v>
+        <v>7.249283893632095</v>
       </c>
       <c r="L11" t="n">
-        <v>12.5820220551348</v>
+        <v>7.555948320564413</v>
       </c>
       <c r="M11" t="n">
-        <v>12.3251159156347</v>
+        <v>7.401674688323924</v>
       </c>
       <c r="N11" t="n">
-        <v>12.50203251414551</v>
+        <v>7.507964446651719</v>
       </c>
       <c r="O11" t="n">
-        <v>11.81035867717838</v>
+        <v>7.092529999050547</v>
       </c>
       <c r="P11" t="n">
-        <v>12.78575993530007</v>
+        <v>7.678299165212056</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.48277394855018</v>
+        <v>6.89584943142396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.88776265342669</v>
+        <v>7.139045873167739</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9412057658337</v>
+        <v>7.171148326407199</v>
       </c>
       <c r="C12" t="n">
-        <v>11.90975941234954</v>
+        <v>7.152240342971495</v>
       </c>
       <c r="D12" t="n">
-        <v>12.17874449305722</v>
+        <v>7.313753916491992</v>
       </c>
       <c r="E12" t="n">
-        <v>12.10513130010976</v>
+        <v>7.26959998831443</v>
       </c>
       <c r="F12" t="n">
-        <v>12.37075855191348</v>
+        <v>7.42907589047699</v>
       </c>
       <c r="G12" t="n">
-        <v>12.12900824863257</v>
+        <v>7.283941104724622</v>
       </c>
       <c r="H12" t="n">
-        <v>12.43131744009632</v>
+        <v>7.465377845619007</v>
       </c>
       <c r="I12" t="n">
-        <v>12.1565604448728</v>
+        <v>7.300466692472302</v>
       </c>
       <c r="J12" t="n">
-        <v>12.10423012255893</v>
+        <v>7.268877673987189</v>
       </c>
       <c r="K12" t="n">
-        <v>11.92553670839123</v>
+        <v>7.161729756574959</v>
       </c>
       <c r="L12" t="n">
-        <v>12.49680057646175</v>
+        <v>7.504770634161305</v>
       </c>
       <c r="M12" t="n">
-        <v>12.23515018105642</v>
+        <v>7.34765740828653</v>
       </c>
       <c r="N12" t="n">
-        <v>12.48913874303366</v>
+        <v>7.500138766149823</v>
       </c>
       <c r="O12" t="n">
-        <v>11.73606078387853</v>
+        <v>7.047921794319352</v>
       </c>
       <c r="P12" t="n">
-        <v>12.79865492257596</v>
+        <v>7.685959787030478</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.37921879703134</v>
+        <v>6.833586520694415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.81121728898794</v>
+        <v>7.09303028753807</v>
       </c>
       <c r="B13" t="n">
-        <v>11.85097004283938</v>
+        <v>7.116917784707971</v>
       </c>
       <c r="C13" t="n">
-        <v>11.84159828277638</v>
+        <v>7.11127949693619</v>
       </c>
       <c r="D13" t="n">
-        <v>12.13540527146301</v>
+        <v>7.287713352955354</v>
       </c>
       <c r="E13" t="n">
-        <v>11.99299367898742</v>
+        <v>7.202229022575062</v>
       </c>
       <c r="F13" t="n">
-        <v>12.30636509852449</v>
+        <v>7.390434630188211</v>
       </c>
       <c r="G13" t="n">
-        <v>12.02119773915106</v>
+        <v>7.21911102022334</v>
       </c>
       <c r="H13" t="n">
-        <v>12.40545936035853</v>
+        <v>7.44999525273698</v>
       </c>
       <c r="I13" t="n">
-        <v>11.98948504574297</v>
+        <v>7.200059158200714</v>
       </c>
       <c r="J13" t="n">
-        <v>12.12740656059689</v>
+        <v>7.282955134712718</v>
       </c>
       <c r="K13" t="n">
-        <v>11.81898979334333</v>
+        <v>7.097714740616852</v>
       </c>
       <c r="L13" t="n">
-        <v>12.40776399120713</v>
+        <v>7.451378532146274</v>
       </c>
       <c r="M13" t="n">
-        <v>12.11890070932767</v>
+        <v>7.277887979199685</v>
       </c>
       <c r="N13" t="n">
-        <v>12.44617531612664</v>
+        <v>7.474347251334711</v>
       </c>
       <c r="O13" t="n">
-        <v>11.57778919620679</v>
+        <v>6.952980185654502</v>
       </c>
       <c r="P13" t="n">
-        <v>12.76977102671608</v>
+        <v>7.668550478012869</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.26316391154839</v>
+        <v>6.764034005010188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.68921900986005</v>
+        <v>7.019776367394337</v>
       </c>
       <c r="B14" t="n">
-        <v>11.74246023903704</v>
+        <v>7.051772189802879</v>
       </c>
       <c r="C14" t="n">
-        <v>11.71593691757144</v>
+        <v>7.035819925358418</v>
       </c>
       <c r="D14" t="n">
-        <v>11.98878331909408</v>
+        <v>7.199696175166702</v>
       </c>
       <c r="E14" t="n">
-        <v>11.88875869177235</v>
+        <v>7.139641106915667</v>
       </c>
       <c r="F14" t="n">
-        <v>12.17452075535948</v>
+        <v>7.311249552661754</v>
       </c>
       <c r="G14" t="n">
-        <v>11.90945172284838</v>
+        <v>7.152065059413823</v>
       </c>
       <c r="H14" t="n">
-        <v>12.38898398616005</v>
+        <v>7.440091731728515</v>
       </c>
       <c r="I14" t="n">
-        <v>11.91256388661703</v>
+        <v>7.15396761636272</v>
       </c>
       <c r="J14" t="n">
-        <v>12.25770272694381</v>
+        <v>7.361098735767341</v>
       </c>
       <c r="K14" t="n">
-        <v>11.59358838320113</v>
+        <v>6.962455722642984</v>
       </c>
       <c r="L14" t="n">
-        <v>12.36259444273844</v>
+        <v>7.424142388676682</v>
       </c>
       <c r="M14" t="n">
-        <v>12.08066937668553</v>
+        <v>7.254821393358214</v>
       </c>
       <c r="N14" t="n">
-        <v>12.39914260435448</v>
+        <v>7.446134632379255</v>
       </c>
       <c r="O14" t="n">
-        <v>11.51664168463042</v>
+        <v>6.91617136889155</v>
       </c>
       <c r="P14" t="n">
-        <v>12.7829493802124</v>
+        <v>7.676606948532365</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.24744012672429</v>
+        <v>6.754509534695189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.57105407977428</v>
+        <v>6.948840572300816</v>
       </c>
       <c r="B15" t="n">
-        <v>11.62585929590183</v>
+        <v>6.981768318957647</v>
       </c>
       <c r="C15" t="n">
-        <v>11.60073942773401</v>
+        <v>6.966672752901308</v>
       </c>
       <c r="D15" t="n">
-        <v>11.89944755748655</v>
+        <v>7.146087159749053</v>
       </c>
       <c r="E15" t="n">
-        <v>11.78433033447551</v>
+        <v>7.076948021121669</v>
       </c>
       <c r="F15" t="n">
-        <v>12.08603752474134</v>
+        <v>7.258122567027702</v>
       </c>
       <c r="G15" t="n">
-        <v>11.81412392103447</v>
+        <v>7.094848124100759</v>
       </c>
       <c r="H15" t="n">
-        <v>12.1893348494845</v>
+        <v>7.32013935042835</v>
       </c>
       <c r="I15" t="n">
-        <v>11.80623952958775</v>
+        <v>7.090107434213889</v>
       </c>
       <c r="J15" t="n">
-        <v>11.86468958933181</v>
+        <v>7.125033413428182</v>
       </c>
       <c r="K15" t="n">
-        <v>11.4475210016327</v>
+        <v>6.874586075182039</v>
       </c>
       <c r="L15" t="n">
-        <v>12.23643688260673</v>
+        <v>7.348367306695102</v>
       </c>
       <c r="M15" t="n">
-        <v>11.93390148463225</v>
+        <v>7.166710731005471</v>
       </c>
       <c r="N15" t="n">
-        <v>12.35430263633959</v>
+        <v>7.419059165504196</v>
       </c>
       <c r="O15" t="n">
-        <v>11.41115404845806</v>
+        <v>6.852818048363655</v>
       </c>
       <c r="P15" t="n">
-        <v>12.75271310994427</v>
+        <v>7.65812548842033</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.17732705387303</v>
+        <v>6.712410806231331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.46327762288577</v>
+        <v>6.884080601222603</v>
       </c>
       <c r="B16" t="n">
-        <v>11.51393571964987</v>
+        <v>6.914509096486295</v>
       </c>
       <c r="C16" t="n">
-        <v>11.49555948106281</v>
+        <v>6.903458928871393</v>
       </c>
       <c r="D16" t="n">
-        <v>11.80355788788792</v>
+        <v>7.088421060319455</v>
       </c>
       <c r="E16" t="n">
-        <v>11.66184558973314</v>
+        <v>7.003336230381023</v>
       </c>
       <c r="F16" t="n">
-        <v>11.94631973560594</v>
+        <v>7.174201181703318</v>
       </c>
       <c r="G16" t="n">
-        <v>11.72895352125095</v>
+        <v>7.043655830734511</v>
       </c>
       <c r="H16" t="n">
-        <v>11.76233357555267</v>
+        <v>7.063740405051088</v>
       </c>
       <c r="I16" t="n">
-        <v>11.66264825799704</v>
+        <v>7.003843092001957</v>
       </c>
       <c r="J16" t="n">
-        <v>11.31958540968006</v>
+        <v>6.797803843092002</v>
       </c>
       <c r="K16" t="n">
-        <v>11.29064800260259</v>
+        <v>6.780577121113635</v>
       </c>
       <c r="L16" t="n">
-        <v>12.10257613946969</v>
+        <v>7.2680085596804</v>
       </c>
       <c r="M16" t="n">
-        <v>11.8180484823793</v>
+        <v>7.097126810350494</v>
       </c>
       <c r="N16" t="n">
-        <v>12.28487183151263</v>
+        <v>7.37750381606912</v>
       </c>
       <c r="O16" t="n">
-        <v>11.26377929055071</v>
+        <v>6.764303503480109</v>
       </c>
       <c r="P16" t="n">
-        <v>12.68158089163066</v>
+        <v>7.615568101313896</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.14309446858192</v>
+        <v>6.691782122537814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.34063964147484</v>
+        <v>6.810473922919056</v>
       </c>
       <c r="B17" t="n">
-        <v>11.38245744185976</v>
+        <v>6.835597169170543</v>
       </c>
       <c r="C17" t="n">
-        <v>11.36785374411301</v>
+        <v>6.826814732583022</v>
       </c>
       <c r="D17" t="n">
-        <v>11.68643521038118</v>
+        <v>7.018106061159354</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5083474459035</v>
+        <v>6.911184551675784</v>
       </c>
       <c r="F17" t="n">
-        <v>11.82962879633205</v>
+        <v>7.104048319834065</v>
       </c>
       <c r="G17" t="n">
-        <v>11.57122191041128</v>
+        <v>6.948946472783576</v>
       </c>
       <c r="H17" t="n">
-        <v>11.64829265771367</v>
+        <v>6.995108128044639</v>
       </c>
       <c r="I17" t="n">
-        <v>11.50911849390246</v>
+        <v>6.911624951614435</v>
       </c>
       <c r="J17" t="n">
-        <v>11.18389069117643</v>
+        <v>6.71613558183186</v>
       </c>
       <c r="K17" t="n">
-        <v>11.08568909374496</v>
+        <v>6.657403904441247</v>
       </c>
       <c r="L17" t="n">
-        <v>11.98050853899174</v>
+        <v>7.194629019653669</v>
       </c>
       <c r="M17" t="n">
-        <v>11.67700872293655</v>
+        <v>7.01242760423894</v>
       </c>
       <c r="N17" t="n">
-        <v>12.08704329239928</v>
+        <v>7.258685665456723</v>
       </c>
       <c r="O17" t="n">
-        <v>11.11762434517168</v>
+        <v>6.676602566443424</v>
       </c>
       <c r="P17" t="n">
-        <v>12.4947732310134</v>
+        <v>7.503408534848562</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.12005788940812</v>
+        <v>6.677942755311457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.19062945610104</v>
+        <v>6.720355533482811</v>
       </c>
       <c r="B18" t="n">
-        <v>11.2224284971557</v>
+        <v>6.739457059180111</v>
       </c>
       <c r="C18" t="n">
-        <v>11.21871433218913</v>
+        <v>6.737214890338224</v>
       </c>
       <c r="D18" t="n">
-        <v>11.55121479585167</v>
+        <v>6.936907413764142</v>
       </c>
       <c r="E18" t="n">
-        <v>11.35333031319264</v>
+        <v>6.818070274099663</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7101577060714</v>
+        <v>7.032313523856822</v>
       </c>
       <c r="G18" t="n">
-        <v>11.42261274600718</v>
+        <v>6.859679669298354</v>
       </c>
       <c r="H18" t="n">
-        <v>11.51797216808603</v>
+        <v>6.916881997648279</v>
       </c>
       <c r="I18" t="n">
-        <v>11.28656047527691</v>
+        <v>6.778001913512171</v>
       </c>
       <c r="J18" t="n">
-        <v>11.05300468527195</v>
+        <v>6.637729785788886</v>
       </c>
       <c r="K18" t="n">
-        <v>10.87692237528998</v>
+        <v>6.531977563704618</v>
       </c>
       <c r="L18" t="n">
-        <v>11.88439387904641</v>
+        <v>7.13700893215796</v>
       </c>
       <c r="M18" t="n">
-        <v>11.57880834166912</v>
+        <v>6.953535980601953</v>
       </c>
       <c r="N18" t="n">
-        <v>11.83906014843282</v>
+        <v>7.109825373755669</v>
       </c>
       <c r="O18" t="n">
-        <v>10.94936926692672</v>
+        <v>6.57560198946838</v>
       </c>
       <c r="P18" t="n">
-        <v>12.32400434170561</v>
+        <v>7.400966980959824</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.00285616123903</v>
+        <v>6.607757758123298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.06608088098923</v>
+        <v>6.645581758824432</v>
       </c>
       <c r="B19" t="n">
-        <v>11.10702790792422</v>
+        <v>6.670201064847613</v>
       </c>
       <c r="C19" t="n">
-        <v>11.08938015159485</v>
+        <v>6.659567195682182</v>
       </c>
       <c r="D19" t="n">
-        <v>11.41152619465313</v>
+        <v>6.852972151824775</v>
       </c>
       <c r="E19" t="n">
-        <v>11.20911271712329</v>
+        <v>6.731525478195456</v>
       </c>
       <c r="F19" t="n">
-        <v>11.62186298087886</v>
+        <v>6.979310697409455</v>
       </c>
       <c r="G19" t="n">
-        <v>11.23477499445125</v>
+        <v>6.746899306899599</v>
       </c>
       <c r="H19" t="n">
-        <v>11.46590088871187</v>
+        <v>6.885821751228811</v>
       </c>
       <c r="I19" t="n">
-        <v>11.07671258699373</v>
+        <v>6.652135172836891</v>
       </c>
       <c r="J19" t="n">
-        <v>10.99449746581819</v>
+        <v>6.602662119032143</v>
       </c>
       <c r="K19" t="n">
-        <v>10.68017743833288</v>
+        <v>6.413850322448711</v>
       </c>
       <c r="L19" t="n">
-        <v>11.79749652633147</v>
+        <v>7.084749600134384</v>
       </c>
       <c r="M19" t="n">
-        <v>11.4278836009401</v>
+        <v>6.86281286289174</v>
       </c>
       <c r="N19" t="n">
-        <v>11.76184832610222</v>
+        <v>7.063346017046326</v>
       </c>
       <c r="O19" t="n">
-        <v>10.83404651219356</v>
+        <v>6.506278072757284</v>
       </c>
       <c r="P19" t="n">
-        <v>12.0240812640809</v>
+        <v>7.22071705582051</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.84597829755277</v>
+        <v>6.513412113554532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.91735618100169</v>
+        <v>6.556270404101635</v>
       </c>
       <c r="B20" t="n">
-        <v>10.96398877480595</v>
+        <v>6.584275604180513</v>
       </c>
       <c r="C20" t="n">
-        <v>10.9473127335415</v>
+        <v>6.574252306074306</v>
       </c>
       <c r="D20" t="n">
-        <v>11.27221582046987</v>
+        <v>6.76934217541502</v>
       </c>
       <c r="E20" t="n">
-        <v>11.11275847286282</v>
+        <v>6.673605217607234</v>
       </c>
       <c r="F20" t="n">
-        <v>11.40114623460412</v>
+        <v>6.846789024327897</v>
       </c>
       <c r="G20" t="n">
-        <v>11.08069917270441</v>
+        <v>6.654349588448814</v>
       </c>
       <c r="H20" t="n">
-        <v>11.0141956747126</v>
+        <v>6.614535389019946</v>
       </c>
       <c r="I20" t="n">
-        <v>10.6985755678726</v>
+        <v>6.424893186582044</v>
       </c>
       <c r="J20" t="n">
-        <v>10.58827192211685</v>
+        <v>6.358690777893822</v>
       </c>
       <c r="K20" t="n">
-        <v>10.21466268170251</v>
+        <v>6.134294228058516</v>
       </c>
       <c r="L20" t="n">
-        <v>11.66967282147016</v>
+        <v>7.008114168023897</v>
       </c>
       <c r="M20" t="n">
-        <v>11.35910466003654</v>
+        <v>6.82157886664573</v>
       </c>
       <c r="N20" t="n">
-        <v>11.59840317662046</v>
+        <v>6.96547571227204</v>
       </c>
       <c r="O20" t="n">
-        <v>10.72765161765019</v>
+        <v>6.442352889622483</v>
       </c>
       <c r="P20" t="n">
-        <v>11.96031170284248</v>
+        <v>7.182808334733167</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.7071446596717</v>
+        <v>6.429881464494124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.73395499584984</v>
+        <v>6.446160924912906</v>
       </c>
       <c r="B21" t="n">
-        <v>10.77982505480339</v>
+        <v>6.473701623563953</v>
       </c>
       <c r="C21" t="n">
-        <v>10.75760938635403</v>
+        <v>6.460358893084333</v>
       </c>
       <c r="D21" t="n">
-        <v>11.12699124057853</v>
+        <v>6.682182426362647</v>
       </c>
       <c r="E21" t="n">
-        <v>10.90408296671055</v>
+        <v>6.548288429094149</v>
       </c>
       <c r="F21" t="n">
-        <v>11.3085925029568</v>
+        <v>6.791222675849578</v>
       </c>
       <c r="G21" t="n">
-        <v>10.91183479627732</v>
+        <v>6.552943668246654</v>
       </c>
       <c r="H21" t="n">
-        <v>11.16582700674667</v>
+        <v>6.705572556437654</v>
       </c>
       <c r="I21" t="n">
-        <v>10.43744569067476</v>
+        <v>6.268121033296572</v>
       </c>
       <c r="J21" t="n">
-        <v>10.69600702942813</v>
+        <v>6.42341350121603</v>
       </c>
       <c r="K21" t="n">
-        <v>9.931224707588559</v>
+        <v>5.964225356227313</v>
       </c>
       <c r="L21" t="n">
-        <v>11.58135134066883</v>
+        <v>6.955025890842164</v>
       </c>
       <c r="M21" t="n">
-        <v>11.22691492628526</v>
+        <v>6.742157886664573</v>
       </c>
       <c r="N21" t="n">
-        <v>11.57999288544039</v>
+        <v>6.954271441196018</v>
       </c>
       <c r="O21" t="n">
-        <v>10.55528590496286</v>
+        <v>6.338875702047166</v>
       </c>
       <c r="P21" t="n">
-        <v>11.96651170709905</v>
+        <v>7.186448389947488</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.49115392684165</v>
+        <v>6.300388545219506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.47456423322378</v>
+        <v>6.290281987423405</v>
       </c>
       <c r="B22" t="n">
-        <v>10.50009273250776</v>
+        <v>6.305608343497346</v>
       </c>
       <c r="C22" t="n">
-        <v>10.49594196465219</v>
+        <v>6.303132463245229</v>
       </c>
       <c r="D22" t="n">
-        <v>10.89866738825733</v>
+        <v>6.545001132039643</v>
       </c>
       <c r="E22" t="n">
-        <v>10.66508970729972</v>
+        <v>6.404738498842399</v>
       </c>
       <c r="F22" t="n">
-        <v>11.23323654694545</v>
+        <v>6.745953506036328</v>
       </c>
       <c r="G22" t="n">
-        <v>10.68565504115195</v>
+        <v>6.41711278766588</v>
       </c>
       <c r="H22" t="n">
-        <v>11.55332970511063</v>
+        <v>6.938189905127774</v>
       </c>
       <c r="I22" t="n">
-        <v>10.1173531405916</v>
+        <v>6.075852864060297</v>
       </c>
       <c r="J22" t="n">
-        <v>11.4895297397713</v>
+        <v>6.899746569189532</v>
       </c>
       <c r="K22" t="n">
-        <v>9.654653195623025</v>
+        <v>5.7978717654706</v>
       </c>
       <c r="L22" t="n">
-        <v>11.46193376162577</v>
+        <v>6.88330862322069</v>
       </c>
       <c r="M22" t="n">
-        <v>11.07767457274637</v>
+        <v>6.652563887205031</v>
       </c>
       <c r="N22" t="n">
-        <v>11.39719978230664</v>
+        <v>6.844348931135472</v>
       </c>
       <c r="O22" t="n">
-        <v>10.43187201089683</v>
+        <v>6.264857837731246</v>
       </c>
       <c r="P22" t="n">
-        <v>11.90926686591487</v>
+        <v>7.151783875373391</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.42145070127059</v>
+        <v>6.258537404780859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.39523993396229</v>
+        <v>6.242679355248647</v>
       </c>
       <c r="B23" t="n">
-        <v>10.43699327765329</v>
+        <v>6.267779230359112</v>
       </c>
       <c r="C23" t="n">
-        <v>10.42598699312563</v>
+        <v>6.261153511879113</v>
       </c>
       <c r="D23" t="n">
-        <v>10.80004864656145</v>
+        <v>6.485788155213591</v>
       </c>
       <c r="E23" t="n">
-        <v>10.56783428548843</v>
+        <v>6.346380759708153</v>
       </c>
       <c r="F23" t="n">
-        <v>11.1016390850798</v>
+        <v>6.666932026497031</v>
       </c>
       <c r="G23" t="n">
-        <v>10.49742811710444</v>
+        <v>6.304175400413377</v>
       </c>
       <c r="H23" t="n">
-        <v>11.41882074654229</v>
+        <v>6.857426545234113</v>
       </c>
       <c r="I23" t="n">
-        <v>10.01893628212573</v>
+        <v>6.01699958370155</v>
       </c>
       <c r="J23" t="n">
-        <v>11.3831238997516</v>
+        <v>6.835876162166505</v>
       </c>
       <c r="K23" t="n">
-        <v>9.537079929340869</v>
+        <v>5.727416539464363</v>
       </c>
       <c r="L23" t="n">
-        <v>11.1904433830035</v>
+        <v>6.720264239963191</v>
       </c>
       <c r="M23" t="n">
-        <v>10.7474203640587</v>
+        <v>6.454259755625507</v>
       </c>
       <c r="N23" t="n">
-        <v>11.33807231919441</v>
+        <v>6.808847437573491</v>
       </c>
       <c r="O23" t="n">
-        <v>10.22005758536711</v>
+        <v>6.13764214401005</v>
       </c>
       <c r="P23" t="n">
-        <v>11.71701200657945</v>
+        <v>7.036506452625967</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.3538696819427</v>
+        <v>6.217988475106083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.27739485501804</v>
+        <v>6.171911540231228</v>
       </c>
       <c r="B24" t="n">
-        <v>10.32645247991049</v>
+        <v>6.201386200801922</v>
       </c>
       <c r="C24" t="n">
-        <v>10.30510028792684</v>
+        <v>6.18857151203979</v>
       </c>
       <c r="D24" t="n">
-        <v>10.6576285409376</v>
+        <v>6.400265846729136</v>
       </c>
       <c r="E24" t="n">
-        <v>10.45190223257313</v>
+        <v>6.276763973386113</v>
       </c>
       <c r="F24" t="n">
-        <v>10.94177675484869</v>
+        <v>6.570970121456899</v>
       </c>
       <c r="G24" t="n">
-        <v>10.34896975704083</v>
+        <v>6.21493635015812</v>
       </c>
       <c r="H24" t="n">
-        <v>11.14719415754797</v>
+        <v>6.694396038591597</v>
       </c>
       <c r="I24" t="n">
-        <v>9.888724031097315</v>
+        <v>5.938612046362501</v>
       </c>
       <c r="J24" t="n">
-        <v>10.95820105015765</v>
+        <v>6.580873642465363</v>
       </c>
       <c r="K24" t="n">
-        <v>9.405734213430707</v>
+        <v>5.648454583299859</v>
       </c>
       <c r="L24" t="n">
-        <v>10.99536337461197</v>
+        <v>6.603111283148677</v>
       </c>
       <c r="M24" t="n">
-        <v>10.55136620827417</v>
+        <v>6.336472126262589</v>
       </c>
       <c r="N24" t="n">
-        <v>11.08679458685388</v>
+        <v>6.657886664573002</v>
       </c>
       <c r="O24" t="n">
-        <v>10.01621633125876</v>
+        <v>6.015105060582379</v>
       </c>
       <c r="P24" t="n">
-        <v>11.46154094064207</v>
+        <v>6.882963898890601</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.24733006387902</v>
+        <v>6.153931829303029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.03814741732365</v>
+        <v>6.028208236866514</v>
       </c>
       <c r="B25" t="n">
-        <v>10.06529949559597</v>
+        <v>6.044516911211574</v>
       </c>
       <c r="C25" t="n">
-        <v>10.05659844999894</v>
+        <v>6.039306242285698</v>
       </c>
       <c r="D25" t="n">
-        <v>10.45176967069318</v>
+        <v>6.276582847043185</v>
       </c>
       <c r="E25" t="n">
-        <v>10.18089163066314</v>
+        <v>6.113993470687476</v>
       </c>
       <c r="F25" t="n">
-        <v>10.72175808673074</v>
+        <v>6.438694575704238</v>
       </c>
       <c r="G25" t="n">
-        <v>10.18757749245218</v>
+        <v>6.118027913906559</v>
       </c>
       <c r="H25" t="n">
-        <v>11.00512187483848</v>
+        <v>6.60889125846291</v>
       </c>
       <c r="I25" t="n">
-        <v>9.778951849025397</v>
+        <v>5.872697029674046</v>
       </c>
       <c r="J25" t="n">
-        <v>10.70801908161373</v>
+        <v>6.430608160910306</v>
       </c>
       <c r="K25" t="n">
-        <v>9.318250669650322</v>
+        <v>5.596171880135261</v>
       </c>
       <c r="L25" t="n">
-        <v>10.83093313226088</v>
+        <v>6.50432877352634</v>
       </c>
       <c r="M25" t="n">
-        <v>10.44731851032067</v>
+        <v>6.274038314064314</v>
       </c>
       <c r="N25" t="n">
-        <v>10.79356041142829</v>
+        <v>6.481936299033749</v>
       </c>
       <c r="O25" t="n">
-        <v>9.861534859821893</v>
+        <v>5.922269410828142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.19504169922439</v>
+        <v>6.723011809729698</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.010749065834</v>
+        <v>6.011876556554509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.825869025214121</v>
+        <v>5.900793888446622</v>
       </c>
       <c r="B26" t="n">
-        <v>9.853413924470132</v>
+        <v>5.917337734898226</v>
       </c>
       <c r="C26" t="n">
-        <v>9.841594026202253</v>
+        <v>5.910251166731181</v>
       </c>
       <c r="D26" t="n">
-        <v>10.24872743635662</v>
+        <v>6.154797291869034</v>
       </c>
       <c r="E26" t="n">
-        <v>9.97626169417731</v>
+        <v>5.991147084815331</v>
       </c>
       <c r="F26" t="n">
-        <v>10.56185562308644</v>
+        <v>6.342772109464581</v>
       </c>
       <c r="G26" t="n">
-        <v>9.987762349385685</v>
+        <v>5.997983143564538</v>
       </c>
       <c r="H26" t="n">
-        <v>10.93074979553242</v>
+        <v>6.56427428955383</v>
       </c>
       <c r="I26" t="n">
-        <v>9.538603174796217</v>
+        <v>5.728242563229892</v>
       </c>
       <c r="J26" t="n">
-        <v>10.87940091759577</v>
+        <v>6.533502530656364</v>
       </c>
       <c r="K26" t="n">
-        <v>9.148538018807978</v>
+        <v>5.494092944106455</v>
       </c>
       <c r="L26" t="n">
-        <v>10.64443316114478</v>
+        <v>6.392427750308572</v>
       </c>
       <c r="M26" t="n">
-        <v>10.24669887474423</v>
+        <v>6.153571767661644</v>
       </c>
       <c r="N26" t="n">
-        <v>10.65311657236328</v>
+        <v>6.397537996362866</v>
       </c>
       <c r="O26" t="n">
-        <v>9.674646324296221</v>
+        <v>5.810083917003236</v>
       </c>
       <c r="P26" t="n">
-        <v>10.94412273527453</v>
+        <v>6.572211713323742</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.701788065174231</v>
+        <v>5.826380175429628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.642694654655021</v>
+        <v>5.790872108734233</v>
       </c>
       <c r="B27" t="n">
-        <v>9.694279468414699</v>
+        <v>5.82183887058961</v>
       </c>
       <c r="C27" t="n">
-        <v>9.682211472683436</v>
+        <v>5.81459929448368</v>
       </c>
       <c r="D27" t="n">
-        <v>10.03359653150017</v>
+        <v>6.02555853375304</v>
       </c>
       <c r="E27" t="n">
-        <v>9.875453857216261</v>
+        <v>5.93060231812505</v>
       </c>
       <c r="F27" t="n">
-        <v>10.37361167274242</v>
+        <v>6.229693765017784</v>
       </c>
       <c r="G27" t="n">
-        <v>9.7849244306072</v>
+        <v>5.876187728690267</v>
       </c>
       <c r="H27" t="n">
-        <v>10.77167310726871</v>
+        <v>6.46875716654129</v>
       </c>
       <c r="I27" t="n">
-        <v>9.224222339109099</v>
+        <v>5.539349698001037</v>
       </c>
       <c r="J27" t="n">
-        <v>10.75721413304226</v>
+        <v>6.460037539895268</v>
       </c>
       <c r="K27" t="n">
-        <v>8.746159810035177</v>
+        <v>5.252353181761745</v>
       </c>
       <c r="L27" t="n">
-        <v>10.42371641487004</v>
+        <v>6.259743939936167</v>
       </c>
       <c r="M27" t="n">
-        <v>10.00387895519348</v>
+        <v>6.007661352166577</v>
       </c>
       <c r="N27" t="n">
-        <v>10.55270155638592</v>
+        <v>6.337248486353444</v>
       </c>
       <c r="O27" t="n">
-        <v>9.413994399564613</v>
+        <v>5.653495081105163</v>
       </c>
       <c r="P27" t="n">
-        <v>10.90593031988154</v>
+        <v>6.549308725469431</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.26422440658796</v>
+        <v>5.563461777229205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.513452902527494</v>
+        <v>5.713109019069391</v>
       </c>
       <c r="B28" t="n">
-        <v>9.557310818083144</v>
+        <v>5.739460710920896</v>
       </c>
       <c r="C28" t="n">
-        <v>9.545643548401808</v>
+        <v>5.732463245229001</v>
       </c>
       <c r="D28" t="n">
-        <v>9.864831272442027</v>
+        <v>5.924194243395827</v>
       </c>
       <c r="E28" t="n">
-        <v>9.724588708525006</v>
+        <v>5.83993872378963</v>
       </c>
       <c r="F28" t="n">
-        <v>10.15736554546477</v>
+        <v>6.099842244798095</v>
       </c>
       <c r="G28" t="n">
-        <v>9.647828083051841</v>
+        <v>5.79391364363392</v>
       </c>
       <c r="H28" t="n">
-        <v>10.66040261110419</v>
+        <v>6.401931770875176</v>
       </c>
       <c r="I28" t="n">
-        <v>9.195902743362025</v>
+        <v>5.522687535148005</v>
       </c>
       <c r="J28" t="n">
-        <v>10.7635807517718</v>
+        <v>6.463736753310303</v>
       </c>
       <c r="K28" t="n">
-        <v>8.700218605485508</v>
+        <v>5.224943580604874</v>
       </c>
       <c r="L28" t="n">
-        <v>10.20552077664235</v>
+        <v>6.128746503458198</v>
       </c>
       <c r="M28" t="n">
-        <v>9.805946434055025</v>
+        <v>5.888831881157748</v>
       </c>
       <c r="N28" t="n">
-        <v>10.42138746074071</v>
+        <v>6.258298580933531</v>
       </c>
       <c r="O28" t="n">
-        <v>9.130709054037208</v>
+        <v>5.483429495840667</v>
       </c>
       <c r="P28" t="n">
-        <v>10.8829861691745</v>
+        <v>6.535435031879697</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.902647285065809</v>
+        <v>5.346414355723374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.020561685360121</v>
+        <v>5.417156973729377</v>
       </c>
       <c r="B29" t="n">
-        <v>9.027796037129487</v>
+        <v>5.421507292526347</v>
       </c>
       <c r="C29" t="n">
-        <v>9.027750430978131</v>
+        <v>5.421471505466656</v>
       </c>
       <c r="D29" t="n">
-        <v>9.254591779339197</v>
+        <v>5.557685088481679</v>
       </c>
       <c r="E29" t="n">
-        <v>9.010272329531807</v>
+        <v>5.410980419365912</v>
       </c>
       <c r="F29" t="n">
-        <v>9.426738582500008</v>
+        <v>5.661070982537376</v>
       </c>
       <c r="G29" t="n">
-        <v>8.932356956306267</v>
+        <v>5.364231929360726</v>
       </c>
       <c r="H29" t="n">
-        <v>9.955475018470491</v>
+        <v>5.978570854726448</v>
       </c>
       <c r="I29" t="n">
-        <v>8.18310079263491</v>
+        <v>4.914372521380942</v>
       </c>
       <c r="J29" t="n">
-        <v>10.26700394949271</v>
+        <v>6.165659029659438</v>
       </c>
       <c r="K29" t="n">
-        <v>7.688163379476624</v>
+        <v>4.616998853353394</v>
       </c>
       <c r="L29" t="n">
-        <v>9.597437542375715</v>
+        <v>5.763539559307922</v>
       </c>
       <c r="M29" t="n">
-        <v>9.240963445149482</v>
+        <v>5.549504823949577</v>
       </c>
       <c r="N29" t="n">
-        <v>9.950848122394749</v>
+        <v>5.975658591450545</v>
       </c>
       <c r="O29" t="n">
-        <v>8.700025235403752</v>
+        <v>5.224853382607489</v>
       </c>
       <c r="P29" t="n">
-        <v>10.48290590234811</v>
+        <v>6.295241781757364</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.13392641599499</v>
+        <v>4.884758364312268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.672659720343081</v>
+        <v>5.208339845604399</v>
       </c>
       <c r="B30" t="n">
-        <v>8.702805386390516</v>
+        <v>5.22642034457826</v>
       </c>
       <c r="C30" t="n">
-        <v>8.678533792637952</v>
+        <v>5.211874730684118</v>
       </c>
       <c r="D30" t="n">
-        <v>8.970911180500027</v>
+        <v>5.387356212706597</v>
       </c>
       <c r="E30" t="n">
-        <v>8.695316248255565</v>
+        <v>5.22191117505715</v>
       </c>
       <c r="F30" t="n">
-        <v>9.206336822710647</v>
+        <v>5.528676390035129</v>
       </c>
       <c r="G30" t="n">
-        <v>8.624574418597581</v>
+        <v>5.179411120281038</v>
       </c>
       <c r="H30" t="n">
-        <v>9.759472549657497</v>
+        <v>5.861033004433214</v>
       </c>
       <c r="I30" t="n">
-        <v>8.009566346308791</v>
+        <v>4.809982398609417</v>
       </c>
       <c r="J30" t="n">
-        <v>10.11337750035725</v>
+        <v>6.073462434542546</v>
       </c>
       <c r="K30" t="n">
-        <v>7.68956196811826</v>
+        <v>4.617826702989315</v>
       </c>
       <c r="L30" t="n">
-        <v>9.450154604853102</v>
+        <v>5.675038891039359</v>
       </c>
       <c r="M30" t="n">
-        <v>9.029218949051849</v>
+        <v>5.422371294396038</v>
       </c>
       <c r="N30" t="n">
-        <v>9.764908194817316</v>
+        <v>5.864042038839915</v>
       </c>
       <c r="O30" t="n">
-        <v>8.493564363961411</v>
+        <v>5.100808495409762</v>
       </c>
       <c r="P30" t="n">
-        <v>10.25811379038805</v>
+        <v>6.160269060261027</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.015084082541053</v>
+        <v>4.813434754347397</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.240541436228918</v>
+        <v>4.948672592224714</v>
       </c>
       <c r="B31" t="n">
-        <v>8.267341435012755</v>
+        <v>4.964768004907939</v>
       </c>
       <c r="C31" t="n">
-        <v>8.260594765021906</v>
+        <v>4.960719685073875</v>
       </c>
       <c r="D31" t="n">
-        <v>8.572068360580475</v>
+        <v>5.147803112743845</v>
       </c>
       <c r="E31" t="n">
-        <v>8.322232998786877</v>
+        <v>4.997746145587602</v>
       </c>
       <c r="F31" t="n">
-        <v>8.829663457007081</v>
+        <v>5.302512397659965</v>
       </c>
       <c r="G31" t="n">
-        <v>8.250023867219211</v>
+        <v>4.954384645160348</v>
       </c>
       <c r="H31" t="n">
-        <v>9.360790871472744</v>
+        <v>5.621450325370104</v>
       </c>
       <c r="I31" t="n">
-        <v>7.714880679105998</v>
+        <v>4.633157441152197</v>
       </c>
       <c r="J31" t="n">
-        <v>9.803231955926215</v>
+        <v>5.887134917215036</v>
       </c>
       <c r="K31" t="n">
-        <v>7.682905902348109</v>
+        <v>4.61461864870984</v>
       </c>
       <c r="L31" t="n">
-        <v>9.066561265783529</v>
+        <v>5.444796634555693</v>
       </c>
       <c r="M31" t="n">
-        <v>8.631960790871473</v>
+        <v>5.18372492167016</v>
       </c>
       <c r="N31" t="n">
-        <v>9.365128320507869</v>
+        <v>5.624257783685483</v>
       </c>
       <c r="O31" t="n">
-        <v>7.993475888027777</v>
+        <v>4.800370286515582</v>
       </c>
       <c r="P31" t="n">
-        <v>9.882209040355363</v>
+        <v>5.935018733430226</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.833609909304567</v>
+        <v>4.704307228255709</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.732687752924114</v>
+        <v>4.643700747146164</v>
       </c>
       <c r="B32" t="n">
-        <v>7.758213819880026</v>
+        <v>4.659031120134968</v>
       </c>
       <c r="C32" t="n">
-        <v>7.745307279045798</v>
+        <v>4.651293811760066</v>
       </c>
       <c r="D32" t="n">
-        <v>8.101936437186648</v>
+        <v>4.865478633664668</v>
       </c>
       <c r="E32" t="n">
-        <v>7.822696053243662</v>
+        <v>4.697780106776901</v>
       </c>
       <c r="F32" t="n">
-        <v>8.40972323146946</v>
+        <v>5.050321718363143</v>
       </c>
       <c r="G32" t="n">
-        <v>7.825424517258888</v>
+        <v>4.699444935400706</v>
       </c>
       <c r="H32" t="n">
-        <v>8.990572296391337</v>
+        <v>5.399175071756707</v>
       </c>
       <c r="I32" t="n">
-        <v>7.297980255576872</v>
+        <v>4.382690018331739</v>
       </c>
       <c r="J32" t="n">
-        <v>9.336407390628848</v>
+        <v>5.606678303547301</v>
       </c>
       <c r="K32" t="n">
-        <v>6.822705782555951</v>
+        <v>4.097204227255133</v>
       </c>
       <c r="L32" t="n">
-        <v>8.825035344767302</v>
+        <v>5.299737805011649</v>
       </c>
       <c r="M32" t="n">
-        <v>8.420185890672935</v>
+        <v>5.056616223953958</v>
       </c>
       <c r="N32" t="n">
-        <v>8.966173613496988</v>
+        <v>5.38449543897576</v>
       </c>
       <c r="O32" t="n">
-        <v>7.77460831917009</v>
+        <v>4.668913095872803</v>
       </c>
       <c r="P32" t="n">
-        <v>9.433404377582448</v>
+        <v>5.665245652602596</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.81259824325105</v>
+        <v>4.691670379269798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.610969799606571</v>
+        <v>4.570657532445717</v>
       </c>
       <c r="B33" t="n">
-        <v>7.622149387509388</v>
+        <v>4.577367240963768</v>
       </c>
       <c r="C33" t="n">
-        <v>7.601686211436198</v>
+        <v>4.565106156104615</v>
       </c>
       <c r="D33" t="n">
-        <v>7.930445146441352</v>
+        <v>4.762511959451071</v>
       </c>
       <c r="E33" t="n">
-        <v>7.658122911618319</v>
+        <v>4.598983720539581</v>
       </c>
       <c r="F33" t="n">
-        <v>8.274145872795323</v>
+        <v>4.968890820254015</v>
       </c>
       <c r="G33" t="n">
-        <v>7.743335269061091</v>
+        <v>4.650186238780027</v>
       </c>
       <c r="H33" t="n">
-        <v>8.879649623141169</v>
+        <v>5.332538471089168</v>
       </c>
       <c r="I33" t="n">
-        <v>7.357460406259596</v>
+        <v>4.418551208361026</v>
       </c>
       <c r="J33" t="n">
-        <v>9.287689075502504</v>
+        <v>5.577560052877207</v>
       </c>
       <c r="K33" t="n">
-        <v>6.924354596948036</v>
+        <v>4.158492488369205</v>
       </c>
       <c r="L33" t="n">
-        <v>8.808061951396004</v>
+        <v>5.289510739769648</v>
       </c>
       <c r="M33" t="n">
-        <v>8.441026077597346</v>
+        <v>5.069162509768407</v>
       </c>
       <c r="N33" t="n">
-        <v>8.987676001739114</v>
+        <v>5.397317066045384</v>
       </c>
       <c r="O33" t="n">
-        <v>7.878232792038991</v>
+        <v>4.731343621504371</v>
       </c>
       <c r="P33" t="n">
-        <v>9.382859992155742</v>
+        <v>5.634535242950315</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.812701009112109</v>
+        <v>4.691966900621527</v>
       </c>
     </row>
   </sheetData>
@@ -5795,1698 +5795,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.655611836924565</v>
+        <v>2.79578443043799</v>
       </c>
       <c r="B2" t="n">
-        <v>4.605449022964217</v>
+        <v>2.765654647570497</v>
       </c>
       <c r="C2" t="n">
-        <v>4.59249748406065</v>
+        <v>2.757883012832217</v>
       </c>
       <c r="D2" t="n">
-        <v>4.602470029157533</v>
+        <v>2.763865659760008</v>
       </c>
       <c r="E2" t="n">
-        <v>4.661380102948286</v>
+        <v>2.799214145383104</v>
       </c>
       <c r="F2" t="n">
-        <v>4.929093684156119</v>
+        <v>2.960060545862213</v>
       </c>
       <c r="G2" t="n">
-        <v>5.032059604199414</v>
+        <v>3.021834488500668</v>
       </c>
       <c r="H2" t="n">
-        <v>5.323892454614279</v>
+        <v>3.197233441181411</v>
       </c>
       <c r="I2" t="n">
-        <v>5.566138952821957</v>
+        <v>3.342646124407505</v>
       </c>
       <c r="J2" t="n">
-        <v>5.660759555248812</v>
+        <v>3.399422294607839</v>
       </c>
       <c r="K2" t="n">
-        <v>5.937083577832978</v>
+        <v>3.565458183916273</v>
       </c>
       <c r="L2" t="n">
-        <v>5.689035977172601</v>
+        <v>3.416402889257309</v>
       </c>
       <c r="M2" t="n">
-        <v>5.755422723416935</v>
+        <v>3.456247032960612</v>
       </c>
       <c r="N2" t="n">
-        <v>6.149276838459971</v>
+        <v>3.692744356234617</v>
       </c>
       <c r="O2" t="n">
-        <v>6.193629732778357</v>
+        <v>3.719362259989337</v>
       </c>
       <c r="P2" t="n">
-        <v>6.593646759074864</v>
+        <v>3.959545285237473</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.87002854945075</v>
+        <v>4.125608562601792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.617468676175043</v>
+        <v>2.772807312245748</v>
       </c>
       <c r="B3" t="n">
-        <v>4.566395563433596</v>
+        <v>2.742134880697629</v>
       </c>
       <c r="C3" t="n">
-        <v>4.556269781668151</v>
+        <v>2.73605801885759</v>
       </c>
       <c r="D3" t="n">
-        <v>4.573311888307495</v>
+        <v>2.746331278620518</v>
       </c>
       <c r="E3" t="n">
-        <v>4.625988817371687</v>
+        <v>2.777942572724418</v>
       </c>
       <c r="F3" t="n">
-        <v>4.902716910456882</v>
+        <v>2.944196653544745</v>
       </c>
       <c r="G3" t="n">
-        <v>5.003688017439792</v>
+        <v>3.004791449083778</v>
       </c>
       <c r="H3" t="n">
-        <v>5.316058533975062</v>
+        <v>3.192521965220821</v>
       </c>
       <c r="I3" t="n">
-        <v>5.551901320450102</v>
+        <v>3.33413172559359</v>
       </c>
       <c r="J3" t="n">
-        <v>5.635521111087463</v>
+        <v>3.384401224063511</v>
       </c>
       <c r="K3" t="n">
-        <v>5.932120412401225</v>
+        <v>3.562541538551427</v>
       </c>
       <c r="L3" t="n">
-        <v>5.687388074903543</v>
+        <v>3.415524645598557</v>
       </c>
       <c r="M3" t="n">
-        <v>5.751099260268225</v>
+        <v>3.453763849226926</v>
       </c>
       <c r="N3" t="n">
-        <v>6.148064930997893</v>
+        <v>3.692127942390137</v>
       </c>
       <c r="O3" t="n">
-        <v>6.204188468940691</v>
+        <v>3.725830223267431</v>
       </c>
       <c r="P3" t="n">
-        <v>6.603090272815997</v>
+        <v>3.965437003819721</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876844540791662</v>
+        <v>4.129808429678428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.548999249018707</v>
+        <v>2.731778543831845</v>
       </c>
       <c r="B4" t="n">
-        <v>4.497716043940007</v>
+        <v>2.700971728222844</v>
       </c>
       <c r="C4" t="n">
-        <v>4.487832278817767</v>
+        <v>2.695037284273413</v>
       </c>
       <c r="D4" t="n">
-        <v>4.510487590566216</v>
+        <v>2.708647504765522</v>
       </c>
       <c r="E4" t="n">
-        <v>4.56453209608912</v>
+        <v>2.741097968901776</v>
       </c>
       <c r="F4" t="n">
-        <v>4.869993584734709</v>
+        <v>2.924583884137568</v>
       </c>
       <c r="G4" t="n">
-        <v>4.959857161533948</v>
+        <v>2.978531050751894</v>
       </c>
       <c r="H4" t="n">
-        <v>5.280811667877764</v>
+        <v>3.1713214189204</v>
       </c>
       <c r="I4" t="n">
-        <v>5.498028294056303</v>
+        <v>3.301746627617385</v>
       </c>
       <c r="J4" t="n">
-        <v>5.593052054861159</v>
+        <v>3.358846342051256</v>
       </c>
       <c r="K4" t="n">
-        <v>5.887125383471723</v>
+        <v>3.535487616946999</v>
       </c>
       <c r="L4" t="n">
-        <v>5.661111026655275</v>
+        <v>3.399677916462778</v>
       </c>
       <c r="M4" t="n">
-        <v>5.715263162695384</v>
+        <v>3.432193016410923</v>
       </c>
       <c r="N4" t="n">
-        <v>6.165840384551069</v>
+        <v>3.702779705085414</v>
       </c>
       <c r="O4" t="n">
-        <v>6.197295859265497</v>
+        <v>3.721654457679976</v>
       </c>
       <c r="P4" t="n">
-        <v>6.64642523783608</v>
+        <v>3.99134245294732</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.85923144513732</v>
+        <v>4.119165796335113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.550099269389455</v>
+        <v>2.732548513376326</v>
       </c>
       <c r="B5" t="n">
-        <v>4.497953499968076</v>
+        <v>2.701249625696569</v>
       </c>
       <c r="C5" t="n">
-        <v>4.488317832309222</v>
+        <v>2.695465998641553</v>
       </c>
       <c r="D5" t="n">
-        <v>4.508456596625753</v>
+        <v>2.70758868252496</v>
       </c>
       <c r="E5" t="n">
-        <v>4.55261034408321</v>
+        <v>2.734086626594898</v>
       </c>
       <c r="F5" t="n">
-        <v>4.845970088445529</v>
+        <v>2.910245689120003</v>
       </c>
       <c r="G5" t="n">
-        <v>4.933692000377011</v>
+        <v>2.962869464873906</v>
       </c>
       <c r="H5" t="n">
-        <v>5.224175516793705</v>
+        <v>3.137401859466407</v>
       </c>
       <c r="I5" t="n">
-        <v>5.455579304536596</v>
+        <v>3.2762567465911</v>
       </c>
       <c r="J5" t="n">
-        <v>5.544521637078409</v>
+        <v>3.329807334156192</v>
       </c>
       <c r="K5" t="n">
-        <v>5.873100579806204</v>
+        <v>3.527011196237246</v>
       </c>
       <c r="L5" t="n">
-        <v>5.634548787940518</v>
+        <v>3.383757787337224</v>
       </c>
       <c r="M5" t="n">
-        <v>5.690964813334022</v>
+        <v>3.417627317942463</v>
       </c>
       <c r="N5" t="n">
-        <v>6.142271125529412</v>
+        <v>3.688603282184618</v>
       </c>
       <c r="O5" t="n">
-        <v>6.169662180034843</v>
+        <v>3.705067155513033</v>
       </c>
       <c r="P5" t="n">
-        <v>6.707414648087734</v>
+        <v>4.027989862767582</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.875494598711474</v>
+        <v>4.128980945216584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.519510311550822</v>
+        <v>2.714178796532307</v>
       </c>
       <c r="B6" t="n">
-        <v>4.469119162792677</v>
+        <v>2.683911160450187</v>
       </c>
       <c r="C6" t="n">
-        <v>4.459251207802908</v>
+        <v>2.677986211026797</v>
       </c>
       <c r="D6" t="n">
-        <v>4.478991374356573</v>
+        <v>2.689837570569891</v>
       </c>
       <c r="E6" t="n">
-        <v>4.53260596589268</v>
+        <v>2.722029308871539</v>
       </c>
       <c r="F6" t="n">
-        <v>4.845193871749421</v>
+        <v>2.909743209588011</v>
       </c>
       <c r="G6" t="n">
-        <v>4.925271888672344</v>
+        <v>2.957840470052074</v>
       </c>
       <c r="H6" t="n">
-        <v>5.285685445252856</v>
+        <v>3.174273486170858</v>
       </c>
       <c r="I6" t="n">
-        <v>5.454789405995081</v>
+        <v>3.275877330723556</v>
       </c>
       <c r="J6" t="n">
-        <v>5.603424109843936</v>
+        <v>3.365005368058954</v>
       </c>
       <c r="K6" t="n">
-        <v>5.830704493422073</v>
+        <v>3.501553450529868</v>
       </c>
       <c r="L6" t="n">
-        <v>5.634979310009334</v>
+        <v>3.384044083814755</v>
       </c>
       <c r="M6" t="n">
-        <v>5.683867280018729</v>
+        <v>3.413405540421119</v>
       </c>
       <c r="N6" t="n">
-        <v>6.151611873409485</v>
+        <v>3.694237918215614</v>
       </c>
       <c r="O6" t="n">
-        <v>6.177330094283117</v>
+        <v>3.709699753872671</v>
       </c>
       <c r="P6" t="n">
-        <v>6.7145851512452</v>
+        <v>4.032351136786906</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.85004332584379</v>
+        <v>4.113709365254417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.558331483750528</v>
+        <v>2.737348178876871</v>
       </c>
       <c r="B7" t="n">
-        <v>4.508780400300393</v>
+        <v>2.707597994463961</v>
       </c>
       <c r="C7" t="n">
-        <v>4.497053842622293</v>
+        <v>2.70054885663996</v>
       </c>
       <c r="D7" t="n">
-        <v>4.498977510086561</v>
+        <v>2.701743523637718</v>
       </c>
       <c r="E7" t="n">
-        <v>4.556272518037233</v>
+        <v>2.736160632773643</v>
       </c>
       <c r="F7" t="n">
-        <v>4.826522105301563</v>
+        <v>2.898510454933867</v>
       </c>
       <c r="G7" t="n">
-        <v>4.918567176340745</v>
+        <v>2.953757276093514</v>
       </c>
       <c r="H7" t="n">
-        <v>5.238177821424554</v>
+        <v>3.145822773716231</v>
       </c>
       <c r="I7" t="n">
-        <v>5.424438208225525</v>
+        <v>3.257609132273355</v>
       </c>
       <c r="J7" t="n">
-        <v>5.558662584409385</v>
+        <v>3.338232995669035</v>
       </c>
       <c r="K7" t="n">
-        <v>5.780722583862111</v>
+        <v>3.471546000978667</v>
       </c>
       <c r="L7" t="n">
-        <v>5.63848003818755</v>
+        <v>3.386137991980777</v>
       </c>
       <c r="M7" t="n">
-        <v>5.699058384994968</v>
+        <v>3.42251298193849</v>
       </c>
       <c r="N7" t="n">
-        <v>6.127107384243986</v>
+        <v>3.679465896392811</v>
       </c>
       <c r="O7" t="n">
-        <v>6.163588048756016</v>
+        <v>3.70141322368373</v>
       </c>
       <c r="P7" t="n">
-        <v>6.679114510965239</v>
+        <v>4.010931851213473</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.840515896784158</v>
+        <v>4.107922086458615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.50335205212479</v>
+        <v>2.704541670014096</v>
       </c>
       <c r="B8" t="n">
-        <v>4.462204358123824</v>
+        <v>2.679835452560235</v>
       </c>
       <c r="C8" t="n">
-        <v>4.452420318452553</v>
+        <v>2.673957975767048</v>
       </c>
       <c r="D8" t="n">
-        <v>4.489900973843352</v>
+        <v>2.696469679596264</v>
       </c>
       <c r="E8" t="n">
-        <v>4.553832892980605</v>
+        <v>2.734859517532008</v>
       </c>
       <c r="F8" t="n">
-        <v>4.832426277656331</v>
+        <v>2.902126408659008</v>
       </c>
       <c r="G8" t="n">
-        <v>4.936743964025868</v>
+        <v>2.964758510381899</v>
       </c>
       <c r="H8" t="n">
-        <v>5.265106125514209</v>
+        <v>3.161921838140242</v>
       </c>
       <c r="I8" t="n">
-        <v>5.490333016117214</v>
+        <v>3.29720970486631</v>
       </c>
       <c r="J8" t="n">
-        <v>5.596018887027483</v>
+        <v>3.360622548768998</v>
       </c>
       <c r="K8" t="n">
-        <v>5.863113440740887</v>
+        <v>3.521058128409813</v>
       </c>
       <c r="L8" t="n">
-        <v>5.651874260800296</v>
+        <v>3.394164883399917</v>
       </c>
       <c r="M8" t="n">
-        <v>5.71421969395232</v>
+        <v>3.43159413092221</v>
       </c>
       <c r="N8" t="n">
-        <v>6.15118439175076</v>
+        <v>3.693960385915966</v>
       </c>
       <c r="O8" t="n">
-        <v>6.179246768804176</v>
+        <v>3.710804040286004</v>
       </c>
       <c r="P8" t="n">
-        <v>6.723769622046621</v>
+        <v>4.037866726068317</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.857338485814966</v>
+        <v>4.11798920545424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.594998525401106</v>
+        <v>2.759336223077541</v>
       </c>
       <c r="B9" t="n">
-        <v>4.546361693265188</v>
+        <v>2.730117549535864</v>
       </c>
       <c r="C9" t="n">
-        <v>4.531176669109129</v>
+        <v>2.721011568714806</v>
       </c>
       <c r="D9" t="n">
-        <v>4.526588690282545</v>
+        <v>2.718275136757693</v>
       </c>
       <c r="E9" t="n">
-        <v>4.605427740093583</v>
+        <v>2.765590011758605</v>
       </c>
       <c r="F9" t="n">
-        <v>4.862650082243093</v>
+        <v>2.920157243958195</v>
       </c>
       <c r="G9" t="n">
-        <v>4.989676895619681</v>
+        <v>2.996402670152862</v>
       </c>
       <c r="H9" t="n">
-        <v>5.30157037181175</v>
+        <v>3.183831552501077</v>
       </c>
       <c r="I9" t="n">
-        <v>5.531794480439522</v>
+        <v>3.322051036729209</v>
       </c>
       <c r="J9" t="n">
-        <v>5.634429603864969</v>
+        <v>3.383695342569803</v>
       </c>
       <c r="K9" t="n">
-        <v>5.873280572083563</v>
+        <v>3.527121478808948</v>
       </c>
       <c r="L9" t="n">
-        <v>5.672802619617334</v>
+        <v>3.406731253788681</v>
       </c>
       <c r="M9" t="n">
-        <v>5.7505240146791</v>
+        <v>3.453389910970559</v>
       </c>
       <c r="N9" t="n">
-        <v>6.18120053632834</v>
+        <v>3.712015322704333</v>
       </c>
       <c r="O9" t="n">
-        <v>6.208901712663004</v>
+        <v>3.728650462675557</v>
       </c>
       <c r="P9" t="n">
-        <v>6.710292092197395</v>
+        <v>4.029772642618736</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.874871922724937</v>
+        <v>4.128595686563785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.618346442568174</v>
+        <v>2.773292080834934</v>
       </c>
       <c r="B10" t="n">
-        <v>4.567126782060364</v>
+        <v>2.742523791091213</v>
       </c>
       <c r="C10" t="n">
-        <v>4.552544063143237</v>
+        <v>2.733775315692991</v>
       </c>
       <c r="D10" t="n">
-        <v>4.561732486477776</v>
+        <v>2.739330891535995</v>
       </c>
       <c r="E10" t="n">
-        <v>4.618592411744496</v>
+        <v>2.773458782801761</v>
       </c>
       <c r="F10" t="n">
-        <v>4.903964086676011</v>
+        <v>2.94499236786176</v>
       </c>
       <c r="G10" t="n">
-        <v>4.99228283110826</v>
+        <v>2.997989168936832</v>
       </c>
       <c r="H10" t="n">
-        <v>5.356220527024685</v>
+        <v>3.216662162853032</v>
       </c>
       <c r="I10" t="n">
-        <v>5.551672073529278</v>
+        <v>3.333993689791924</v>
       </c>
       <c r="J10" t="n">
-        <v>5.682128773528974</v>
+        <v>3.412391086831092</v>
       </c>
       <c r="K10" t="n">
-        <v>5.878608586726178</v>
+        <v>3.5303350106996</v>
       </c>
       <c r="L10" t="n">
-        <v>5.715150059440017</v>
+        <v>3.432201780588807</v>
       </c>
       <c r="M10" t="n">
-        <v>5.76618273472726</v>
+        <v>3.462837694729077</v>
       </c>
       <c r="N10" t="n">
-        <v>6.244474510722006</v>
+        <v>3.749936459710344</v>
       </c>
       <c r="O10" t="n">
-        <v>6.256651353134511</v>
+        <v>3.757283396995348</v>
       </c>
       <c r="P10" t="n">
-        <v>6.775514361377063</v>
+        <v>4.068726491918698</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.941875264135627</v>
+        <v>4.168721744655677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.685785778785843</v>
+        <v>2.813813257279745</v>
       </c>
       <c r="B11" t="n">
-        <v>4.626229617850855</v>
+        <v>2.778055959275787</v>
       </c>
       <c r="C11" t="n">
-        <v>4.638370887465301</v>
+        <v>2.785340816967449</v>
       </c>
       <c r="D11" t="n">
-        <v>4.640425900645479</v>
+        <v>2.786613083456884</v>
       </c>
       <c r="E11" t="n">
-        <v>4.705408281469005</v>
+        <v>2.82561623125744</v>
       </c>
       <c r="F11" t="n">
-        <v>4.9847195069671</v>
+        <v>2.993442569072677</v>
       </c>
       <c r="G11" t="n">
-        <v>5.086833504103033</v>
+        <v>3.054710015264277</v>
       </c>
       <c r="H11" t="n">
-        <v>5.432938586756582</v>
+        <v>3.262656568386149</v>
       </c>
       <c r="I11" t="n">
-        <v>5.616592734027965</v>
+        <v>3.372872678405796</v>
       </c>
       <c r="J11" t="n">
-        <v>5.777151318169794</v>
+        <v>3.469425435104915</v>
       </c>
       <c r="K11" t="n">
-        <v>5.944612241299106</v>
+        <v>3.569954937518715</v>
       </c>
       <c r="L11" t="n">
-        <v>5.757836809028801</v>
+        <v>3.457747168075021</v>
       </c>
       <c r="M11" t="n">
-        <v>5.822776928152069</v>
+        <v>3.496729500953105</v>
       </c>
       <c r="N11" t="n">
-        <v>6.271759758956288</v>
+        <v>3.766449996713433</v>
       </c>
       <c r="O11" t="n">
-        <v>6.291155751087707</v>
+        <v>3.778122420958071</v>
       </c>
       <c r="P11" t="n">
-        <v>6.796834933095776</v>
+        <v>4.081740565727682</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.937837599535426</v>
+        <v>4.166506963869677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.696899085748686</v>
+        <v>2.820541041914681</v>
       </c>
       <c r="B12" t="n">
-        <v>4.647609781607343</v>
+        <v>2.790926884846006</v>
       </c>
       <c r="C12" t="n">
-        <v>4.630462780819877</v>
+        <v>2.780634453443957</v>
       </c>
       <c r="D12" t="n">
-        <v>4.64627443349559</v>
+        <v>2.790124779982618</v>
       </c>
       <c r="E12" t="n">
-        <v>4.715568419868472</v>
+        <v>2.831729245331249</v>
       </c>
       <c r="F12" t="n">
-        <v>4.98635403143176</v>
+        <v>2.994385448543321</v>
       </c>
       <c r="G12" t="n">
-        <v>5.105209134608076</v>
+        <v>3.065759087356943</v>
       </c>
       <c r="H12" t="n">
-        <v>5.410859128679276</v>
+        <v>3.249368248844224</v>
       </c>
       <c r="I12" t="n">
-        <v>5.68479642934239</v>
+        <v>3.413882092593539</v>
       </c>
       <c r="J12" t="n">
-        <v>5.717187134200661</v>
+        <v>3.433373989380738</v>
       </c>
       <c r="K12" t="n">
-        <v>5.994626987288045</v>
+        <v>3.600025927359572</v>
       </c>
       <c r="L12" t="n">
-        <v>5.788711565415944</v>
+        <v>3.476272449076475</v>
       </c>
       <c r="M12" t="n">
-        <v>5.848057938054684</v>
+        <v>3.511915265006829</v>
       </c>
       <c r="N12" t="n">
-        <v>6.300218605485508</v>
+        <v>3.783375450077052</v>
       </c>
       <c r="O12" t="n">
-        <v>6.299195203449041</v>
+        <v>3.782750637228767</v>
       </c>
       <c r="P12" t="n">
-        <v>6.803762811528019</v>
+        <v>4.085715850746051</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.947608261402298</v>
+        <v>4.172109464581766</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.691724003733624</v>
+        <v>2.817550083624864</v>
       </c>
       <c r="B13" t="n">
-        <v>4.64248000170263</v>
+        <v>2.787983581773431</v>
       </c>
       <c r="C13" t="n">
-        <v>4.644667272721745</v>
+        <v>2.789295652237421</v>
       </c>
       <c r="D13" t="n">
-        <v>4.710223682970359</v>
+        <v>2.828658496505284</v>
       </c>
       <c r="E13" t="n">
-        <v>4.724936227398351</v>
+        <v>2.83750009129352</v>
       </c>
       <c r="F13" t="n">
-        <v>5.028266996652508</v>
+        <v>3.019673936065322</v>
       </c>
       <c r="G13" t="n">
-        <v>5.041324949909244</v>
+        <v>3.027462186224173</v>
       </c>
       <c r="H13" t="n">
-        <v>5.482619495717582</v>
+        <v>3.292566881632474</v>
       </c>
       <c r="I13" t="n">
-        <v>5.482598212846948</v>
+        <v>3.292462807020106</v>
       </c>
       <c r="J13" t="n">
-        <v>5.900523862658595</v>
+        <v>3.543581335222501</v>
       </c>
       <c r="K13" t="n">
-        <v>5.918589979416423</v>
+        <v>3.554355431234069</v>
       </c>
       <c r="L13" t="n">
-        <v>5.791357330276708</v>
+        <v>3.477897473725725</v>
       </c>
       <c r="M13" t="n">
-        <v>5.81836346886468</v>
+        <v>3.494084179928572</v>
       </c>
       <c r="N13" t="n">
-        <v>6.306617452562001</v>
+        <v>3.787356943054754</v>
       </c>
       <c r="O13" t="n">
-        <v>6.323072760053876</v>
+        <v>3.797184507854894</v>
       </c>
       <c r="P13" t="n">
-        <v>6.832367597741583</v>
+        <v>4.103036057288509</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.987606680389051</v>
+        <v>4.196295674147867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.718438871034925</v>
+        <v>2.833384579429014</v>
       </c>
       <c r="B14" t="n">
-        <v>4.667262384350401</v>
+        <v>2.802631809583628</v>
       </c>
       <c r="C14" t="n">
-        <v>4.655251548328839</v>
+        <v>2.795427290189233</v>
       </c>
       <c r="D14" t="n">
-        <v>4.671983837179959</v>
+        <v>2.805501530079389</v>
       </c>
       <c r="E14" t="n">
-        <v>4.724253959374041</v>
+        <v>2.83687162670445</v>
       </c>
       <c r="F14" t="n">
-        <v>5.013122105909645</v>
+        <v>3.010504597541648</v>
       </c>
       <c r="G14" t="n">
-        <v>5.071456021988245</v>
+        <v>3.045466911576749</v>
       </c>
       <c r="H14" t="n">
-        <v>5.501353286531288</v>
+        <v>3.303771883056653</v>
       </c>
       <c r="I14" t="n">
-        <v>5.646464763167256</v>
+        <v>3.390843259982034</v>
       </c>
       <c r="J14" t="n">
-        <v>5.861136566100035</v>
+        <v>3.519724147501114</v>
       </c>
       <c r="K14" t="n">
-        <v>6.027065122543728</v>
+        <v>3.619353495811453</v>
       </c>
       <c r="L14" t="n">
-        <v>5.817845382985257</v>
+        <v>3.493900132193017</v>
       </c>
       <c r="M14" t="n">
-        <v>5.848032398609925</v>
+        <v>3.511997429174488</v>
       </c>
       <c r="N14" t="n">
-        <v>6.304860703611703</v>
+        <v>3.786249735248793</v>
       </c>
       <c r="O14" t="n">
-        <v>6.270791692383469</v>
+        <v>3.765751783875373</v>
       </c>
       <c r="P14" t="n">
-        <v>6.820430339644211</v>
+        <v>4.095731115022531</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.994214707679772</v>
+        <v>4.200172362165044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.697462169697449</v>
+        <v>2.821025627916828</v>
       </c>
       <c r="B15" t="n">
-        <v>4.645805906300642</v>
+        <v>2.790002081492247</v>
       </c>
       <c r="C15" t="n">
-        <v>4.634540882874282</v>
+        <v>2.78323850979762</v>
       </c>
       <c r="D15" t="n">
-        <v>4.664325652243975</v>
+        <v>2.801125466509885</v>
       </c>
       <c r="E15" t="n">
-        <v>4.712706177809263</v>
+        <v>2.830171777886518</v>
       </c>
       <c r="F15" t="n">
-        <v>5.009025153312678</v>
+        <v>3.008134252598214</v>
       </c>
       <c r="G15" t="n">
-        <v>5.057328148420659</v>
+        <v>3.037110267964739</v>
       </c>
       <c r="H15" t="n">
-        <v>5.478840874057092</v>
+        <v>3.290286369512347</v>
       </c>
       <c r="I15" t="n">
-        <v>5.607878310626537</v>
+        <v>3.367736504991929</v>
       </c>
       <c r="J15" t="n">
-        <v>5.813031805729957</v>
+        <v>3.490923963453378</v>
       </c>
       <c r="K15" t="n">
-        <v>5.957818566568259</v>
+        <v>3.577863512536426</v>
       </c>
       <c r="L15" t="n">
-        <v>5.817771196979049</v>
+        <v>3.493768669524763</v>
       </c>
       <c r="M15" t="n">
-        <v>5.852635579486961</v>
+        <v>3.514704099444205</v>
       </c>
       <c r="N15" t="n">
-        <v>6.317310574850336</v>
+        <v>3.793745663557818</v>
       </c>
       <c r="O15" t="n">
-        <v>6.299694438785903</v>
+        <v>3.783181177467299</v>
       </c>
       <c r="P15" t="n">
-        <v>6.77540308236775</v>
+        <v>4.068808656086357</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.005200925500832</v>
+        <v>4.20687841894231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.662819737126144</v>
+        <v>2.800261099466116</v>
       </c>
       <c r="B16" t="n">
-        <v>4.614542889544942</v>
+        <v>2.771262260719685</v>
       </c>
       <c r="C16" t="n">
-        <v>4.600422008920563</v>
+        <v>2.762789309163678</v>
       </c>
       <c r="D16" t="n">
-        <v>4.631914272597088</v>
+        <v>2.781696014490108</v>
       </c>
       <c r="E16" t="n">
-        <v>4.688648020845052</v>
+        <v>2.815746306264196</v>
       </c>
       <c r="F16" t="n">
-        <v>4.980958823726144</v>
+        <v>2.991262662411172</v>
       </c>
       <c r="G16" t="n">
-        <v>5.057410239493103</v>
+        <v>3.037160661987569</v>
       </c>
       <c r="H16" t="n">
-        <v>5.460187350069777</v>
+        <v>3.278995917353802</v>
       </c>
       <c r="I16" t="n">
-        <v>5.608097220153054</v>
+        <v>3.367868698008341</v>
       </c>
       <c r="J16" t="n">
-        <v>5.824257607866149</v>
+        <v>3.497619795356446</v>
       </c>
       <c r="K16" t="n">
-        <v>5.937583421251858</v>
+        <v>3.565741193827098</v>
       </c>
       <c r="L16" t="n">
-        <v>5.819977926622743</v>
+        <v>3.495056273325494</v>
       </c>
       <c r="M16" t="n">
-        <v>5.867421093757126</v>
+        <v>3.523550076321382</v>
       </c>
       <c r="N16" t="n">
-        <v>6.327154814641399</v>
+        <v>3.799628983136261</v>
       </c>
       <c r="O16" t="n">
-        <v>6.316806474857329</v>
+        <v>3.793479451654604</v>
       </c>
       <c r="P16" t="n">
-        <v>6.81941180226389</v>
+        <v>4.09524981558709</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.003048315156748</v>
+        <v>4.205629523593897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.679917179229134</v>
+        <v>2.81044872590764</v>
       </c>
       <c r="B17" t="n">
-        <v>4.628839201831543</v>
+        <v>2.77978615405964</v>
       </c>
       <c r="C17" t="n">
-        <v>4.620136027947449</v>
+        <v>2.774557409016878</v>
       </c>
       <c r="D17" t="n">
-        <v>4.645940900508661</v>
+        <v>2.790076394417219</v>
       </c>
       <c r="E17" t="n">
-        <v>4.694725496574978</v>
+        <v>2.819355686855924</v>
       </c>
       <c r="F17" t="n">
-        <v>4.961327199812711</v>
+        <v>2.979457314801966</v>
       </c>
       <c r="G17" t="n">
-        <v>5.057306561509017</v>
+        <v>3.037053118221456</v>
       </c>
       <c r="H17" t="n">
-        <v>5.429600216477199</v>
+        <v>3.260667100006573</v>
       </c>
       <c r="I17" t="n">
-        <v>5.612139141327383</v>
+        <v>3.370255475785307</v>
       </c>
       <c r="J17" t="n">
-        <v>5.792236616874884</v>
+        <v>3.478350289583044</v>
       </c>
       <c r="K17" t="n">
-        <v>5.911199350568404</v>
+        <v>3.549755698541495</v>
       </c>
       <c r="L17" t="n">
-        <v>5.793793306841227</v>
+        <v>3.479394687447506</v>
       </c>
       <c r="M17" t="n">
-        <v>5.860518146687625</v>
+        <v>3.519452092812644</v>
       </c>
       <c r="N17" t="n">
-        <v>6.243786769959532</v>
+        <v>3.749641033880851</v>
       </c>
       <c r="O17" t="n">
-        <v>6.312332815450148</v>
+        <v>3.790857866945173</v>
       </c>
       <c r="P17" t="n">
-        <v>6.807320699415937</v>
+        <v>4.08803689718889</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.033785645007798</v>
+        <v>4.224083230475967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.700255090406594</v>
+        <v>2.822647548586411</v>
       </c>
       <c r="B18" t="n">
-        <v>4.645590341225224</v>
+        <v>2.789817120821496</v>
       </c>
       <c r="C18" t="n">
-        <v>4.642224607255026</v>
+        <v>2.7878177927418</v>
       </c>
       <c r="D18" t="n">
-        <v>4.664863804829995</v>
+        <v>2.801445724176715</v>
       </c>
       <c r="E18" t="n">
-        <v>4.696398330206779</v>
+        <v>2.820340926519672</v>
       </c>
       <c r="F18" t="n">
-        <v>4.964218933849797</v>
+        <v>2.981181849387603</v>
       </c>
       <c r="G18" t="n">
-        <v>5.03463756791516</v>
+        <v>3.02344472359974</v>
       </c>
       <c r="H18" t="n">
-        <v>5.418818922296239</v>
+        <v>3.254170653150357</v>
       </c>
       <c r="I18" t="n">
-        <v>5.592140539916024</v>
+        <v>3.358257681436741</v>
       </c>
       <c r="J18" t="n">
-        <v>5.715567203704436</v>
+        <v>3.432268242271091</v>
       </c>
       <c r="K18" t="n">
-        <v>5.896332961389832</v>
+        <v>3.540960480861227</v>
       </c>
       <c r="L18" t="n">
-        <v>5.827388622177359</v>
+        <v>3.499470132412121</v>
       </c>
       <c r="M18" t="n">
-        <v>5.875311566024025</v>
+        <v>3.52823818114095</v>
       </c>
       <c r="N18" t="n">
-        <v>6.250495738865258</v>
+        <v>3.753528677120383</v>
       </c>
       <c r="O18" t="n">
-        <v>6.257641310659982</v>
+        <v>3.757851973035546</v>
       </c>
       <c r="P18" t="n">
-        <v>6.903002404964382</v>
+        <v>4.145395885218484</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.0083003195471</v>
+        <v>4.208706115205119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.709263825504785</v>
+        <v>2.827917193125963</v>
       </c>
       <c r="B19" t="n">
-        <v>4.660655269182707</v>
+        <v>2.798714222069661</v>
       </c>
       <c r="C19" t="n">
-        <v>4.647070716898296</v>
+        <v>2.790558059026738</v>
       </c>
       <c r="D19" t="n">
-        <v>4.643177167736384</v>
+        <v>2.788244316065468</v>
       </c>
       <c r="E19" t="n">
-        <v>4.698718163105839</v>
+        <v>2.821581057690201</v>
       </c>
       <c r="F19" t="n">
-        <v>4.955945977993512</v>
+        <v>2.976155410784321</v>
       </c>
       <c r="G19" t="n">
-        <v>5.022063647944835</v>
+        <v>3.015812220185362</v>
       </c>
       <c r="H19" t="n">
-        <v>5.388976689175836</v>
+        <v>3.236196054659256</v>
       </c>
       <c r="I19" t="n">
-        <v>5.506968923968465</v>
+        <v>3.307017550266212</v>
       </c>
       <c r="J19" t="n">
-        <v>5.629732778357145</v>
+        <v>3.380815214612806</v>
       </c>
       <c r="K19" t="n">
-        <v>5.738261432702043</v>
+        <v>3.446097749797328</v>
       </c>
       <c r="L19" t="n">
-        <v>5.848698856501765</v>
+        <v>3.512276422170449</v>
       </c>
       <c r="M19" t="n">
-        <v>5.882939346859104</v>
+        <v>3.53281746408513</v>
       </c>
       <c r="N19" t="n">
-        <v>6.309584892810342</v>
+        <v>3.789111969675945</v>
       </c>
       <c r="O19" t="n">
-        <v>6.250475672158661</v>
+        <v>3.753607554721336</v>
       </c>
       <c r="P19" t="n">
-        <v>6.874480925987297</v>
+        <v>4.128321806004923</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.93202251119631</v>
+        <v>4.162852301692217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.735343551138177</v>
+        <v>2.843750775994917</v>
       </c>
       <c r="B20" t="n">
-        <v>4.686177383605501</v>
+        <v>2.814233937818158</v>
       </c>
       <c r="C20" t="n">
-        <v>4.673865546984977</v>
+        <v>2.806841901534462</v>
       </c>
       <c r="D20" t="n">
-        <v>4.69015150363481</v>
+        <v>2.816636418080499</v>
       </c>
       <c r="E20" t="n">
-        <v>4.74831272442027</v>
+        <v>2.851549433615004</v>
       </c>
       <c r="F20" t="n">
-        <v>4.973670960739184</v>
+        <v>2.986863592874724</v>
       </c>
       <c r="G20" t="n">
-        <v>5.070136179967954</v>
+        <v>3.044771072370199</v>
       </c>
       <c r="H20" t="n">
-        <v>5.274485182561424</v>
+        <v>3.167524338852331</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4862546100218</v>
+        <v>3.294666267409674</v>
       </c>
       <c r="J20" t="n">
-        <v>5.576619854485973</v>
+        <v>3.348941360346477</v>
       </c>
       <c r="K20" t="n">
-        <v>5.738789855975774</v>
+        <v>3.446283988577355</v>
       </c>
       <c r="L20" t="n">
-        <v>5.884718594844073</v>
+        <v>3.53388158134983</v>
       </c>
       <c r="M20" t="n">
-        <v>5.919689391705154</v>
+        <v>3.554872517729201</v>
       </c>
       <c r="N20" t="n">
-        <v>6.381329449716178</v>
+        <v>3.832133127862052</v>
       </c>
       <c r="O20" t="n">
-        <v>6.318932329592616</v>
+        <v>3.794708627602778</v>
       </c>
       <c r="P20" t="n">
-        <v>7.008536863452142</v>
+        <v>4.208874095281221</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.015577237057735</v>
+        <v>4.213101350413742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.714408503418941</v>
+        <v>2.831208507095333</v>
       </c>
       <c r="B21" t="n">
-        <v>4.669486140290602</v>
+        <v>2.804226889958443</v>
       </c>
       <c r="C21" t="n">
-        <v>4.649873975001748</v>
+        <v>2.792453677668144</v>
       </c>
       <c r="D21" t="n">
-        <v>4.656715505787421</v>
+        <v>2.796559329832531</v>
       </c>
       <c r="E21" t="n">
-        <v>4.736085715241272</v>
+        <v>2.844191906281725</v>
       </c>
       <c r="F21" t="n">
-        <v>4.963901515036348</v>
+        <v>2.981014964833736</v>
       </c>
       <c r="G21" t="n">
-        <v>5.078764255722812</v>
+        <v>3.049928060706539</v>
       </c>
       <c r="H21" t="n">
-        <v>5.266256616692459</v>
+        <v>3.162583533570453</v>
       </c>
       <c r="I21" t="n">
-        <v>5.457300176647826</v>
+        <v>3.277277042966382</v>
       </c>
       <c r="J21" t="n">
-        <v>5.502473981690651</v>
+        <v>3.30439852177533</v>
       </c>
       <c r="K21" t="n">
-        <v>5.669686199274558</v>
+        <v>3.404873613251437</v>
       </c>
       <c r="L21" t="n">
-        <v>5.897763778378428</v>
+        <v>3.541863556357316</v>
       </c>
       <c r="M21" t="n">
-        <v>5.943214868821507</v>
+        <v>3.569134391364364</v>
       </c>
       <c r="N21" t="n">
-        <v>6.376786468958933</v>
+        <v>3.829470278481752</v>
       </c>
       <c r="O21" t="n">
-        <v>6.322198338111845</v>
+        <v>3.796737899956909</v>
       </c>
       <c r="P21" t="n">
-        <v>6.97895063286136</v>
+        <v>4.191101438055521</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.000631797216808</v>
+        <v>4.204221412347266</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.751171622028379</v>
+        <v>2.853210245323946</v>
       </c>
       <c r="B22" t="n">
-        <v>4.674852464100358</v>
+        <v>2.807383637279891</v>
       </c>
       <c r="C22" t="n">
-        <v>4.687432160849855</v>
+        <v>2.814931968069179</v>
       </c>
       <c r="D22" t="n">
-        <v>4.652975193294072</v>
+        <v>2.794268045077088</v>
       </c>
       <c r="E22" t="n">
-        <v>4.715898000322284</v>
+        <v>2.83203489603494</v>
       </c>
       <c r="F22" t="n">
-        <v>4.941823273123079</v>
+        <v>2.967764805983012</v>
       </c>
       <c r="G22" t="n">
-        <v>5.087026266102772</v>
+        <v>3.054893880412793</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1265838256264</v>
+        <v>3.078741025847021</v>
       </c>
       <c r="I22" t="n">
-        <v>5.442430138977145</v>
+        <v>3.268358396447586</v>
       </c>
       <c r="J22" t="n">
-        <v>5.435299161150856</v>
+        <v>3.264078191073685</v>
       </c>
       <c r="K22" t="n">
-        <v>5.62176082309982</v>
+        <v>3.376146098845319</v>
       </c>
       <c r="L22" t="n">
-        <v>5.864981468700498</v>
+        <v>3.521990052658102</v>
       </c>
       <c r="M22" t="n">
-        <v>5.941430148098376</v>
+        <v>3.567869793530576</v>
       </c>
       <c r="N22" t="n">
-        <v>6.373872539928185</v>
+        <v>3.827737892653428</v>
       </c>
       <c r="O22" t="n">
-        <v>6.393400485857533</v>
+        <v>3.839422732816734</v>
       </c>
       <c r="P22" t="n">
-        <v>7.00583272271764</v>
+        <v>4.207215839790829</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.150319699121018</v>
+        <v>4.293995077453422</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.751774231308318</v>
+        <v>2.853533606970443</v>
       </c>
       <c r="B23" t="n">
-        <v>4.705454799743389</v>
+        <v>2.825703873036276</v>
       </c>
       <c r="C23" t="n">
-        <v>4.693164854075517</v>
+        <v>2.818325165606445</v>
       </c>
       <c r="D23" t="n">
-        <v>4.690794246327945</v>
+        <v>2.816907012072655</v>
       </c>
       <c r="E23" t="n">
-        <v>4.741645105091775</v>
+        <v>2.847436477969048</v>
       </c>
       <c r="F23" t="n">
-        <v>4.971064113127579</v>
+        <v>2.985297361252109</v>
       </c>
       <c r="G23" t="n">
-        <v>5.07414040005716</v>
+        <v>3.047121150152277</v>
       </c>
       <c r="H23" t="n">
-        <v>5.195640660012223</v>
+        <v>3.120173676791727</v>
       </c>
       <c r="I23" t="n">
-        <v>5.417378375995354</v>
+        <v>3.253238728902068</v>
       </c>
       <c r="J23" t="n">
-        <v>5.376892883312101</v>
+        <v>3.228886730304336</v>
       </c>
       <c r="K23" t="n">
-        <v>5.604549669659444</v>
+        <v>3.365715631641604</v>
       </c>
       <c r="L23" t="n">
-        <v>5.908061039272977</v>
+        <v>3.548068229124824</v>
       </c>
       <c r="M23" t="n">
-        <v>5.964941639328313</v>
+        <v>3.582205432329591</v>
       </c>
       <c r="N23" t="n">
-        <v>6.352496632745825</v>
+        <v>3.814988935225422</v>
       </c>
       <c r="O23" t="n">
-        <v>6.430574971952217</v>
+        <v>3.861867427202547</v>
       </c>
       <c r="P23" t="n">
-        <v>6.895900006992943</v>
+        <v>4.141282199224371</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.12457472263859</v>
+        <v>4.278630743275319</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.782974615616154</v>
+        <v>2.872380423748001</v>
       </c>
       <c r="B24" t="n">
-        <v>4.733275464194611</v>
+        <v>2.842542780143294</v>
       </c>
       <c r="C24" t="n">
-        <v>4.719359203169324</v>
+        <v>2.834195448470286</v>
       </c>
       <c r="D24" t="n">
-        <v>4.70587741674597</v>
+        <v>2.826128205315474</v>
       </c>
       <c r="E24" t="n">
-        <v>4.757425745584564</v>
+        <v>2.857045303496176</v>
       </c>
       <c r="F24" t="n">
-        <v>4.965047141558453</v>
+        <v>2.981738009509133</v>
       </c>
       <c r="G24" t="n">
-        <v>5.081169220104408</v>
+        <v>3.05134566647921</v>
       </c>
       <c r="H24" t="n">
-        <v>5.141818712507943</v>
+        <v>3.087907990739185</v>
       </c>
       <c r="I24" t="n">
-        <v>5.429935877751191</v>
+        <v>3.260831793515969</v>
       </c>
       <c r="J24" t="n">
-        <v>5.26361267607775</v>
+        <v>3.160637520906216</v>
       </c>
       <c r="K24" t="n">
-        <v>5.575561791774475</v>
+        <v>3.348293541531248</v>
       </c>
       <c r="L24" t="n">
-        <v>5.930996068749753</v>
+        <v>3.561797678953557</v>
       </c>
       <c r="M24" t="n">
-        <v>5.984534650033597</v>
+        <v>3.593905609804194</v>
       </c>
       <c r="N24" t="n">
-        <v>6.336357527903363</v>
+        <v>3.805095273917076</v>
       </c>
       <c r="O24" t="n">
-        <v>6.394557665937982</v>
+        <v>3.840061057105923</v>
       </c>
       <c r="P24" t="n">
-        <v>6.920384429451844</v>
+        <v>4.155765003177015</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.03393584126627</v>
+        <v>4.223975138948737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.878388765076633</v>
+        <v>2.929636067513384</v>
       </c>
       <c r="B25" t="n">
-        <v>4.808158940477892</v>
+        <v>2.887460835080083</v>
       </c>
       <c r="C25" t="n">
-        <v>4.814881591229025</v>
+        <v>2.89149655640844</v>
       </c>
       <c r="D25" t="n">
-        <v>4.773818420628574</v>
+        <v>2.866844749892274</v>
       </c>
       <c r="E25" t="n">
-        <v>4.807318875169883</v>
+        <v>2.886945026694225</v>
       </c>
       <c r="F25" t="n">
-        <v>5.026790269471547</v>
+        <v>3.018776703354489</v>
       </c>
       <c r="G25" t="n">
-        <v>5.11573868283354</v>
+        <v>3.072131375026475</v>
       </c>
       <c r="H25" t="n">
-        <v>5.168924576546885</v>
+        <v>3.104158967579845</v>
       </c>
       <c r="I25" t="n">
-        <v>5.432623600271205</v>
+        <v>3.262483475872949</v>
       </c>
       <c r="J25" t="n">
-        <v>5.229529678963099</v>
+        <v>3.140448141629115</v>
       </c>
       <c r="K25" t="n">
-        <v>5.611005676445639</v>
+        <v>3.369731450982683</v>
       </c>
       <c r="L25" t="n">
-        <v>5.975369029774736</v>
+        <v>3.588355328985327</v>
       </c>
       <c r="M25" t="n">
-        <v>6.030024049643816</v>
+        <v>3.621151612973905</v>
       </c>
       <c r="N25" t="n">
-        <v>6.245195087913458</v>
+        <v>3.750407899445666</v>
       </c>
       <c r="O25" t="n">
-        <v>6.307024259432112</v>
+        <v>3.78756509227949</v>
       </c>
       <c r="P25" t="n">
-        <v>6.899731531789008</v>
+        <v>4.143392175049846</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.013453206568502</v>
+        <v>4.211727565530488</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.944889830740371</v>
+        <v>2.969482402261158</v>
       </c>
       <c r="B26" t="n">
-        <v>4.865627251803724</v>
+        <v>2.921898576551442</v>
       </c>
       <c r="C26" t="n">
-        <v>4.882464130761957</v>
+        <v>2.931994909473346</v>
       </c>
       <c r="D26" t="n">
-        <v>4.802500433258438</v>
+        <v>2.884043718640676</v>
       </c>
       <c r="E26" t="n">
-        <v>4.857494762893619</v>
+        <v>2.917034640413085</v>
       </c>
       <c r="F26" t="n">
-        <v>5.068163561901229</v>
+        <v>3.043592473031894</v>
       </c>
       <c r="G26" t="n">
-        <v>5.171712024517867</v>
+        <v>3.105727390246931</v>
       </c>
       <c r="H26" t="n">
-        <v>5.220691814911995</v>
+        <v>3.135217753302999</v>
       </c>
       <c r="I26" t="n">
-        <v>5.500989653484462</v>
+        <v>3.303496906975555</v>
       </c>
       <c r="J26" t="n">
-        <v>5.103949796748585</v>
+        <v>3.06499185661805</v>
       </c>
       <c r="K26" t="n">
-        <v>5.554609109676713</v>
+        <v>3.335796189043317</v>
       </c>
       <c r="L26" t="n">
-        <v>6.038003301885358</v>
+        <v>3.62593174166125</v>
       </c>
       <c r="M26" t="n">
-        <v>6.091111969182403</v>
+        <v>3.657798292446009</v>
       </c>
       <c r="N26" t="n">
-        <v>6.357793635205517</v>
+        <v>3.817976059187415</v>
       </c>
       <c r="O26" t="n">
-        <v>6.339922104693481</v>
+        <v>3.807330504451472</v>
       </c>
       <c r="P26" t="n">
-        <v>7.037844592478634</v>
+        <v>4.226437872934028</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.029207395493504</v>
+        <v>4.22129476121267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.854087071264172</v>
+        <v>2.915002446666326</v>
       </c>
       <c r="B27" t="n">
-        <v>4.804120363754663</v>
+        <v>2.884991527961379</v>
       </c>
       <c r="C27" t="n">
-        <v>4.786598176362028</v>
+        <v>2.874479444351122</v>
       </c>
       <c r="D27" t="n">
-        <v>4.790049649896778</v>
+        <v>2.876560571424398</v>
       </c>
       <c r="E27" t="n">
-        <v>4.836449652329106</v>
+        <v>2.904388296901133</v>
       </c>
       <c r="F27" t="n">
-        <v>5.089496903342323</v>
+        <v>3.05638488617524</v>
       </c>
       <c r="G27" t="n">
-        <v>5.173715654767515</v>
+        <v>3.106918588090943</v>
       </c>
       <c r="H27" t="n">
-        <v>5.250142443212741</v>
+        <v>3.152865520993858</v>
       </c>
       <c r="I27" t="n">
-        <v>5.490730701757053</v>
+        <v>3.297244031229687</v>
       </c>
       <c r="J27" t="n">
-        <v>5.225488365870788</v>
+        <v>3.13774074101124</v>
       </c>
       <c r="K27" t="n">
-        <v>5.473799266045004</v>
+        <v>3.286892441626923</v>
       </c>
       <c r="L27" t="n">
-        <v>6.002081464747965</v>
+        <v>3.604457314801966</v>
       </c>
       <c r="M27" t="n">
-        <v>6.038944004767363</v>
+        <v>3.626578099780165</v>
       </c>
       <c r="N27" t="n">
-        <v>6.489381367758884</v>
+        <v>3.897152372535988</v>
       </c>
       <c r="O27" t="n">
-        <v>6.426512375989273</v>
+        <v>3.859457278284558</v>
       </c>
       <c r="P27" t="n">
-        <v>7.05339872241968</v>
+        <v>4.235896246740821</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.107555115033915</v>
+        <v>4.268457723796934</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.87014074058309</v>
+        <v>2.924843340320331</v>
       </c>
       <c r="B28" t="n">
-        <v>4.819609732960782</v>
+        <v>2.894504495292906</v>
       </c>
       <c r="C28" t="n">
-        <v>4.808042492771425</v>
+        <v>2.887553954470096</v>
       </c>
       <c r="D28" t="n">
-        <v>4.808781008382411</v>
+        <v>2.888012430525631</v>
       </c>
       <c r="E28" t="n">
-        <v>4.831114644743283</v>
+        <v>2.901421074926418</v>
       </c>
       <c r="F28" t="n">
-        <v>5.065924907951585</v>
+        <v>3.042396345337822</v>
       </c>
       <c r="G28" t="n">
-        <v>5.10940307628693</v>
+        <v>3.068451881011678</v>
       </c>
       <c r="H28" t="n">
-        <v>5.290042352912561</v>
+        <v>3.176904565406329</v>
       </c>
       <c r="I28" t="n">
-        <v>5.382737159588086</v>
+        <v>3.23255965118572</v>
       </c>
       <c r="J28" t="n">
-        <v>5.319540411610718</v>
+        <v>3.19446980375545</v>
       </c>
       <c r="K28" t="n">
-        <v>5.392181281411236</v>
+        <v>3.238152657371769</v>
       </c>
       <c r="L28" t="n">
-        <v>6.015509739953725</v>
+        <v>3.612638674856304</v>
       </c>
       <c r="M28" t="n">
-        <v>6.045766076928456</v>
+        <v>3.630786731034684</v>
       </c>
       <c r="N28" t="n">
-        <v>6.486035700495282</v>
+        <v>3.895142819582095</v>
       </c>
       <c r="O28" t="n">
-        <v>6.497844045204817</v>
+        <v>3.902225370834277</v>
       </c>
       <c r="P28" t="n">
-        <v>7.052383833531467</v>
+        <v>4.23525134931822</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.164331733064156</v>
+        <v>4.302504363830238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.012868535708097</v>
+        <v>3.010312698563405</v>
       </c>
       <c r="B29" t="n">
-        <v>4.974429847097777</v>
+        <v>2.987229132127285</v>
       </c>
       <c r="C29" t="n">
-        <v>4.963410792847739</v>
+        <v>2.980611447477012</v>
       </c>
       <c r="D29" t="n">
-        <v>4.985354648635008</v>
+        <v>2.993839330708949</v>
       </c>
       <c r="E29" t="n">
-        <v>5.001752492376172</v>
+        <v>3.003693370629779</v>
       </c>
       <c r="F29" t="n">
-        <v>5.200738211569977</v>
+        <v>3.12325209427334</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262851965473103</v>
+        <v>3.160508249282433</v>
       </c>
       <c r="H29" t="n">
-        <v>5.351436745788272</v>
+        <v>3.21376158514764</v>
       </c>
       <c r="I29" t="n">
-        <v>5.329719704593756</v>
+        <v>3.200578435740317</v>
       </c>
       <c r="J29" t="n">
-        <v>5.504933065371858</v>
+        <v>3.305726659898774</v>
       </c>
       <c r="K29" t="n">
-        <v>5.165237775271128</v>
+        <v>3.101851797751988</v>
       </c>
       <c r="L29" t="n">
-        <v>6.16485894017385</v>
+        <v>3.70214758875556</v>
       </c>
       <c r="M29" t="n">
-        <v>6.203108515276541</v>
+        <v>3.725100970632701</v>
       </c>
       <c r="N29" t="n">
-        <v>6.62668324703636</v>
+        <v>3.979525784941682</v>
       </c>
       <c r="O29" t="n">
-        <v>6.700109150722249</v>
+        <v>4.02358695890331</v>
       </c>
       <c r="P29" t="n">
-        <v>7.163723651046053</v>
+        <v>4.302009187779815</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.268804480348309</v>
+        <v>4.365080959093199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.084239426213808</v>
+        <v>3.053157295082566</v>
       </c>
       <c r="B30" t="n">
-        <v>5.02992979693101</v>
+        <v>3.020530451866405</v>
       </c>
       <c r="C30" t="n">
-        <v>5.053541925734943</v>
+        <v>3.034711074269104</v>
       </c>
       <c r="D30" t="n">
-        <v>5.059444577884666</v>
+        <v>3.038242490195076</v>
       </c>
       <c r="E30" t="n">
-        <v>5.113715593959313</v>
+        <v>3.070820765258799</v>
       </c>
       <c r="F30" t="n">
-        <v>5.305581280803155</v>
+        <v>3.186182543218352</v>
       </c>
       <c r="G30" t="n">
-        <v>5.385936887167341</v>
+        <v>3.234396841974569</v>
       </c>
       <c r="H30" t="n">
-        <v>5.467270289416637</v>
+        <v>3.283335646102497</v>
       </c>
       <c r="I30" t="n">
-        <v>5.402933387655327</v>
+        <v>3.244561827623228</v>
       </c>
       <c r="J30" t="n">
-        <v>5.577953378351672</v>
+        <v>3.3496724388516</v>
       </c>
       <c r="K30" t="n">
-        <v>5.235145316400276</v>
+        <v>3.143678106353299</v>
       </c>
       <c r="L30" t="n">
-        <v>6.225005548748415</v>
+        <v>3.738304569788418</v>
       </c>
       <c r="M30" t="n">
-        <v>6.273874060133231</v>
+        <v>3.767637542816661</v>
       </c>
       <c r="N30" t="n">
-        <v>6.63715685171616</v>
+        <v>3.985857173114423</v>
       </c>
       <c r="O30" t="n">
-        <v>6.758253345211202</v>
+        <v>4.058575382885022</v>
       </c>
       <c r="P30" t="n">
-        <v>7.185968507432283</v>
+        <v>4.31545891426443</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.310115748412146</v>
+        <v>4.389939454137788</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.27839636610186</v>
+        <v>3.169903813147728</v>
       </c>
       <c r="B31" t="n">
-        <v>5.218783045457172</v>
+        <v>3.134104702711783</v>
       </c>
       <c r="C31" t="n">
-        <v>5.239324056028678</v>
+        <v>3.146440648257024</v>
       </c>
       <c r="D31" t="n">
-        <v>5.222032027679893</v>
+        <v>3.136080294476377</v>
       </c>
       <c r="E31" t="n">
-        <v>5.27814948480251</v>
+        <v>3.169777097742494</v>
       </c>
       <c r="F31" t="n">
-        <v>5.459778110871595</v>
+        <v>3.278861533292921</v>
       </c>
       <c r="G31" t="n">
-        <v>5.550321523367072</v>
+        <v>3.333171682941258</v>
       </c>
       <c r="H31" t="n">
-        <v>5.597149919581153</v>
+        <v>3.361289721810387</v>
       </c>
       <c r="I31" t="n">
-        <v>5.624072750932646</v>
+        <v>3.377223362376845</v>
       </c>
       <c r="J31" t="n">
-        <v>5.759675649051544</v>
+        <v>3.458748475398222</v>
       </c>
       <c r="K31" t="n">
-        <v>5.395118317558672</v>
+        <v>3.239596555678092</v>
       </c>
       <c r="L31" t="n">
-        <v>6.383262542451726</v>
+        <v>3.833384214254935</v>
       </c>
       <c r="M31" t="n">
-        <v>6.427605707457822</v>
+        <v>3.859986780698359</v>
       </c>
       <c r="N31" t="n">
-        <v>6.688479582126037</v>
+        <v>4.016621263356241</v>
       </c>
       <c r="O31" t="n">
-        <v>6.750124504793207</v>
+        <v>4.053642246258792</v>
       </c>
       <c r="P31" t="n">
-        <v>7.212986199578599</v>
+        <v>4.331606546840879</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.381605518952396</v>
+        <v>4.432864936715332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.347445295421447</v>
+        <v>3.211413880997071</v>
       </c>
       <c r="B32" t="n">
-        <v>5.284941760944716</v>
+        <v>3.173871794684526</v>
       </c>
       <c r="C32" t="n">
-        <v>5.311760002189096</v>
+        <v>3.189978162590107</v>
       </c>
       <c r="D32" t="n">
-        <v>5.246877650857548</v>
+        <v>3.151014453590026</v>
       </c>
       <c r="E32" t="n">
-        <v>5.340789229651295</v>
+        <v>3.20741047757466</v>
       </c>
       <c r="F32" t="n">
-        <v>5.464416560505681</v>
+        <v>3.281705509016148</v>
       </c>
       <c r="G32" t="n">
-        <v>5.619790637361167</v>
+        <v>3.375017710942807</v>
       </c>
       <c r="H32" t="n">
-        <v>5.659408397004588</v>
+        <v>3.398848240956464</v>
       </c>
       <c r="I32" t="n">
-        <v>5.894540335600466</v>
+        <v>3.539992404379168</v>
       </c>
       <c r="J32" t="n">
-        <v>5.842907483361356</v>
+        <v>3.509061064409404</v>
       </c>
       <c r="K32" t="n">
-        <v>5.921765383714956</v>
+        <v>3.55631020807619</v>
       </c>
       <c r="L32" t="n">
-        <v>6.290854142406728</v>
+        <v>3.777913541385178</v>
       </c>
       <c r="M32" t="n">
-        <v>6.357929237495553</v>
+        <v>3.818218899949606</v>
       </c>
       <c r="N32" t="n">
-        <v>6.628184601539056</v>
+        <v>3.980473411675346</v>
       </c>
       <c r="O32" t="n">
-        <v>6.687139977440157</v>
+        <v>4.015988781852309</v>
       </c>
       <c r="P32" t="n">
-        <v>7.174798040759738</v>
+        <v>4.308726564953513</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.357890928328413</v>
+        <v>4.418774329722979</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.311994721848083</v>
+        <v>3.189929959611747</v>
       </c>
       <c r="B33" t="n">
-        <v>5.244678826280088</v>
+        <v>3.149490582160516</v>
       </c>
       <c r="C33" t="n">
-        <v>5.275244677002034</v>
+        <v>3.167859568656378</v>
       </c>
       <c r="D33" t="n">
-        <v>5.137281204488861</v>
+        <v>3.085023480693247</v>
       </c>
       <c r="E33" t="n">
-        <v>5.265616914409415</v>
+        <v>3.162112824183288</v>
       </c>
       <c r="F33" t="n">
-        <v>5.214749029349079</v>
+        <v>3.131637221463472</v>
       </c>
       <c r="G33" t="n">
-        <v>5.512127283728029</v>
+        <v>3.310133945851988</v>
       </c>
       <c r="H33" t="n">
-        <v>5.295111324615464</v>
+        <v>3.180044697307206</v>
       </c>
       <c r="I33" t="n">
-        <v>5.952962423571691</v>
+        <v>3.574881866185611</v>
       </c>
       <c r="J33" t="n">
-        <v>5.401314673323138</v>
+        <v>3.243442203898598</v>
       </c>
       <c r="K33" t="n">
-        <v>6.060620304466666</v>
+        <v>3.639382563668101</v>
       </c>
       <c r="L33" t="n">
-        <v>6.057045390282242</v>
+        <v>3.637479276371046</v>
       </c>
       <c r="M33" t="n">
-        <v>6.195294661343922</v>
+        <v>3.720458877747022</v>
       </c>
       <c r="N33" t="n">
-        <v>6.365312569359356</v>
+        <v>3.822702872459301</v>
       </c>
       <c r="O33" t="n">
-        <v>6.613716506082341</v>
+        <v>3.971776425822189</v>
       </c>
       <c r="P33" t="n">
-        <v>6.795686874245598</v>
+        <v>4.08107193198998</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.39023785128138</v>
+        <v>4.43808984743027</v>
       </c>
     </row>
   </sheetData>
